--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
   <si>
     <t>DATA</t>
   </si>
@@ -299,9 +299,6 @@
     <t>4--0</t>
   </si>
   <si>
-    <t>OVER 2</t>
-  </si>
-  <si>
     <t>T.ENTRADA</t>
   </si>
   <si>
@@ -393,6 +390,21 @@
   </si>
   <si>
     <t>S. HIROSHIMA vs AVISPA FUKUOKA</t>
+  </si>
+  <si>
+    <t>  BRADFORD vs LEYTON ORIENT</t>
+  </si>
+  <si>
+    <t>COLCHESTER UTD vs MANSFIELD</t>
+  </si>
+  <si>
+    <t>LE HAVRE vs RODEZ AVEYRON</t>
+  </si>
+  <si>
+    <t> PRESTON vs SUNDERLAND</t>
+  </si>
+  <si>
+    <t>OVER 2,25</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -870,91 +881,91 @@
                   <c:v>495453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508334.77799999999</c:v>
+                  <c:v>514032.48749999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>508334.77799999999</c:v>
+                  <c:v>514032.48749999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>508334.77799999999</c:v>
+                  <c:v>514032.48749999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>530134.71</c:v>
+                  <c:v>535832.41949999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,11 +980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277883648"/>
-        <c:axId val="216142072"/>
+        <c:axId val="242572656"/>
+        <c:axId val="242571872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277883648"/>
+        <c:axId val="242572656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,12 +1037,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216142072"/>
+        <c:crossAx val="242571872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216142072"/>
+        <c:axId val="242571872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1096,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277883648"/>
+        <c:crossAx val="242572656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4983,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5228,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>61</v>
@@ -5229,15 +5240,15 @@
         <v>62</v>
       </c>
       <c r="T4" s="1">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="U4" s="32">
         <f>T4*S$41</f>
-        <v>37654.428</v>
+        <v>43352.137499999997</v>
       </c>
       <c r="V4" s="32">
         <f>U4-S$41</f>
-        <v>12881.778000000002</v>
+        <v>18579.487499999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -5245,7 +5256,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>2.4</v>
@@ -5287,7 +5298,7 @@
         <v>22</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="1">
@@ -5313,7 +5324,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>2.57</v>
@@ -5355,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
@@ -5364,8 +5375,11 @@
       <c r="S6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="1">
-        <f t="shared" si="0"/>
+      <c r="U6" s="32">
+        <f t="shared" ref="U6:U10" si="1">T6*S$41</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5374,34 +5388,67 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3.34</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3.17</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="L7" s="13">
+        <v>3.09</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2.21</v>
+      </c>
+      <c r="N7" s="13">
+        <v>1.724</v>
+      </c>
       <c r="O7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="1">
         <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="U7" s="32">
+        <f t="shared" si="1"/>
+        <v>41618.051999999996</v>
+      </c>
+      <c r="V7" s="32">
+        <f t="shared" ref="V6:V10" si="2">U7-S$41</f>
+        <v>16845.401999999998</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -5409,33 +5456,62 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>404</v>
+      </c>
+      <c r="D8" s="1">
+        <v>404</v>
+      </c>
+      <c r="E8" s="1">
+        <v>404</v>
+      </c>
+      <c r="F8" s="13">
+        <v>404</v>
+      </c>
+      <c r="G8" s="13">
+        <v>404</v>
+      </c>
+      <c r="H8" s="13">
+        <v>404</v>
+      </c>
+      <c r="I8" s="1">
+        <v>404</v>
+      </c>
+      <c r="J8" s="1">
+        <v>404</v>
+      </c>
+      <c r="K8" s="1">
+        <v>404</v>
+      </c>
+      <c r="L8" s="13">
+        <v>404</v>
+      </c>
+      <c r="M8" s="13">
+        <v>404</v>
+      </c>
+      <c r="N8" s="13">
+        <v>404</v>
+      </c>
       <c r="O8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="23"/>
+      <c r="P8" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="1">
         <v>26</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="U8" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5444,33 +5520,62 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <v>404</v>
+      </c>
+      <c r="D9" s="1">
+        <v>404</v>
+      </c>
+      <c r="E9" s="1">
+        <v>404</v>
+      </c>
+      <c r="F9" s="13">
+        <v>404</v>
+      </c>
+      <c r="G9" s="13">
+        <v>404</v>
+      </c>
+      <c r="H9" s="13">
+        <v>404</v>
+      </c>
+      <c r="I9" s="1">
+        <v>404</v>
+      </c>
+      <c r="J9" s="1">
+        <v>404</v>
+      </c>
+      <c r="K9" s="1">
+        <v>404</v>
+      </c>
+      <c r="L9" s="13">
+        <v>404</v>
+      </c>
+      <c r="M9" s="13">
+        <v>404</v>
+      </c>
+      <c r="N9" s="13">
+        <v>404</v>
+      </c>
       <c r="O9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="23"/>
+      <c r="P9" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="1">
         <v>21</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="U9" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5479,34 +5584,67 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.39</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3.43</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="L10" s="13">
+        <v>3.57</v>
+      </c>
+      <c r="M10" s="13">
+        <v>2</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1.8839999999999999</v>
+      </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="1">
         <v>25</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="U10" s="32">
+        <f t="shared" si="1"/>
+        <v>42113.504999999997</v>
+      </c>
+      <c r="V10" s="32">
+        <f t="shared" si="2"/>
+        <v>17340.855</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -5514,30 +5652,56 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C11" s="1">
+        <v>404</v>
+      </c>
+      <c r="D11" s="1">
+        <v>404</v>
+      </c>
+      <c r="E11" s="1">
+        <v>404</v>
+      </c>
+      <c r="F11" s="13">
+        <v>404</v>
+      </c>
+      <c r="G11" s="13">
+        <v>404</v>
+      </c>
+      <c r="H11" s="13">
+        <v>404</v>
+      </c>
+      <c r="I11" s="1">
+        <v>404</v>
+      </c>
+      <c r="J11" s="1">
+        <v>404</v>
+      </c>
+      <c r="K11" s="1">
+        <v>404</v>
+      </c>
+      <c r="L11" s="13">
+        <v>404</v>
+      </c>
+      <c r="M11" s="13">
+        <v>404</v>
+      </c>
+      <c r="N11" s="13">
+        <v>404</v>
+      </c>
       <c r="O11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="23"/>
+      <c r="P11" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1">
         <v>18</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="0"/>
@@ -5549,30 +5713,56 @@
         <v>45053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.512</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7.66</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3.11</v>
+      </c>
+      <c r="M12" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1.724</v>
+      </c>
       <c r="O12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="23"/>
+      <c r="P12" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
@@ -5580,8 +5770,12 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5594,17 +5788,29 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="7"/>
+      <c r="R13" s="1">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5617,17 +5823,29 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="7"/>
+      <c r="R14" s="1">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5640,17 +5858,29 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="7"/>
+      <c r="R15" s="1">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5663,9 +5893,17 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="7"/>
+      <c r="R16" s="1">
+        <v>21</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5949,22 +6187,22 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S30" s="1">
         <f>COUNT(T4:T27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S31" s="27">
         <v>0</v>
@@ -5983,11 +6221,11 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S32" s="30">
         <f>S30-S31</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
@@ -6002,7 +6240,7 @@
     </row>
     <row r="33" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S33" s="1">
         <f>S32/S30*100</f>
@@ -6013,20 +6251,20 @@
       </c>
       <c r="U33" s="28">
         <f>V4</f>
-        <v>12881.778000000002</v>
+        <v>18579.487499999999</v>
       </c>
       <c r="V33" s="29">
-        <f t="shared" ref="V33:V61" si="1">U33 +V32</f>
-        <v>508334.77799999999</v>
+        <f t="shared" ref="V33:V61" si="3">U33 +V32</f>
+        <v>514032.48749999999</v>
       </c>
     </row>
     <row r="34" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S34" s="1">
         <f>1/S35*100</f>
-        <v>58.82352941176471</v>
+        <v>57.061340941512128</v>
       </c>
       <c r="T34" s="1">
         <v>4</v>
@@ -6035,17 +6273,17 @@
         <v>0</v>
       </c>
       <c r="V34" s="29">
-        <f t="shared" si="1"/>
-        <v>508334.77799999999</v>
+        <f t="shared" si="3"/>
+        <v>514032.48749999999</v>
       </c>
     </row>
     <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S35" s="1">
         <f>SUM(T4:T27)/S30</f>
-        <v>1.7</v>
+        <v>1.7524999999999999</v>
       </c>
       <c r="T35" s="1">
         <v>5</v>
@@ -6054,17 +6292,17 @@
         <v>0</v>
       </c>
       <c r="V35" s="29">
-        <f t="shared" si="1"/>
-        <v>508334.77799999999</v>
+        <f t="shared" si="3"/>
+        <v>514032.48749999999</v>
       </c>
     </row>
     <row r="36" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S36" s="30">
         <f>S33-S34</f>
-        <v>41.17647058823529</v>
+        <v>42.938659058487872</v>
       </c>
       <c r="T36" s="1">
         <v>6</v>
@@ -6074,17 +6312,17 @@
         <v>21799.931999999997</v>
       </c>
       <c r="V36" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S37" s="30">
         <f>S44/1</f>
-        <v>6.9999999999999991</v>
+        <v>15.049999999999997</v>
       </c>
       <c r="T37" s="1">
         <v>7</v>
@@ -6093,8 +6331,8 @@
         <v>0</v>
       </c>
       <c r="V37" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="38" spans="17:22" x14ac:dyDescent="0.25">
@@ -6107,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="V38" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="39" spans="17:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S39" s="31">
         <v>495453</v>
@@ -6125,13 +6363,13 @@
         <v>0</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="40" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S40" s="32">
         <f>S39/100</f>
@@ -6144,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="V40" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="41" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S41" s="32">
         <f>S40*5</f>
@@ -6163,13 +6401,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="42" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S42" s="33">
         <f>S40*15</f>
@@ -6182,17 +6420,17 @@
         <v>0</v>
       </c>
       <c r="V42" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="43" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S43" s="32">
         <f>SUM(V2:V26)</f>
-        <v>34681.71</v>
+        <v>74565.676499999987</v>
       </c>
       <c r="T43" s="1">
         <v>13</v>
@@ -6201,17 +6439,17 @@
         <v>0</v>
       </c>
       <c r="V43" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="44" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q44" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S44" s="1">
         <f>S43/S39*100</f>
-        <v>6.9999999999999991</v>
+        <v>15.049999999999997</v>
       </c>
       <c r="T44" s="1">
         <v>14</v>
@@ -6220,8 +6458,8 @@
         <v>0</v>
       </c>
       <c r="V44" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="45" spans="17:22" x14ac:dyDescent="0.25">
@@ -6234,8 +6472,8 @@
         <v>0</v>
       </c>
       <c r="V45" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="46" spans="17:22" x14ac:dyDescent="0.25">
@@ -6248,8 +6486,8 @@
         <v>0</v>
       </c>
       <c r="V46" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="47" spans="17:22" x14ac:dyDescent="0.25">
@@ -6262,8 +6500,8 @@
         <v>0</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="48" spans="17:22" x14ac:dyDescent="0.25">
@@ -6276,8 +6514,8 @@
         <v>0</v>
       </c>
       <c r="V48" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.25">
@@ -6290,8 +6528,8 @@
         <v>0</v>
       </c>
       <c r="V49" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="50" spans="17:22" x14ac:dyDescent="0.25">
@@ -6304,8 +6542,8 @@
         <v>0</v>
       </c>
       <c r="V50" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="51" spans="17:22" x14ac:dyDescent="0.25">
@@ -6318,8 +6556,8 @@
         <v>0</v>
       </c>
       <c r="V51" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="52" spans="17:22" x14ac:dyDescent="0.25">
@@ -6332,8 +6570,8 @@
         <v>0</v>
       </c>
       <c r="V52" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="53" spans="17:22" x14ac:dyDescent="0.25">
@@ -6346,8 +6584,8 @@
         <v>0</v>
       </c>
       <c r="V53" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="54" spans="17:22" x14ac:dyDescent="0.25">
@@ -6360,8 +6598,8 @@
         <v>0</v>
       </c>
       <c r="V54" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="55" spans="17:22" x14ac:dyDescent="0.25">
@@ -6374,8 +6612,8 @@
         <v>0</v>
       </c>
       <c r="V55" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="56" spans="17:22" x14ac:dyDescent="0.25">
@@ -6388,8 +6626,8 @@
         <v>0</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="57" spans="17:22" x14ac:dyDescent="0.25">
@@ -6402,8 +6640,8 @@
         <v>0</v>
       </c>
       <c r="V57" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="58" spans="17:22" x14ac:dyDescent="0.25">
@@ -6416,8 +6654,8 @@
         <v>0</v>
       </c>
       <c r="V58" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="59" spans="17:22" x14ac:dyDescent="0.25">
@@ -6430,8 +6668,8 @@
         <v>0</v>
       </c>
       <c r="V59" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="60" spans="17:22" x14ac:dyDescent="0.25">
@@ -6444,8 +6682,8 @@
         <v>0</v>
       </c>
       <c r="V60" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
     <row r="61" spans="17:22" x14ac:dyDescent="0.25">
@@ -6458,8 +6696,8 @@
         <v>0</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="1"/>
-        <v>530134.71</v>
+        <f t="shared" si="3"/>
+        <v>535832.41949999996</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="marco" sheetId="6" r:id="rId3"/>
     <sheet name="abril" sheetId="7" r:id="rId4"/>
     <sheet name="maio" sheetId="8" r:id="rId5"/>
+    <sheet name="maioInvest" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="135">
   <si>
     <t>DATA</t>
   </si>
@@ -335,18 +336,12 @@
     <t>STAKE</t>
   </si>
   <si>
-    <t>STAKE BET MAGICO 15%</t>
-  </si>
-  <si>
     <t>LUCRO</t>
   </si>
   <si>
     <t>RATE</t>
   </si>
   <si>
-    <t>STAKE BET PRIMO 5%</t>
-  </si>
-  <si>
     <t>MODENA vs BARI</t>
   </si>
   <si>
@@ -392,19 +387,43 @@
     <t>S. HIROSHIMA vs AVISPA FUKUOKA</t>
   </si>
   <si>
-    <t>  BRADFORD vs LEYTON ORIENT</t>
-  </si>
-  <si>
     <t>COLCHESTER UTD vs MANSFIELD</t>
   </si>
   <si>
     <t>LE HAVRE vs RODEZ AVEYRON</t>
   </si>
   <si>
-    <t> PRESTON vs SUNDERLAND</t>
-  </si>
-  <si>
     <t>OVER 2,25</t>
+  </si>
+  <si>
+    <t>ANALISE-FUNDAMENTALSTA</t>
+  </si>
+  <si>
+    <t>ANALISE-TECNICA</t>
+  </si>
+  <si>
+    <t>matriz-magico</t>
+  </si>
+  <si>
+    <t>matriz-primo</t>
+  </si>
+  <si>
+    <t>T.VOID</t>
+  </si>
+  <si>
+    <t>fullgreen</t>
+  </si>
+  <si>
+    <t>FULL-GREEN/HALF-RED</t>
+  </si>
+  <si>
+    <t>STAKE BET PRIMO 6%</t>
+  </si>
+  <si>
+    <t>PRESTON vs SUNDERLAND</t>
+  </si>
+  <si>
+    <t>BRADFORD vs LEYTON ORIENT</t>
   </si>
 </sst>
 </file>
@@ -415,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +485,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -500,13 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,20 +658,82 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -751,11 +854,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>MATRIZ MAIO</a:t>
+              <a:t>MAIO</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> MATRIZ</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -870,102 +979,102 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>maio!$V$31:$V$61</c:f>
+              <c:f>maioInvest!$G$16:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>495453</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>495453</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>514032.48749999999</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514032.48749999999</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>514032.48749999999</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>2681.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3004.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>535832.41949999996</c:v>
+                  <c:v>3215.5499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,11 +1089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242572656"/>
-        <c:axId val="242571872"/>
+        <c:axId val="260127968"/>
+        <c:axId val="260129536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242572656"/>
+        <c:axId val="260127968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,12 +1146,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242571872"/>
+        <c:crossAx val="260129536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242571872"/>
+        <c:axId val="260129536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1205,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242572656"/>
+        <c:crossAx val="260127968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1702,16 +1811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2022,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3199,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3104,7 +3213,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +4085,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4525,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,10 +5101,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,11 +5126,9 @@
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5082,14 +5189,8 @@
       <c r="T1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45047</v>
       </c>
@@ -5133,12 +5234,8 @@
       <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1">
-        <f>T2*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45047</v>
       </c>
@@ -5176,12 +5273,8 @@
       <c r="S3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="1">
-        <f t="shared" ref="U3:U28" si="0">T3*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45049</v>
       </c>
@@ -5228,7 +5321,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>61</v>
@@ -5242,21 +5335,13 @@
       <c r="T4" s="1">
         <v>1.75</v>
       </c>
-      <c r="U4" s="32">
-        <f>T4*S$41</f>
-        <v>43352.137499999997</v>
-      </c>
-      <c r="V4" s="32">
-        <f>U4-S$41</f>
-        <v>18579.487499999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>2.4</v>
@@ -5297,10 +5382,12 @@
       <c r="O5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="R5" s="1">
         <v>22</v>
       </c>
@@ -5310,21 +5397,13 @@
       <c r="T5" s="1">
         <v>1.88</v>
       </c>
-      <c r="U5" s="32">
-        <f>T5*S$41</f>
-        <v>46572.581999999995</v>
-      </c>
-      <c r="V5" s="32">
-        <f>U5-S$41</f>
-        <v>21799.931999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>2.57</v>
@@ -5366,7 +5445,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
@@ -5375,20 +5454,13 @@
       <c r="S6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="32">
-        <f t="shared" ref="U6:U10" si="1">T6*S$41</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1">
         <v>2.38</v>
@@ -5437,154 +5509,135 @@
         <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T7" s="1">
         <v>1.68</v>
       </c>
-      <c r="U7" s="32">
-        <f t="shared" si="1"/>
-        <v>41618.051999999996</v>
-      </c>
-      <c r="V7" s="32">
-        <f t="shared" ref="V6:V10" si="2">U7-S$41</f>
-        <v>16845.401999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1">
-        <v>404</v>
+        <v>2.48</v>
       </c>
       <c r="D8" s="1">
-        <v>404</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="1">
-        <v>404</v>
+        <v>2.67</v>
       </c>
       <c r="F8" s="13">
-        <v>404</v>
+        <v>2.39</v>
       </c>
       <c r="G8" s="13">
-        <v>404</v>
+        <v>3.02</v>
       </c>
       <c r="H8" s="13">
-        <v>404</v>
+        <v>2.57</v>
       </c>
       <c r="I8" s="1">
         <v>404</v>
       </c>
       <c r="J8" s="1">
-        <v>404</v>
+        <v>1.95</v>
       </c>
       <c r="K8" s="1">
-        <v>404</v>
+        <v>1.7</v>
       </c>
       <c r="L8" s="13">
         <v>404</v>
       </c>
       <c r="M8" s="13">
-        <v>404</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="N8" s="13">
-        <v>404</v>
+        <v>1.694</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="1">
         <v>26</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1">
-        <v>404</v>
+        <v>3.29</v>
       </c>
       <c r="D9" s="1">
-        <v>404</v>
+        <v>3.21</v>
       </c>
       <c r="E9" s="1">
-        <v>404</v>
+        <v>2.08</v>
       </c>
       <c r="F9" s="13">
-        <v>404</v>
+        <v>3.14</v>
       </c>
       <c r="G9" s="13">
-        <v>404</v>
+        <v>3.07</v>
       </c>
       <c r="H9" s="13">
-        <v>404</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I9" s="1">
         <v>404</v>
       </c>
       <c r="J9" s="1">
-        <v>404</v>
+        <v>2.08</v>
       </c>
       <c r="K9" s="1">
-        <v>404</v>
+        <v>1.62</v>
       </c>
       <c r="L9" s="13">
         <v>404</v>
       </c>
       <c r="M9" s="13">
-        <v>404</v>
+        <v>2.08</v>
       </c>
       <c r="N9" s="13">
-        <v>404</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="1">
         <v>21</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U9" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1">
         <v>2.34</v>
@@ -5626,33 +5679,25 @@
         <v>22</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="1">
         <v>25</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T10" s="1">
         <v>1.7</v>
       </c>
-      <c r="U10" s="32">
-        <f t="shared" si="1"/>
-        <v>42113.504999999997</v>
-      </c>
-      <c r="V10" s="32">
-        <f t="shared" si="2"/>
-        <v>17340.855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1">
         <v>404</v>
@@ -5694,26 +5739,22 @@
         <v>22</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1">
         <v>18</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1">
         <v>1.46</v>
@@ -5755,43 +5796,65 @@
         <v>22</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3.42</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3.76</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.24</v>
+      </c>
+      <c r="M13" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1.7509999999999999</v>
+      </c>
       <c r="O13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="23"/>
+      <c r="P13" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="1">
         <v>20</v>
@@ -5799,34 +5862,56 @@
       <c r="S13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2.13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>404</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="L14" s="13">
+        <v>3.77</v>
+      </c>
+      <c r="M14" s="13">
+        <v>1.877</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1.952</v>
+      </c>
       <c r="O14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="23"/>
+      <c r="P14" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="1">
         <v>15</v>
@@ -5834,34 +5919,59 @@
       <c r="S14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.819</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5.27</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2.82</v>
+      </c>
+      <c r="M15" s="13">
+        <v>2.41</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1.6060000000000001</v>
+      </c>
       <c r="O15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="1">
         <v>20</v>
@@ -5869,34 +5979,59 @@
       <c r="S15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3.93</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3.81</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.952</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="L16" s="13">
+        <v>3.83</v>
+      </c>
+      <c r="M16" s="13">
+        <v>1.917</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1.97</v>
+      </c>
       <c r="O16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="23"/>
+      <c r="P16" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="1">
         <v>21</v>
@@ -5904,12 +6039,8 @@
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -5927,12 +6058,8 @@
       <c r="O17" s="14"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="7"/>
-      <c r="U17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -5950,12 +6077,8 @@
       <c r="O18" s="14"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="7"/>
-      <c r="U18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -5973,12 +6096,8 @@
       <c r="O19" s="14"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="7"/>
-      <c r="U19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -5996,12 +6115,8 @@
       <c r="O20" s="14"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="7"/>
-      <c r="U20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -6019,12 +6134,8 @@
       <c r="O21" s="14"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="7"/>
-      <c r="U21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -6042,12 +6153,8 @@
       <c r="O22" s="14"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="7"/>
-      <c r="U22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -6065,12 +6172,8 @@
       <c r="O23" s="14"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="7"/>
-      <c r="U23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -6088,12 +6191,8 @@
       <c r="O24" s="14"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="7"/>
-      <c r="U24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -6111,12 +6210,8 @@
       <c r="O25" s="14"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="7"/>
-      <c r="U25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -6134,12 +6229,8 @@
       <c r="O26" s="14"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="7"/>
-      <c r="U26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -6157,12 +6248,8 @@
       <c r="O27" s="14"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="7"/>
-      <c r="U27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -6180,548 +6267,1167 @@
       <c r="O28" s="14"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="7"/>
-      <c r="U28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S30" s="1">
-        <f>COUNT(T4:T27)</f>
-        <v>4</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S31" s="27">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="28">
-        <f>W17</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="29">
-        <f>U31 +S39</f>
-        <v>495453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S32" s="30">
-        <f>S30-S31</f>
-        <v>4</v>
-      </c>
-      <c r="T32" s="1">
-        <v>2</v>
-      </c>
-      <c r="U32" s="28">
-        <v>0</v>
-      </c>
-      <c r="V32" s="29">
-        <f>U32 +V31</f>
-        <v>495453</v>
-      </c>
-    </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S33" s="1">
-        <f>S32/S30*100</f>
-        <v>100</v>
-      </c>
-      <c r="T33" s="1">
-        <v>3</v>
-      </c>
-      <c r="U33" s="28">
-        <f>V4</f>
-        <v>18579.487499999999</v>
-      </c>
-      <c r="V33" s="29">
-        <f t="shared" ref="V33:V61" si="3">U33 +V32</f>
-        <v>514032.48749999999</v>
-      </c>
-    </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" s="1">
-        <f>1/S35*100</f>
-        <v>57.061340941512128</v>
-      </c>
-      <c r="T34" s="1">
-        <v>4</v>
-      </c>
-      <c r="U34" s="28">
-        <v>0</v>
-      </c>
-      <c r="V34" s="29">
-        <f t="shared" si="3"/>
-        <v>514032.48749999999</v>
-      </c>
-    </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S35" s="1">
-        <f>SUM(T4:T27)/S30</f>
-        <v>1.7524999999999999</v>
-      </c>
-      <c r="T35" s="1">
-        <v>5</v>
-      </c>
-      <c r="U35" s="28">
-        <v>0</v>
-      </c>
-      <c r="V35" s="29">
-        <f t="shared" si="3"/>
-        <v>514032.48749999999</v>
-      </c>
-    </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S36" s="30">
-        <f>S33-S34</f>
-        <v>42.938659058487872</v>
-      </c>
-      <c r="T36" s="1">
-        <v>6</v>
-      </c>
-      <c r="U36" s="28">
-        <f>V5</f>
-        <v>21799.931999999997</v>
-      </c>
-      <c r="V36" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S37" s="30">
-        <f>S44/1</f>
-        <v>15.049999999999997</v>
-      </c>
-      <c r="T37" s="1">
-        <v>7</v>
-      </c>
-      <c r="U37" s="28">
-        <v>0</v>
-      </c>
-      <c r="V37" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q38" s="1"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="1">
-        <v>8</v>
-      </c>
-      <c r="U38" s="28">
-        <v>0</v>
-      </c>
-      <c r="V38" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="39" spans="17:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S39" s="31">
-        <v>495453</v>
-      </c>
-      <c r="T39" s="1">
-        <v>9</v>
-      </c>
-      <c r="U39" s="28">
-        <v>0</v>
-      </c>
-      <c r="V39" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S40" s="32">
-        <f>S39/100</f>
-        <v>4954.53</v>
-      </c>
-      <c r="T40" s="1">
-        <v>10</v>
-      </c>
-      <c r="U40" s="28">
-        <v>0</v>
-      </c>
-      <c r="V40" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S41" s="32">
-        <f>S40*5</f>
-        <v>24772.649999999998</v>
-      </c>
-      <c r="T41" s="1">
-        <v>11</v>
-      </c>
-      <c r="U41" s="28">
-        <v>0</v>
-      </c>
-      <c r="V41" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" s="33">
-        <f>S40*15</f>
-        <v>74317.95</v>
-      </c>
-      <c r="T42" s="1">
-        <v>12</v>
-      </c>
-      <c r="U42" s="28">
-        <v>0</v>
-      </c>
-      <c r="V42" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S43" s="32">
-        <f>SUM(V2:V26)</f>
-        <v>74565.676499999987</v>
-      </c>
-      <c r="T43" s="1">
-        <v>13</v>
-      </c>
-      <c r="U43" s="28">
-        <v>0</v>
-      </c>
-      <c r="V43" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q44" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="S44" s="1">
-        <f>S43/S39*100</f>
-        <v>15.049999999999997</v>
-      </c>
-      <c r="T44" s="1">
-        <v>14</v>
-      </c>
-      <c r="U44" s="28">
-        <v>0</v>
-      </c>
-      <c r="V44" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+      <c r="S31" s="27"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+      <c r="S32" s="30"/>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+      <c r="S36" s="30"/>
+    </row>
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="46"/>
+    </row>
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="46"/>
+    </row>
+    <row r="39" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="47"/>
+    </row>
+    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="48"/>
+    </row>
+    <row r="41" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="48"/>
+    </row>
+    <row r="42" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="48"/>
+    </row>
+    <row r="43" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="48"/>
+    </row>
+    <row r="44" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="1"/>
       <c r="S45" s="32"/>
-      <c r="T45" s="1">
-        <v>15</v>
-      </c>
-      <c r="U45" s="28">
-        <v>0</v>
-      </c>
-      <c r="V45" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q46" s="1"/>
       <c r="S46" s="32"/>
-      <c r="T46" s="1">
-        <v>16</v>
-      </c>
-      <c r="U46" s="28">
-        <v>0</v>
-      </c>
-      <c r="V46" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q47" s="35"/>
+    </row>
+    <row r="47" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q47" s="34"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1">
-        <v>17</v>
-      </c>
-      <c r="U47" s="28">
-        <v>0</v>
-      </c>
-      <c r="V47" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q48" s="35"/>
+    </row>
+    <row r="48" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q48" s="34"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="1">
-        <v>18</v>
-      </c>
-      <c r="U48" s="28">
-        <v>0</v>
-      </c>
-      <c r="V48" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q49" s="35"/>
+    </row>
+    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q49" s="34"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="1">
-        <v>19</v>
-      </c>
-      <c r="U49" s="28">
-        <v>0</v>
-      </c>
-      <c r="V49" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1">
-        <v>20</v>
-      </c>
-      <c r="U50" s="28">
-        <v>0</v>
-      </c>
-      <c r="V50" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1">
-        <v>21</v>
-      </c>
-      <c r="U51" s="28">
-        <v>0</v>
-      </c>
-      <c r="V51" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="52" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1">
-        <v>22</v>
-      </c>
-      <c r="U52" s="28">
-        <v>0</v>
-      </c>
-      <c r="V52" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="53" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1">
-        <v>23</v>
-      </c>
-      <c r="U53" s="28">
-        <v>0</v>
-      </c>
-      <c r="V53" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="54" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1">
-        <v>24</v>
-      </c>
-      <c r="U54" s="28">
-        <v>0</v>
-      </c>
-      <c r="V54" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="55" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="1">
-        <v>25</v>
-      </c>
-      <c r="U55" s="28">
-        <v>0</v>
-      </c>
-      <c r="V55" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="56" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1">
-        <v>26</v>
-      </c>
-      <c r="U56" s="28">
-        <v>0</v>
-      </c>
-      <c r="V56" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="57" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1">
-        <v>27</v>
-      </c>
-      <c r="U57" s="28">
-        <v>0</v>
-      </c>
-      <c r="V57" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="58" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1">
-        <v>28</v>
-      </c>
-      <c r="U58" s="28">
-        <v>0</v>
-      </c>
-      <c r="V58" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="59" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1">
-        <v>29</v>
-      </c>
-      <c r="U59" s="28">
-        <v>0</v>
-      </c>
-      <c r="V59" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="60" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1">
-        <v>30</v>
-      </c>
-      <c r="U60" s="28">
-        <v>0</v>
-      </c>
-      <c r="V60" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
-    </row>
-    <row r="61" spans="17:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1">
-        <v>31</v>
-      </c>
-      <c r="U61" s="28">
-        <v>0</v>
-      </c>
-      <c r="V61" s="29">
-        <f t="shared" si="3"/>
-        <v>535832.41949999996</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31:U61">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1.75</v>
+      </c>
+      <c r="D2" s="38">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="32">
+        <f t="shared" ref="H2:H10" si="0">C2*D$26</f>
+        <v>267.75</v>
+      </c>
+      <c r="I2" s="32">
+        <f>IF(G2="halfred",-(D$26/2),H2-D$26)</f>
+        <v>114.75</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1.86</v>
+      </c>
+      <c r="D3" s="38">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" si="0"/>
+        <v>284.58000000000004</v>
+      </c>
+      <c r="I3" s="32">
+        <f t="shared" ref="I3:I8" si="1">IF(G3="halfred",-(D$26/2),H3-D$26)</f>
+        <v>131.58000000000004</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1.68</v>
+      </c>
+      <c r="D4" s="38">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="0"/>
+        <v>257.03999999999996</v>
+      </c>
+      <c r="I4" s="32">
+        <f t="shared" si="1"/>
+        <v>104.03999999999996</v>
+      </c>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="38">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="1"/>
+        <v>107.09999999999997</v>
+      </c>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1.73</v>
+      </c>
+      <c r="D6" s="38">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>264.69</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="1"/>
+        <v>111.69</v>
+      </c>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="D7" s="38">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>267.75</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" si="1"/>
+        <v>114.75</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1.63</v>
+      </c>
+      <c r="D8" s="38">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>249.39</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="1"/>
+        <v>96.389999999999986</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="43"/>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>COUNT(D2:D11)-D15</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <f>F16 +D24</f>
+        <v>2550</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30">
+        <f>D14-D16</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <f>F17 +G16</f>
+        <v>2550</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>D17/D14*100</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" ref="G18:G46" si="2">F18 +G17</f>
+        <v>2550</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>1/D20*100</f>
+        <v>57.851239669421474</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="2"/>
+        <v>2550</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>SUM(C2:C11)/D14</f>
+        <v>1.7285714285714289</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="2"/>
+        <v>2550</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30">
+        <f>D18-D19</f>
+        <v>42.148760330578526</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="28">
+        <f>I3</f>
+        <v>131.58000000000004</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="2"/>
+        <v>2681.58</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30">
+        <f>D28/1</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="28">
+        <f>SUM(I4:I6)</f>
+        <v>322.82999999999993</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="2"/>
+        <v>3004.41</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="28">
+        <f>SUM(I7:I8)</f>
+        <v>211.14</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="31">
+        <v>2550</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="32">
+        <f>D24/100</f>
+        <v>25.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="32">
+        <f>D25*6</f>
+        <v>153</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="32">
+        <f>SUM(I2:I11)</f>
+        <v>780.3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12</v>
+      </c>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f>D27/D24*100</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13</v>
+      </c>
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="F30" s="28">
+        <v>0</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="1">
+        <v>16</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>17</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>18</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>19</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+      <c r="G35" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>21</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>22</v>
+      </c>
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+      <c r="G37" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>23</v>
+      </c>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>24</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>25</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>26</v>
+      </c>
+      <c r="F41" s="28">
+        <v>0</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>27</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>28</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>29</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>30</v>
+      </c>
+      <c r="F45" s="28">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>31</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29">
+        <f t="shared" si="2"/>
+        <v>3215.5499999999997</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F16:F46">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 I2:I10">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="U4" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="144">
   <si>
     <t>DATA</t>
   </si>
@@ -417,13 +417,40 @@
     <t>FULL-GREEN/HALF-RED</t>
   </si>
   <si>
-    <t>STAKE BET PRIMO 6%</t>
-  </si>
-  <si>
     <t>PRESTON vs SUNDERLAND</t>
   </si>
   <si>
     <t>BRADFORD vs LEYTON ORIENT</t>
+  </si>
+  <si>
+    <t>2--2</t>
+  </si>
+  <si>
+    <t> JDR STARS vs PLATINUM CITY</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA - FIRST DIVISION</t>
+  </si>
+  <si>
+    <t>TS GALAXY vs CHIPPA UTD</t>
+  </si>
+  <si>
+    <t>halfred</t>
+  </si>
+  <si>
+    <t>0--3</t>
+  </si>
+  <si>
+    <t>ASCOLI vs PISA</t>
+  </si>
+  <si>
+    <t>primo</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>STAKE BET PRIMO 3,5%</t>
   </si>
 </sst>
 </file>
@@ -564,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,9 +718,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -706,14 +730,58 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -979,7 +1047,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>maioInvest!$G$16:$G$46</c:f>
+              <c:f>maioInvest!$G$18:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -999,82 +1067,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2681.58</c:v>
+                  <c:v>2626.7550000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3004.41</c:v>
+                  <c:v>2815.0725000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3215.5499999999997</c:v>
+                  <c:v>2826.6750000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,11 +1157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260127968"/>
-        <c:axId val="260129536"/>
+        <c:axId val="241639192"/>
+        <c:axId val="346278440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260127968"/>
+        <c:axId val="241639192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,12 +1214,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260129536"/>
+        <c:crossAx val="346278440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260129536"/>
+        <c:axId val="346278440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1273,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260127968"/>
+        <c:crossAx val="241639192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1813,13 +1881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3199,7 +3267,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4085,7 +4153,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5103,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="M3" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,7 +5879,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -5979,16 +6047,13 @@
       <c r="S15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="1">
-        <v>1.63</v>
-      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1">
         <v>3.77</v>
@@ -6039,10 +6104,17 @@
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="T16" s="1">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6055,13 +6127,25 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="7"/>
+      <c r="R17" s="1">
+        <v>19</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6074,9 +6158,17 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="O18" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="7"/>
+      <c r="R18" s="1">
+        <v>16</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6299,37 +6391,37 @@
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="46"/>
+      <c r="S37" s="45"/>
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="46"/>
+      <c r="S38" s="45"/>
     </row>
     <row r="39" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="47"/>
+      <c r="S39" s="46"/>
     </row>
     <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="48"/>
+      <c r="S40" s="47"/>
     </row>
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="48"/>
+      <c r="S41" s="47"/>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="48"/>
+      <c r="S42" s="47"/>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="48"/>
+      <c r="S43" s="47"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q44" s="7"/>
@@ -6406,7 +6498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6417,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6527,7 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -6454,7 +6546,7 @@
       <c r="F1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>131</v>
       </c>
       <c r="H1" s="35" t="s">
@@ -6467,7 +6559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45049</v>
       </c>
@@ -6490,18 +6582,18 @@
         <v>130</v>
       </c>
       <c r="H2" s="32">
-        <f t="shared" ref="H2:H10" si="0">C2*D$26</f>
-        <v>267.75</v>
+        <f t="shared" ref="H2:H10" si="0">C2*D$28</f>
+        <v>156.1875</v>
       </c>
       <c r="I2" s="32">
-        <f>IF(G2="halfred",-(D$26/2),H2-D$26)</f>
-        <v>114.75</v>
+        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$28/2),H2-D$28)</f>
+        <v>66.9375</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45052</v>
       </c>
@@ -6525,17 +6617,17 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>284.58000000000004</v>
+        <v>166.005</v>
       </c>
       <c r="I3" s="32">
-        <f t="shared" ref="I3:I8" si="1">IF(G3="halfred",-(D$26/2),H3-D$26)</f>
-        <v>131.58000000000004</v>
+        <f t="shared" si="1"/>
+        <v>76.754999999999995</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45053</v>
       </c>
@@ -6551,23 +6643,25 @@
       <c r="E4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>257.03999999999996</v>
+        <v>149.94</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>104.03999999999996</v>
-      </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60.69</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45053</v>
       </c>
@@ -6583,23 +6677,25 @@
       <c r="E5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>260.09999999999997</v>
+        <v>151.72499999999999</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>107.09999999999997</v>
-      </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62.474999999999994</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45053</v>
       </c>
@@ -6615,28 +6711,30 @@
       <c r="E6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>264.69</v>
+        <v>154.4025</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>111.69</v>
-      </c>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65.152500000000003</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="42">
         <v>1.75</v>
@@ -6647,28 +6745,30 @@
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>130</v>
+      <c r="G7" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>267.75</v>
+        <v>156.1875</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>114.75</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-44.625</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45054</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="42">
         <v>1.63</v>
@@ -6679,23 +6779,25 @@
       <c r="E8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>249.39</v>
+        <v>145.47749999999999</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>96.389999999999986</v>
-      </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56.227499999999992</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="42"/>
@@ -6709,7 +6811,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="42"/>
@@ -6723,453 +6825,533 @@
       <c r="I10" s="32"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>45047</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="51">
+        <v>2.61</v>
+      </c>
+      <c r="D11" s="52">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1.87</v>
+      </c>
+      <c r="D12" s="52">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
+        <f>G12-D35</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>COUNT(D2:D11)-D15</f>
-        <v>7</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="27">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="28">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29">
-        <f>F16 +D24</f>
-        <v>2550</v>
-      </c>
+      <c r="D16" s="1">
+        <f>COUNT(D2:D8)-D17</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30">
-        <f>D14-D16</f>
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29">
-        <f>F17 +G16</f>
-        <v>2550</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>D17/D14*100</f>
-        <v>100</v>
+      <c r="D18" s="27">
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="28">
+        <f>I11</f>
         <v>0</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:G46" si="2">F18 +G17</f>
+        <f>F18 +D26</f>
         <v>2550</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <f>F18/D$26*100</f>
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>1/D20*100</f>
-        <v>57.851239669421474</v>
+      <c r="D19" s="30">
+        <f>D16-D18</f>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="28">
         <v>0</v>
       </c>
       <c r="G19" s="29">
-        <f t="shared" si="2"/>
+        <f>F19 +G18</f>
         <v>2550</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:H48" si="2">F19/D$26*100</f>
+        <v>0</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <f>SUM(C2:C11)/D14</f>
-        <v>1.7285714285714289</v>
+        <f>D19/D16*100</f>
+        <v>85.714285714285708</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="28">
         <v>0</v>
       </c>
       <c r="G20" s="29">
+        <f t="shared" ref="G20:G48" si="3">F20 +G19</f>
+        <v>2550</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>2550</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30">
-        <f>D18-D19</f>
-        <v>42.148760330578526</v>
+      <c r="D21" s="1">
+        <f>1/D22*100</f>
+        <v>57.851239669421474</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="28">
-        <f>I3</f>
-        <v>131.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="G21" s="29">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>2681.58</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30">
-        <f>D28/1</f>
-        <v>30.599999999999998</v>
+      <c r="D22" s="1">
+        <f>SUM(C2:C10)/D16</f>
+        <v>1.7285714285714289</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="28">
-        <f>SUM(I4:I6)</f>
-        <v>322.82999999999993</v>
+        <v>0</v>
       </c>
       <c r="G22" s="29">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>3004.41</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30">
+        <f>D20-D21</f>
+        <v>27.863046044864234</v>
+      </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="28">
-        <f>SUM(I7:I8)</f>
-        <v>211.14</v>
+        <f>I3</f>
+        <v>76.754999999999995</v>
       </c>
       <c r="G23" s="29">
+        <f t="shared" si="3"/>
+        <v>2626.7550000000001</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>3.01</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="31">
-        <v>2550</v>
+      <c r="D24" s="30">
+        <f>D30/1</f>
+        <v>10.849999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <f>SUM(I4:I6)</f>
+        <v>188.3175</v>
       </c>
       <c r="G24" s="29">
+        <f t="shared" si="3"/>
+        <v>2815.0725000000002</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>7.3849999999999998</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="32">
-        <f>D24/100</f>
-        <v>25.5</v>
-      </c>
+      <c r="D25" s="30"/>
       <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="28">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="48">
+        <f>SUM(I7:I8,I12)</f>
+        <v>11.602499999999992</v>
       </c>
       <c r="G25" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>0.45499999999999968</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="32">
-        <f>D25*6</f>
-        <v>153</v>
+      <c r="D26" s="31">
+        <v>2550</v>
       </c>
       <c r="E26" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
       </c>
       <c r="G26" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="32">
-        <f>SUM(I2:I11)</f>
-        <v>780.3</v>
+        <f>D26/100</f>
+        <v>25.5</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="28">
         <v>0</v>
       </c>
       <c r="G27" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="33" t="s">
-        <v>106</v>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <f>D27/D24*100</f>
-        <v>30.599999999999998</v>
+      <c r="D28" s="32">
+        <f>D27*3.5</f>
+        <v>89.25</v>
       </c>
       <c r="E28" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="28">
         <v>0</v>
       </c>
       <c r="G28" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="32">
+        <f>SUM(I3:I12)</f>
+        <v>276.67499999999995</v>
+      </c>
       <c r="E29" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="28">
         <v>0</v>
       </c>
       <c r="G29" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="1">
+        <f>D29/D26*100</f>
+        <v>10.849999999999998</v>
+      </c>
       <c r="E30" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="28">
         <v>0</v>
       </c>
       <c r="G30" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="32"/>
       <c r="E31" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
       </c>
       <c r="G31" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="28">
         <v>0</v>
       </c>
       <c r="G32" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
       </c>
       <c r="G33" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7178,52 +7360,61 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
       </c>
       <c r="G34" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" s="28">
         <v>0</v>
       </c>
       <c r="G35" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
       </c>
       <c r="G36" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7232,16 +7423,19 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" s="28">
         <v>0</v>
       </c>
       <c r="G37" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7250,16 +7444,19 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="28">
         <v>0</v>
       </c>
       <c r="G38" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7268,16 +7465,19 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
       </c>
       <c r="G39" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7286,16 +7486,19 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40" s="28">
         <v>0</v>
       </c>
       <c r="G40" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7304,16 +7507,19 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F41" s="28">
         <v>0</v>
       </c>
       <c r="G41" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7322,16 +7528,19 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F42" s="28">
         <v>0</v>
       </c>
       <c r="G42" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7340,16 +7549,19 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F43" s="28">
         <v>0</v>
       </c>
       <c r="G43" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7358,16 +7570,19 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="28">
         <v>0</v>
       </c>
       <c r="G44" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7376,16 +7591,19 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="28">
         <v>0</v>
       </c>
       <c r="G45" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7394,40 +7612,96 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
+        <v>29</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>30</v>
+      </c>
+      <c r="F47" s="28">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
         <v>31</v>
       </c>
-      <c r="F46" s="28">
-        <v>0</v>
-      </c>
-      <c r="G46" s="29">
+      <c r="F48" s="28">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="3"/>
+        <v>2826.6750000000002</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>3215.5499999999997</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F16:F46">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="F18:F48">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 I2:I10">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="H13 I2:I10">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D22" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="145">
   <si>
     <t>DATA</t>
   </si>
@@ -450,7 +450,10 @@
     <t>GRIMSBY vs AFC WIMBLEDON</t>
   </si>
   <si>
-    <t>STAKE BET PRIMO 3,5%</t>
+    <t>STAKE BET PRIMO 3%</t>
+  </si>
+  <si>
+    <t>  SUDTIROL vs CITTADELLA</t>
   </si>
 </sst>
 </file>
@@ -1067,82 +1070,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2626.7550000000001</c:v>
+                  <c:v>2615.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2815.0725000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2826.6750000000002</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,11 +1160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241639192"/>
-        <c:axId val="346278440"/>
+        <c:axId val="286501520"/>
+        <c:axId val="286501128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241639192"/>
+        <c:axId val="286501520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,12 +1217,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346278440"/>
+        <c:crossAx val="286501128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346278440"/>
+        <c:axId val="286501128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1276,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241639192"/>
+        <c:crossAx val="286501520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5169,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,7 +6116,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6133,10 +6136,10 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -6144,7 +6147,7 @@
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -6159,20 +6162,24 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6185,9 +6192,17 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="7"/>
+      <c r="R19" s="1">
+        <v>19</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -6266,7 +6281,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6285,7 +6300,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6341,36 +6356,21 @@
       <c r="P27" s="23"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="7"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="S30" s="27"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
-      <c r="S31" s="27"/>
+      <c r="S31" s="30"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
-      <c r="S32" s="30"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" s="1"/>
@@ -6382,26 +6382,27 @@
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="S35" s="30"/>
     </row>
     <row r="36" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="1"/>
-      <c r="S36" s="30"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="45"/>
     </row>
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="45"/>
     </row>
-    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="45"/>
-    </row>
-    <row r="39" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S38" s="46"/>
+    </row>
+    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="46"/>
+      <c r="S39" s="47"/>
     </row>
     <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q40" s="7"/>
@@ -6421,20 +6422,19 @@
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="47"/>
+      <c r="S43" s="7"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
+      <c r="Q44" s="1"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="1"/>
       <c r="S45" s="32"/>
     </row>
     <row r="46" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q46" s="1"/>
-      <c r="S46" s="32"/>
+      <c r="Q46" s="34"/>
+      <c r="S46" s="1"/>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q47" s="34"/>
@@ -6445,7 +6445,7 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q49" s="34"/>
+      <c r="Q49" s="1"/>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="17:19" x14ac:dyDescent="0.25">
@@ -6491,10 +6491,6 @@
     <row r="60" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q61" s="1"/>
-      <c r="S61" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
@@ -6511,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,11 +6579,11 @@
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H10" si="0">C2*D$28</f>
-        <v>156.1875</v>
+        <v>133.875</v>
       </c>
       <c r="I2" s="32">
-        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$28/2),H2-D$28)</f>
-        <v>66.9375</v>
+        <f>IF(G2="halfred",-(D$28/2),H2-D$28)</f>
+        <v>57.375</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -6617,11 +6613,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>166.005</v>
+        <v>142.29000000000002</v>
       </c>
       <c r="I3" s="32">
-        <f t="shared" si="1"/>
-        <v>76.754999999999995</v>
+        <f t="shared" ref="I3:I8" si="1">IF(G3="halfred",-(D$28/2),H3-D$28)</f>
+        <v>65.79000000000002</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -6651,11 +6647,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>149.94</v>
+        <v>128.51999999999998</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>60.69</v>
+        <v>52.019999999999982</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -6685,11 +6681,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>151.72499999999999</v>
+        <v>130.04999999999998</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>62.474999999999994</v>
+        <v>53.549999999999983</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -6719,11 +6715,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>154.4025</v>
+        <v>132.345</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>65.152500000000003</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -6752,12 +6748,12 @@
         <v>138</v>
       </c>
       <c r="H7" s="32">
-        <f t="shared" si="0"/>
-        <v>156.1875</v>
+        <f>C7*D$28</f>
+        <v>133.875</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-44.625</v>
+        <v>-38.25</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -6787,11 +6783,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>145.47749999999999</v>
+        <v>124.69499999999999</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>56.227499999999992</v>
+        <v>48.194999999999993</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -7104,15 +7100,15 @@
       </c>
       <c r="F23" s="28">
         <f>I3</f>
-        <v>76.754999999999995</v>
+        <v>65.79000000000002</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="3"/>
-        <v>2626.7550000000001</v>
+        <v>2615.79</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>3.01</v>
+        <v>2.5800000000000005</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -7124,22 +7120,22 @@
       <c r="C24" s="1"/>
       <c r="D24" s="30">
         <f>D30/1</f>
-        <v>10.849999999999998</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="28">
         <f>SUM(I4:I6)</f>
-        <v>188.3175</v>
+        <v>161.41499999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="3"/>
-        <v>2815.0725000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>7.3849999999999998</v>
+        <v>6.3299999999999983</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -7153,15 +7149,15 @@
       </c>
       <c r="F25" s="48">
         <f>SUM(I7:I8,I12)</f>
-        <v>11.602499999999992</v>
+        <v>9.9449999999999932</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>0.45499999999999968</v>
+        <v>0.38999999999999974</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7182,7 +7178,7 @@
       </c>
       <c r="G26" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
@@ -7208,7 +7204,7 @@
       </c>
       <c r="G27" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
@@ -7223,8 +7219,8 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="32">
-        <f>D27*3.5</f>
-        <v>89.25</v>
+        <f>D27*3</f>
+        <v>76.5</v>
       </c>
       <c r="E28" s="1">
         <v>11</v>
@@ -7234,7 +7230,7 @@
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
@@ -7250,7 +7246,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="32">
         <f>SUM(I3:I12)</f>
-        <v>276.67499999999995</v>
+        <v>237.14999999999998</v>
       </c>
       <c r="E29" s="1">
         <v>12</v>
@@ -7260,7 +7256,7 @@
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
@@ -7276,7 +7272,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f>D29/D26*100</f>
-        <v>10.849999999999998</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="E30" s="1">
         <v>13</v>
@@ -7286,7 +7282,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -7304,7 +7300,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -7325,7 +7321,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -7346,7 +7342,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -7367,7 +7363,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -7388,7 +7384,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -7409,7 +7405,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -7430,7 +7426,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -7451,7 +7447,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -7472,7 +7468,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -7493,7 +7489,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -7514,7 +7510,7 @@
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
@@ -7535,7 +7531,7 @@
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
@@ -7556,7 +7552,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -7577,7 +7573,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -7598,7 +7594,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -7619,7 +7615,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -7640,7 +7636,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -7661,7 +7657,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>2826.6750000000002</v>
+        <v>2787.15</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="156">
   <si>
     <t>DATA</t>
   </si>
@@ -453,7 +453,40 @@
     <t>STAKE BET PRIMO 3%</t>
   </si>
   <si>
-    <t>  SUDTIROL vs CITTADELLA</t>
+    <t>SUDTIROL vs CITTADELLA</t>
+  </si>
+  <si>
+    <t>  T. GUNMA vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>JAPAN - J2 LEAGUE</t>
+  </si>
+  <si>
+    <t> PARMA vs VENEZIA</t>
+  </si>
+  <si>
+    <t>GENOA vs BARI</t>
+  </si>
+  <si>
+    <t> CHIPPA UTD vs GOLDEN ARROWS</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>CENTRAL CORDOBA vs UNION SANTA FE</t>
+  </si>
+  <si>
+    <t>DEPORTIVO MAIPU vs ALDOSIVI</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA NACIONAL</t>
+  </si>
+  <si>
+    <t>GANGWON vs POHANG STEELERS</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA - K LEAGUE 1</t>
   </si>
 </sst>
 </file>
@@ -464,7 +497,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +570,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -594,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,6 +798,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1160,11 +1205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286501520"/>
-        <c:axId val="286501128"/>
+        <c:axId val="260397408"/>
+        <c:axId val="260393880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286501520"/>
+        <c:axId val="260397408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,12 +1262,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286501128"/>
+        <c:crossAx val="260393880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286501128"/>
+        <c:axId val="260393880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286501520"/>
+        <c:crossAx val="260397408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2202,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,14 +5219,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -5195,7 +5240,7 @@
     <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6111,29 +6156,55 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="C17" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3.07</v>
+      </c>
+      <c r="H17" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="M17" s="13">
+        <v>2.52</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1.5369999999999999</v>
+      </c>
       <c r="O17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="23"/>
+      <c r="P17" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
         <v>16</v>
@@ -6142,29 +6213,55 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="C18" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2.66</v>
+      </c>
+      <c r="G18" s="13">
+        <v>3.01</v>
+      </c>
+      <c r="H18" s="13">
+        <v>3.13</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="L18" s="13">
+        <v>2.81</v>
+      </c>
+      <c r="M18" s="13">
+        <v>2.48</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1.5880000000000001</v>
+      </c>
       <c r="O18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="23"/>
+      <c r="P18" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="1">
         <v>20</v>
@@ -6172,30 +6269,59 @@
       <c r="S18" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45060</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="C19" s="1">
+        <v>404</v>
+      </c>
+      <c r="D19" s="1">
+        <v>404</v>
+      </c>
+      <c r="E19" s="1">
+        <v>404</v>
+      </c>
+      <c r="F19" s="13">
+        <v>404</v>
+      </c>
+      <c r="G19" s="13">
+        <v>404</v>
+      </c>
+      <c r="H19" s="13">
+        <v>404</v>
+      </c>
+      <c r="I19" s="1">
+        <v>404</v>
+      </c>
+      <c r="J19" s="1">
+        <v>404</v>
+      </c>
+      <c r="K19" s="1">
+        <v>404</v>
+      </c>
+      <c r="L19" s="13">
+        <v>404</v>
+      </c>
+      <c r="M19" s="13">
+        <v>404</v>
+      </c>
+      <c r="N19" s="13">
+        <v>404</v>
+      </c>
       <c r="O19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="23"/>
+      <c r="P19" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="1">
         <v>19</v>
@@ -6204,9 +6330,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45063</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6219,13 +6349,25 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="R20" s="1">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6238,13 +6380,25 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P21" s="23"/>
       <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
+      <c r="R21" s="1">
+        <v>23</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6257,13 +6411,25 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
+      <c r="R22" s="1">
+        <v>21</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6276,13 +6442,25 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
+      <c r="R23" s="1">
+        <v>26</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45066</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6295,13 +6473,25 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="O24" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P24" s="23"/>
       <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
+      <c r="R24" s="1">
+        <v>23</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6314,13 +6504,25 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
+      <c r="R25" s="1">
+        <v>15</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45067</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6333,11 +6535,19 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <v>25</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -6356,19 +6566,19 @@
       <c r="P27" s="23"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
       <c r="S30" s="27"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
       <c r="S31" s="30"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
       <c r="S32" s="1"/>
     </row>
@@ -6507,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6794,18 +7004,37 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1.96</v>
+      </c>
+      <c r="D9" s="38">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>150</v>
+      </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
+        <v>149.94</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -6928,7 +7157,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <f>COUNT(D2:D8)-D17</f>
+        <f>COUNT(D2:D9)-D17</f>
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
@@ -6943,7 +7172,7 @@
         <v>129</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7041,7 +7270,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1">
         <f>1/D22*100</f>
-        <v>57.851239669421474</v>
+        <v>49.786628733997148</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -7067,7 +7296,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f>SUM(C2:C10)/D16</f>
-        <v>1.7285714285714289</v>
+        <v>2.0085714285714289</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -7093,7 +7322,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="30">
         <f>D20-D21</f>
-        <v>27.863046044864234</v>
+        <v>35.92765698028856</v>
       </c>
       <c r="E23" s="1">
         <v>6</v>
@@ -7278,6 +7507,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="28">
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="G30" s="29">

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -1115,82 +1115,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2615.79</c:v>
+                  <c:v>2681.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>3004.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2787.15</c:v>
+                  <c:v>3024.2999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,11 +1205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260397408"/>
-        <c:axId val="260393880"/>
+        <c:axId val="207340064"/>
+        <c:axId val="267787176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260397408"/>
+        <c:axId val="207340064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,12 +1262,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260393880"/>
+        <c:crossAx val="267787176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260393880"/>
+        <c:axId val="267787176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260397408"/>
+        <c:crossAx val="207340064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5219,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6337,18 +6337,42 @@
       <c r="B20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="C20" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2.44</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3.39</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3.05</v>
+      </c>
+      <c r="I20" s="1">
+        <v>404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3.12</v>
+      </c>
+      <c r="M20" s="13">
+        <v>2.15</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1.74</v>
+      </c>
       <c r="O20" s="14" t="s">
         <v>22</v>
       </c>
@@ -6717,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,11 +6813,11 @@
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H10" si="0">C2*D$28</f>
-        <v>133.875</v>
+        <v>267.75</v>
       </c>
       <c r="I2" s="32">
         <f>IF(G2="halfred",-(D$28/2),H2-D$28)</f>
-        <v>57.375</v>
+        <v>114.75</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -6823,11 +6847,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>142.29000000000002</v>
+        <v>284.58000000000004</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" ref="I3:I8" si="1">IF(G3="halfred",-(D$28/2),H3-D$28)</f>
-        <v>65.79000000000002</v>
+        <v>131.58000000000004</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -6857,11 +6881,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>128.51999999999998</v>
+        <v>257.03999999999996</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>52.019999999999982</v>
+        <v>104.03999999999996</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -6891,11 +6915,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>130.04999999999998</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>53.549999999999983</v>
+        <v>107.09999999999997</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -6925,11 +6949,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>132.345</v>
+        <v>264.69</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>55.844999999999999</v>
+        <v>111.69</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -6959,11 +6983,11 @@
       </c>
       <c r="H7" s="32">
         <f>C7*D$28</f>
-        <v>133.875</v>
+        <v>267.75</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-38.25</v>
+        <v>-76.5</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -6993,11 +7017,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>124.69499999999999</v>
+        <v>249.39</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>48.194999999999993</v>
+        <v>96.389999999999986</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -7027,7 +7051,7 @@
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>149.94</v>
+        <v>299.88</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -7329,15 +7353,15 @@
       </c>
       <c r="F23" s="28">
         <f>I3</f>
-        <v>65.79000000000002</v>
+        <v>131.58000000000004</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="3"/>
-        <v>2615.79</v>
+        <v>2681.58</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>2.5800000000000005</v>
+        <v>5.160000000000001</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -7349,22 +7373,22 @@
       <c r="C24" s="1"/>
       <c r="D24" s="30">
         <f>D30/1</f>
-        <v>9.2999999999999989</v>
+        <v>18.599999999999998</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="28">
         <f>SUM(I4:I6)</f>
-        <v>161.41499999999996</v>
+        <v>322.82999999999993</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>3004.41</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>6.3299999999999983</v>
+        <v>12.659999999999997</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -7378,15 +7402,15 @@
       </c>
       <c r="F25" s="48">
         <f>SUM(I7:I8,I12)</f>
-        <v>9.9449999999999932</v>
+        <v>19.889999999999986</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>0.38999999999999974</v>
+        <v>0.77999999999999947</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7407,7 +7431,7 @@
       </c>
       <c r="G26" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
@@ -7433,7 +7457,7 @@
       </c>
       <c r="G27" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
@@ -7448,8 +7472,8 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="32">
-        <f>D27*3</f>
-        <v>76.5</v>
+        <f>D27*6</f>
+        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>11</v>
@@ -7459,7 +7483,7 @@
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
@@ -7475,7 +7499,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="32">
         <f>SUM(I3:I12)</f>
-        <v>237.14999999999998</v>
+        <v>474.29999999999995</v>
       </c>
       <c r="E29" s="1">
         <v>12</v>
@@ -7485,7 +7509,7 @@
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
@@ -7501,7 +7525,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f>D29/D26*100</f>
-        <v>9.2999999999999989</v>
+        <v>18.599999999999998</v>
       </c>
       <c r="E30" s="1">
         <v>13</v>
@@ -7512,7 +7536,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -7530,7 +7554,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -7551,7 +7575,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -7572,7 +7596,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -7593,7 +7617,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -7614,7 +7638,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -7635,7 +7659,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -7656,7 +7680,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -7677,7 +7701,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -7698,7 +7722,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -7719,7 +7743,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -7740,7 +7764,7 @@
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
@@ -7761,7 +7785,7 @@
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
@@ -7782,7 +7806,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -7803,7 +7827,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -7824,7 +7848,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -7845,7 +7869,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -7866,7 +7890,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -7887,7 +7911,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3024.2999999999997</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
   <si>
     <t>DATA</t>
   </si>
@@ -456,37 +456,28 @@
     <t>SUDTIROL vs CITTADELLA</t>
   </si>
   <si>
-    <t>  T. GUNMA vs MITO HOLLYHOCK</t>
-  </si>
-  <si>
     <t>JAPAN - J2 LEAGUE</t>
   </si>
   <si>
-    <t> PARMA vs VENEZIA</t>
-  </si>
-  <si>
     <t>GENOA vs BARI</t>
   </si>
   <si>
-    <t> CHIPPA UTD vs GOLDEN ARROWS</t>
-  </si>
-  <si>
     <t>void</t>
   </si>
   <si>
-    <t>CENTRAL CORDOBA vs UNION SANTA FE</t>
-  </si>
-  <si>
-    <t>DEPORTIVO MAIPU vs ALDOSIVI</t>
-  </si>
-  <si>
-    <t>ARGENTINA - PRIMERA NACIONAL</t>
-  </si>
-  <si>
     <t>GANGWON vs POHANG STEELERS</t>
   </si>
   <si>
     <t>SOUTH KOREA - K LEAGUE 1</t>
+  </si>
+  <si>
+    <t>T. GUNMA vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>PARMA vs VENEZIA</t>
+  </si>
+  <si>
+    <t>CHIPPA UTD vs GOLDEN ARROWS</t>
   </si>
 </sst>
 </file>
@@ -634,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +795,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1089,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>maioInvest!$G$18:$G$48</c:f>
+              <c:f>maioInvest!$G$25:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1115,82 +1109,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2681.58</c:v>
+                  <c:v>2615.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3004.41</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3024.2999999999997</c:v>
+                  <c:v>2787.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,11 +1199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207340064"/>
-        <c:axId val="267787176"/>
+        <c:axId val="256412632"/>
+        <c:axId val="256410280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207340064"/>
+        <c:axId val="256412632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,12 +1256,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267787176"/>
+        <c:crossAx val="256410280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267787176"/>
+        <c:axId val="256410280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1315,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207340064"/>
+        <c:crossAx val="256412632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1929,13 +1923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5217,11 +5211,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5437,7 +5429,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>61</v>
@@ -5678,7 +5670,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="1">
@@ -5795,7 +5787,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="1">
@@ -6026,7 +6018,7 @@
         <v>22</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="1">
@@ -6143,7 +6135,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="1">
@@ -6335,7 +6327,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -6382,7 +6374,7 @@
         <v>20</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -6390,20 +6382,44 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3.27</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3.28</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="L21" s="13">
+        <v>3.45</v>
+      </c>
+      <c r="M21" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1.847</v>
+      </c>
       <c r="O21" s="14" t="s">
         <v>22</v>
       </c>
@@ -6415,26 +6431,53 @@
       <c r="S21" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="T21" s="1">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45065</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="G22" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="H22" s="13">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="L22" s="13">
+        <v>3.51</v>
+      </c>
+      <c r="M22" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1.877</v>
+      </c>
       <c r="O22" s="14" t="s">
         <v>22</v>
       </c>
@@ -6446,30 +6489,59 @@
       <c r="S22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="T22" s="1">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+        <v>152</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3.03</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L23" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="M23" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N23" s="13">
+        <v>1.5740000000000001</v>
+      </c>
       <c r="O23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="23"/>
+      <c r="P23" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="1">
         <v>26</v>
@@ -6477,13 +6549,16 @@
       <c r="S23" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="T23" s="1">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>45066</v>
+      <c r="A24" s="4">
+        <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6498,24 +6573,20 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P24" s="23"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6528,79 +6599,29 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="O25" s="14"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="1">
-        <v>15</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45067</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="1">
-        <v>25</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
-      <c r="S30" s="27"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
-      <c r="S31" s="30"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
@@ -6608,30 +6629,32 @@
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="30"/>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="45"/>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
-      <c r="S35" s="30"/>
-    </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="45"/>
+    </row>
+    <row r="36" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="45"/>
+      <c r="S36" s="46"/>
     </row>
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="45"/>
-    </row>
-    <row r="38" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S37" s="47"/>
+    </row>
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="46"/>
+      <c r="S38" s="47"/>
     </row>
     <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
@@ -6646,36 +6669,34 @@
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="47"/>
+      <c r="S41" s="7"/>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="47"/>
+      <c r="Q42" s="1"/>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
+      <c r="Q43" s="1"/>
+      <c r="S43" s="32"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="1"/>
-      <c r="S44" s="32"/>
+      <c r="Q44" s="34"/>
+      <c r="S44" s="1"/>
     </row>
     <row r="45" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q45" s="1"/>
-      <c r="S45" s="32"/>
+      <c r="Q45" s="34"/>
+      <c r="S45" s="1"/>
     </row>
     <row r="46" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q46" s="34"/>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="1"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="1"/>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="17:19" x14ac:dyDescent="0.25">
@@ -6717,14 +6738,6 @@
     <row r="58" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q59" s="1"/>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q60" s="1"/>
-      <c r="S60" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
@@ -6739,16 +6752,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -6757,7 +6768,7 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45049</v>
       </c>
@@ -6812,18 +6823,18 @@
         <v>130</v>
       </c>
       <c r="H2" s="32">
-        <f t="shared" ref="H2:H10" si="0">C2*D$28</f>
-        <v>267.75</v>
+        <f t="shared" ref="H2:H12" si="0">C2*D$35</f>
+        <v>133.875</v>
       </c>
       <c r="I2" s="32">
-        <f>IF(G2="halfred",-(D$28/2),H2-D$28)</f>
-        <v>114.75</v>
+        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$35/2),H2-D$35)</f>
+        <v>57.375</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45052</v>
       </c>
@@ -6847,17 +6858,17 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>284.58000000000004</v>
+        <v>142.29000000000002</v>
       </c>
       <c r="I3" s="32">
-        <f t="shared" ref="I3:I8" si="1">IF(G3="halfred",-(D$28/2),H3-D$28)</f>
-        <v>131.58000000000004</v>
+        <f t="shared" si="1"/>
+        <v>65.79000000000002</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45053</v>
       </c>
@@ -6881,17 +6892,17 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>257.03999999999996</v>
+        <v>128.51999999999998</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>104.03999999999996</v>
+        <v>52.019999999999982</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45053</v>
       </c>
@@ -6915,17 +6926,17 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>260.09999999999997</v>
+        <v>130.04999999999998</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>107.09999999999997</v>
+        <v>53.549999999999983</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45053</v>
       </c>
@@ -6949,25 +6960,25 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>264.69</v>
+        <v>132.345</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>111.69</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C7" s="42">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="D7" s="38">
         <v>15</v>
@@ -6982,18 +6993,18 @@
         <v>138</v>
       </c>
       <c r="H7" s="32">
-        <f>C7*D$28</f>
-        <v>267.75</v>
+        <f t="shared" si="0"/>
+        <v>136.17000000000002</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-76.5</v>
+        <v>-38.25</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45054</v>
       </c>
@@ -7017,17 +7028,17 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>249.39</v>
+        <v>124.69499999999999</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>96.389999999999986</v>
+        <v>48.194999999999993</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45059</v>
       </c>
@@ -7047,11 +7058,11 @@
         <v>110</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>299.88</v>
+        <v>149.94</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -7060,543 +7071,507 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="43"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1.72</v>
+      </c>
+      <c r="D10" s="38">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="57"/>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131.57999999999998</v>
       </c>
       <c r="I10" s="32"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
-        <v>45047</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="51">
-        <v>2.61</v>
-      </c>
-      <c r="D11" s="52">
-        <v>13</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="54">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
-        <v>45054</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="51">
-        <v>1.87</v>
-      </c>
-      <c r="D12" s="52">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="54">
-        <v>0</v>
-      </c>
-      <c r="H12" s="54">
-        <f>G12-D35</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="55">
-        <v>0</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1.67</v>
+      </c>
+      <c r="D11" s="38">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="32">
+        <f t="shared" si="0"/>
+        <v>127.755</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1.98</v>
+      </c>
+      <c r="D12" s="38">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="32">
+        <f t="shared" si="0"/>
+        <v>151.47</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="42"/>
       <c r="D13" s="38"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="32">
+        <f>C17*D$35</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="51">
+        <v>2.61</v>
+      </c>
+      <c r="D18" s="52">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>45054</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1.87</v>
+      </c>
+      <c r="D19" s="52">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <f>G19-D42</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>COUNT(D2:D9)-D17</f>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>COUNT(D2:D9)</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28">
+        <f>I18</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
+        <f>F25 +D33</f>
+        <v>2550</v>
+      </c>
+      <c r="H25" s="1">
+        <f>F25/D$33*100</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30">
+        <f>D23-D25</f>
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="27">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="28">
-        <f>I11</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
-        <f>F18 +D26</f>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29">
+        <f>F26 +G25</f>
         <v>2550</v>
       </c>
-      <c r="H18" s="1">
-        <f>F18/D$26*100</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="30">
-        <f>D16-D18</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29">
-        <f>F19 +G18</f>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:H55" si="2">F26/D$33*100</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f>D26/D23*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27:G55" si="3">F27 +G26</f>
         <v>2550</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:H48" si="2">F19/D$26*100</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <f>D19/D16*100</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" ref="G20:G48" si="3">F20 +G19</f>
-        <v>2550</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <f>1/D22*100</f>
-        <v>49.786628733997148</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f>1/D29*100</f>
+        <v>41.109969167523126</v>
+      </c>
+      <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
         <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <f>SUM(C2:C10)/D16</f>
-        <v>2.0085714285714289</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f>SUM(C2:C17)/D23</f>
+        <v>2.4325000000000001</v>
+      </c>
+      <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
         <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="30">
-        <f>D20-D21</f>
-        <v>35.92765698028856</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6</v>
-      </c>
-      <c r="F23" s="28">
-        <f>I3</f>
-        <v>131.58000000000004</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="3"/>
-        <v>2681.58</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>5.160000000000001</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="30">
-        <f>D30/1</f>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7</v>
-      </c>
-      <c r="F24" s="28">
-        <f>SUM(I4:I6)</f>
-        <v>322.82999999999993</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="3"/>
-        <v>3004.41</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>12.659999999999997</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="1">
-        <v>8</v>
-      </c>
-      <c r="F25" s="48">
-        <f>SUM(I7:I8,I12)</f>
-        <v>19.889999999999986</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.77999999999999947</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="31">
-        <v>2550</v>
-      </c>
-      <c r="E26" s="1">
-        <v>9</v>
-      </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="32">
-        <f>D26/100</f>
-        <v>25.5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="32">
-        <f>D27*6</f>
-        <v>153</v>
-      </c>
-      <c r="E28" s="1">
-        <v>11</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="29">
-        <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="32">
-        <f>SUM(I3:I12)</f>
-        <v>474.29999999999995</v>
-      </c>
-      <c r="E29" s="1">
-        <v>12</v>
-      </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
-        <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
-      </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="33" t="s">
-        <v>106</v>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <f>D29/D26*100</f>
-        <v>18.599999999999998</v>
+      <c r="D30" s="30">
+        <f>D27-D28</f>
+        <v>46.390030832476874</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F30" s="28">
-        <f>I9</f>
-        <v>0</v>
+        <f>I3</f>
+        <v>65.79000000000002</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2615.79</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5800000000000005</v>
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30">
+        <f>D37/1</f>
+        <v>9.2999999999999989</v>
+      </c>
       <c r="E31" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F31" s="28">
-        <v>0</v>
+        <f>SUM(I4:I6)</f>
+        <v>161.41499999999996</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.3299999999999983</v>
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1">
-        <v>15</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="48">
+        <f>SUM(I7:I8,I19)</f>
+        <v>9.9449999999999932</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.38999999999999974</v>
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="31">
+        <v>2550</v>
+      </c>
       <c r="E33" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -7606,18 +7581,23 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="32">
+        <f>D33/100</f>
+        <v>25.5</v>
+      </c>
       <c r="E34" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -7627,18 +7607,23 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="34"/>
+      <c r="B35" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="32">
+        <f>D34*3</f>
+        <v>76.5</v>
+      </c>
       <c r="E35" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F35" s="28">
         <v>0</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -7648,18 +7633,23 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="34"/>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="32">
+        <f>SUM(I3:I19)</f>
+        <v>237.14999999999998</v>
+      </c>
       <c r="E36" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -7669,18 +7659,24 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <f>D36/D33*100</f>
+        <v>9.2999999999999989</v>
+      </c>
       <c r="E37" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F37" s="28">
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -7690,18 +7686,15 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F38" s="28">
         <v>0</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -7713,16 +7706,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -7734,16 +7727,16 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F40" s="28">
         <v>0</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -7753,18 +7746,18 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F41" s="28">
         <v>0</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
@@ -7774,18 +7767,18 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F42" s="28">
         <v>0</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
@@ -7795,18 +7788,18 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F43" s="28">
         <v>0</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -7820,14 +7813,14 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F44" s="28">
         <v>0</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -7841,14 +7834,14 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F45" s="28">
         <v>0</v>
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -7862,14 +7855,14 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F46" s="28">
         <v>0</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -7883,14 +7876,14 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F47" s="28">
         <v>0</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -7904,14 +7897,14 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F48" s="28">
         <v>0</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>3024.2999999999997</v>
+        <v>2787.15</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -7919,8 +7912,155 @@
       </c>
       <c r="I48" s="1"/>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>25</v>
+      </c>
+      <c r="F49" s="28">
+        <v>0</v>
+      </c>
+      <c r="G49" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>26</v>
+      </c>
+      <c r="F50" s="28">
+        <v>0</v>
+      </c>
+      <c r="G50" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>27</v>
+      </c>
+      <c r="F51" s="28">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>28</v>
+      </c>
+      <c r="F52" s="28">
+        <v>0</v>
+      </c>
+      <c r="G52" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>29</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0</v>
+      </c>
+      <c r="G53" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>30</v>
+      </c>
+      <c r="F54" s="28">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>31</v>
+      </c>
+      <c r="F55" s="28">
+        <v>0</v>
+      </c>
+      <c r="G55" s="29">
+        <f t="shared" si="3"/>
+        <v>2787.15</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F18:F48">
+  <conditionalFormatting sqref="F25:F55">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7931,7 +8071,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 I2:I10">
+  <conditionalFormatting sqref="H20 I2:I17">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7939,7 +8079,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="H18:H19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7950,7 +8090,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D22" formulaRange="1"/>
+    <ignoredError sqref="D29" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
   <si>
     <t>DATA</t>
   </si>
@@ -441,18 +441,6 @@
     <t>0--3</t>
   </si>
   <si>
-    <t>ASCOLI vs PISA</t>
-  </si>
-  <si>
-    <t>primo</t>
-  </si>
-  <si>
-    <t>GRIMSBY vs AFC WIMBLEDON</t>
-  </si>
-  <si>
-    <t>STAKE BET PRIMO 3%</t>
-  </si>
-  <si>
     <t>SUDTIROL vs CITTADELLA</t>
   </si>
   <si>
@@ -478,6 +466,27 @@
   </si>
   <si>
     <t>CHIPPA UTD vs GOLDEN ARROWS</t>
+  </si>
+  <si>
+    <t>4--3</t>
+  </si>
+  <si>
+    <t>K. FRONTALE vs KASHIWA REYSOL</t>
+  </si>
+  <si>
+    <t>JAPAN - J1 LEAGUE</t>
+  </si>
+  <si>
+    <t>VEGALTA SENDAI vs JEF UTD CHIBA</t>
+  </si>
+  <si>
+    <t>STAKE BET PRIMO 5%</t>
+  </si>
+  <si>
+    <t>COLON SANTA FE vs CENTRAL CORDOBA</t>
+  </si>
+  <si>
+    <t> RODEZ AVEYRON vs PAU FC</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,64 +776,17 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1089,7 +1051,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>maioInvest!$G$25:$G$55</c:f>
+              <c:f>maioInvest!$G$23:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1109,82 +1071,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2615.79</c:v>
+                  <c:v>2659.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2787.15</c:v>
+                  <c:v>2928.6750000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2787.15</c:v>
+                  <c:v>3105.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2787.15</c:v>
+                  <c:v>3230.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256412632"/>
-        <c:axId val="256410280"/>
+        <c:axId val="210550544"/>
+        <c:axId val="260339104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256412632"/>
+        <c:axId val="210550544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1218,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256410280"/>
+        <c:crossAx val="260339104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256410280"/>
+        <c:axId val="260339104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1277,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256412632"/>
+        <c:crossAx val="210550544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1923,13 +1885,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2241,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3271,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4195,7 +4157,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5211,9 +5173,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6210,7 +6174,7 @@
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1">
         <v>2.5299999999999998</v>
@@ -6327,7 +6291,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -6374,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -6382,7 +6346,7 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1">
         <v>2.2999999999999998</v>
@@ -6440,7 +6404,7 @@
         <v>45065</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1">
         <v>1.7</v>
@@ -6498,7 +6462,7 @@
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1">
         <v>2.17</v>
@@ -6558,20 +6522,44 @@
         <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="G24" s="13">
+        <v>3.24</v>
+      </c>
+      <c r="H24" s="13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="L24" s="13">
+        <v>2.97</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N24" s="13">
+        <v>1.645</v>
+      </c>
       <c r="O24" s="14" t="s">
         <v>16</v>
       </c>
@@ -6581,12 +6569,16 @@
         <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="4">
+        <v>44707</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6599,25 +6591,88 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="7"/>
+      <c r="R25" s="1">
+        <v>21</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45073</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="1">
+        <v>17</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="A27" s="9">
+        <v>45074</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="1">
+        <v>17</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45074</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="Q28" s="1"/>
-      <c r="S28" s="27"/>
+      <c r="R28" s="1">
+        <v>25</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
-      <c r="S29" s="30"/>
+      <c r="S29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="S30" s="30"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
@@ -6629,27 +6684,26 @@
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" s="1"/>
-      <c r="S33" s="30"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="45"/>
+      <c r="Q34" s="1"/>
+      <c r="S34" s="30"/>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="45"/>
     </row>
-    <row r="36" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="46"/>
-    </row>
-    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="S36" s="45"/>
+    </row>
+    <row r="37" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="47"/>
+      <c r="S37" s="46"/>
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
@@ -6669,19 +6723,20 @@
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
+      <c r="S41" s="47"/>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="1"/>
-      <c r="S42" s="32"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="1"/>
       <c r="S43" s="32"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="34"/>
-      <c r="S44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="34"/>
@@ -6692,7 +6747,7 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="34"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="17:19" x14ac:dyDescent="0.25">
@@ -6739,9 +6794,13 @@
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
     </row>
+    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6752,9 +6811,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6823,12 +6884,12 @@
         <v>130</v>
       </c>
       <c r="H2" s="32">
-        <f t="shared" ref="H2:H12" si="0">C2*D$35</f>
-        <v>133.875</v>
+        <f t="shared" ref="H2:H12" si="0">C2*D$33</f>
+        <v>223.125</v>
       </c>
       <c r="I2" s="32">
-        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$35/2),H2-D$35)</f>
-        <v>57.375</v>
+        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
+        <v>95.625</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -6858,11 +6919,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>142.29000000000002</v>
+        <v>237.15</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" si="1"/>
-        <v>65.79000000000002</v>
+        <v>109.65</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -6892,11 +6953,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>128.51999999999998</v>
+        <v>214.2</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>52.019999999999982</v>
+        <v>86.699999999999989</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -6926,11 +6987,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>130.04999999999998</v>
+        <v>216.75</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>53.549999999999983</v>
+        <v>89.25</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -6960,11 +7021,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>132.345</v>
+        <v>220.57499999999999</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>55.844999999999999</v>
+        <v>93.074999999999989</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -6994,11 +7055,11 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>136.17000000000002</v>
+        <v>226.95000000000002</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-38.25</v>
+        <v>-63.75</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -7028,11 +7089,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>124.69499999999999</v>
+        <v>207.82499999999999</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>48.194999999999993</v>
+        <v>80.324999999999989</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -7043,7 +7104,7 @@
         <v>45059</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" s="42">
         <v>1.96</v>
@@ -7054,20 +7115,20 @@
       <c r="E9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>147</v>
+      <c r="G9" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>149.94</v>
+        <v>249.9</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="49" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7076,7 +7137,7 @@
         <v>45065</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="42">
         <v>1.72</v>
@@ -7087,23 +7148,30 @@
       <c r="E10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>131.57999999999998</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="57"/>
+        <v>219.29999999999998</v>
+      </c>
+      <c r="I10" s="32">
+        <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
+        <v>91.799999999999983</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45065</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C11" s="42">
         <v>1.67</v>
@@ -7114,23 +7182,30 @@
       <c r="E11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
-        <v>127.755</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="57"/>
+        <v>212.92499999999998</v>
+      </c>
+      <c r="I11" s="32">
+        <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
+        <v>85.424999999999983</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45066</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="42">
         <v>1.98</v>
@@ -7141,16 +7216,23 @@
       <c r="E12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>151.47</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="57"/>
+        <v>252.45</v>
+      </c>
+      <c r="I12" s="32">
+        <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
+        <v>124.94999999999999</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -7158,11 +7240,11 @@
       <c r="C13" s="42"/>
       <c r="D13" s="38"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="57"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -7170,11 +7252,11 @@
       <c r="C14" s="42"/>
       <c r="D14" s="38"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="57"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -7182,11 +7264,11 @@
       <c r="C15" s="42"/>
       <c r="D15" s="38"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="57"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -7194,230 +7276,211 @@
       <c r="C16" s="42"/>
       <c r="D16" s="38"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="57"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="42"/>
       <c r="D17" s="38"/>
       <c r="E17" s="1"/>
       <c r="F17" s="43"/>
-      <c r="H17" s="32">
-        <f>C17*D$35</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
-        <v>45047</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="51">
-        <v>2.61</v>
-      </c>
-      <c r="D18" s="52">
-        <v>13</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="54">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <v>0</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
-        <v>45054</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="51">
-        <v>1.87</v>
-      </c>
-      <c r="D19" s="52">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="54">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
-        <f>G19-D42</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="41"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <f>COUNT(D2:D12)</f>
+        <v>11</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <f>COUNT(D2:D9)</f>
-        <v>8</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <f>F23 +D31</f>
+        <v>2550</v>
+      </c>
+      <c r="H23" s="1">
+        <f>F23/D$31*100</f>
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30">
+        <f>D21-D23</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <f>F24 +G23</f>
+        <v>2550</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H53" si="2">F24/D$31*100</f>
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="27">
-        <v>1</v>
+      <c r="D25" s="1">
+        <f>D24/D21*100</f>
+        <v>90.909090909090907</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="28">
-        <f>I18</f>
         <v>0</v>
       </c>
       <c r="G25" s="29">
-        <f>F25 +D33</f>
+        <f t="shared" ref="G25:G53" si="3">F25 +G24</f>
         <v>2550</v>
       </c>
       <c r="H25" s="1">
-        <f>F25/D$33*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30">
-        <f>D23-D25</f>
-        <v>7</v>
+      <c r="D26" s="1">
+        <f>1/D27*100</f>
+        <v>56.52620760534429</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
       </c>
       <c r="G26" s="29">
-        <f>F26 +G25</f>
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H55" si="2">F26/D$33*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <f>D26/D23*100</f>
-        <v>87.5</v>
+        <f>SUM(C2:C17)/D21</f>
+        <v>1.7690909090909093</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="28">
         <v>0</v>
       </c>
       <c r="G27" s="29">
-        <f t="shared" ref="G27:G55" si="3">F27 +G26</f>
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
       <c r="H27" s="1">
@@ -7426,152 +7489,151 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <f>1/D29*100</f>
-        <v>41.109969167523126</v>
+      <c r="D28" s="30">
+        <f>D25-D26</f>
+        <v>34.382883303746617</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" s="28">
-        <v>0</v>
+        <f>I3</f>
+        <v>109.65</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2550</v>
+        <v>2659.65</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <f>SUM(C2:C17)/D23</f>
-        <v>2.4325000000000001</v>
+      <c r="D29" s="30">
+        <f>D35/1</f>
+        <v>27.349999999999998</v>
       </c>
       <c r="E29" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="28">
-        <v>0</v>
+        <f>SUM(I4:I6)</f>
+        <v>269.02499999999998</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2550</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.549999999999999</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="30">
-        <f>D27-D28</f>
-        <v>46.390030832476874</v>
-      </c>
+      <c r="D30" s="30"/>
       <c r="E30" s="1">
-        <v>6</v>
-      </c>
-      <c r="F30" s="28">
-        <f>I3</f>
-        <v>65.79000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="F30" s="48">
+        <v>0</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2615.79</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>2.5800000000000005</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30">
-        <f>D37/1</f>
-        <v>9.2999999999999989</v>
+      <c r="D31" s="31">
+        <v>2550</v>
       </c>
       <c r="E31" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" s="28">
-        <f>SUM(I4:I6)</f>
-        <v>161.41499999999996</v>
+        <v>0</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>6.3299999999999983</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="32">
+        <f>D31/100</f>
+        <v>25.5</v>
+      </c>
       <c r="E32" s="1">
-        <v>8</v>
-      </c>
-      <c r="F32" s="48">
-        <f>SUM(I7:I8,I19)</f>
-        <v>9.9449999999999932</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>0.38999999999999974</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="31">
-        <v>2550</v>
+      <c r="D33" s="32">
+        <f>D32*5</f>
+        <v>127.5</v>
       </c>
       <c r="E33" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -7582,22 +7644,22 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="32">
-        <f>D33/100</f>
-        <v>25.5</v>
+        <f>SUM(I3:I17)</f>
+        <v>697.42499999999995</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -7607,23 +7669,24 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>143</v>
+      <c r="B35" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="32">
-        <f>D34*3</f>
-        <v>76.5</v>
+      <c r="D35" s="1">
+        <f>D34/D31*100</f>
+        <v>27.349999999999998</v>
       </c>
       <c r="E35" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35" s="28">
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -7633,23 +7696,15 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="32">
-        <f>SUM(I3:I19)</f>
-        <v>237.14999999999998</v>
-      </c>
       <c r="E36" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -7659,24 +7714,18 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="33" t="s">
-        <v>106</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <f>D36/D33*100</f>
-        <v>9.2999999999999989</v>
-      </c>
+      <c r="D37" s="32"/>
       <c r="E37" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" s="28">
-        <f>I9</f>
         <v>0</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -7686,15 +7735,18 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="28">
         <v>0</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -7704,18 +7756,18 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -7725,18 +7777,18 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" s="28">
         <v>0</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>2928.6750000000002</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -7750,56 +7802,58 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F41" s="28">
-        <v>0</v>
+        <f>SUM(I10:I11)</f>
+        <v>177.22499999999997</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3105.9</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9499999999999993</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="34"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" s="28">
-        <v>0</v>
+        <f>I12</f>
+        <v>124.94999999999999</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="34"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F43" s="28">
         <v>0</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -7813,14 +7867,14 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F44" s="28">
         <v>0</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -7834,14 +7888,14 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F45" s="28">
         <v>0</v>
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -7855,14 +7909,14 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46" s="28">
         <v>0</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -7876,14 +7930,14 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F47" s="28">
         <v>0</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -7897,14 +7951,14 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F48" s="28">
         <v>0</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -7918,14 +7972,14 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F49" s="28">
         <v>0</v>
       </c>
       <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -7939,14 +7993,14 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F50" s="28">
         <v>0</v>
       </c>
       <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -7960,14 +8014,14 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
       </c>
       <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -7981,14 +8035,14 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" s="28">
         <v>0</v>
       </c>
       <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -8002,14 +8056,14 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" s="28">
         <v>0</v>
       </c>
       <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>2787.15</v>
+        <v>3230.85</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
@@ -8017,81 +8071,28 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1">
-        <v>30</v>
-      </c>
-      <c r="F54" s="28">
-        <v>0</v>
-      </c>
-      <c r="G54" s="29">
-        <f t="shared" si="3"/>
-        <v>2787.15</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
-        <v>31</v>
-      </c>
-      <c r="F55" s="28">
-        <v>0</v>
-      </c>
-      <c r="G55" s="29">
-        <f t="shared" si="3"/>
-        <v>2787.15</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F25:F55">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F23:F53">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20 I2:I17">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="H18 I2:I17">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D29" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="marco" sheetId="6" r:id="rId3"/>
     <sheet name="abril" sheetId="7" r:id="rId4"/>
     <sheet name="maio" sheetId="8" r:id="rId5"/>
-    <sheet name="maioInvest" sheetId="9" r:id="rId6"/>
+    <sheet name="maioGENESIS" sheetId="10" r:id="rId6"/>
+    <sheet name="maioInvest" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="175">
   <si>
     <t>DATA</t>
   </si>
@@ -486,7 +487,602 @@
     <t>COLON SANTA FE vs CENTRAL CORDOBA</t>
   </si>
   <si>
-    <t> RODEZ AVEYRON vs PAU FC</t>
+    <t>RODEZ AVEYRON vs PAU FC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HOME </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPEN ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HOME </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOSE ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DRAW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OPEN ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DRAW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CLOSE ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWAY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPEN ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWAY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOSE ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNDER 1,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPEN ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNDER 1,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPEN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DATE AND HOURS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNDER 1,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOSE ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OVER 2,5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OPEN ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OVER 2,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPEN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DATE AND HOURS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OVER 2,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CLOSE ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNDER 2,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPEN ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNDER 2,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOSE ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OVER 2,25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPEN ODDS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OVER 2,25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOSE ODDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MARKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINNACLE</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL DE GOLS</t>
+  </si>
+  <si>
+    <t>0--4</t>
+  </si>
+  <si>
+    <t>0--2</t>
   </si>
 </sst>
 </file>
@@ -497,7 +1093,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +1173,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +1249,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -634,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,6 +1421,24 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,82 +1729,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2659.65</c:v>
+                  <c:v>2615.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2928.6750000000002</c:v>
+                  <c:v>2777.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3105.9</c:v>
+                  <c:v>2883.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3230.85</c:v>
+                  <c:v>2958.5099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,11 +1819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210550544"/>
-        <c:axId val="260339104"/>
+        <c:axId val="244869936"/>
+        <c:axId val="244870328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210550544"/>
+        <c:axId val="244869936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,12 +1876,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260339104"/>
+        <c:crossAx val="244870328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260339104"/>
+        <c:axId val="244870328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1935,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210550544"/>
+        <c:crossAx val="244869936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5175,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6332,7 +6990,9 @@
       <c r="O20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="23"/>
+      <c r="P20" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <v>20</v>
@@ -6387,7 +7047,9 @@
       <c r="O21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="23"/>
+      <c r="P21" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="1">
         <v>23</v>
@@ -6445,7 +7107,9 @@
       <c r="O22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="23"/>
+      <c r="P22" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="1">
         <v>21</v>
@@ -6563,7 +7227,9 @@
       <c r="O24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="23"/>
+      <c r="P24" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="1">
         <v>25</v>
@@ -6574,27 +7240,53 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>44707</v>
+        <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="C25" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2.34</v>
+      </c>
+      <c r="G25" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="H25" s="13">
+        <v>3.23</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3.21</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2.12</v>
+      </c>
+      <c r="N25" s="13">
+        <v>1.74</v>
+      </c>
       <c r="O25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="23"/>
+      <c r="P25" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="1">
         <v>21</v>
@@ -6811,10 +7503,1534 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1.96</v>
+      </c>
+      <c r="D2">
+        <v>2.36</v>
+      </c>
+      <c r="E2">
+        <v>3.37</v>
+      </c>
+      <c r="F2">
+        <v>3.1</v>
+      </c>
+      <c r="G2">
+        <v>4.26</v>
+      </c>
+      <c r="H2">
+        <v>3.54</v>
+      </c>
+      <c r="I2">
+        <v>2.81</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44675</v>
+      </c>
+      <c r="K2">
+        <v>2.71</v>
+      </c>
+      <c r="L2">
+        <v>2.41</v>
+      </c>
+      <c r="M2" s="9">
+        <v>45040</v>
+      </c>
+      <c r="N2">
+        <v>2.61</v>
+      </c>
+      <c r="O2">
+        <v>1.59</v>
+      </c>
+      <c r="P2">
+        <v>1.54</v>
+      </c>
+      <c r="Q2">
+        <v>2.1</v>
+      </c>
+      <c r="R2">
+        <v>2.25</v>
+      </c>
+      <c r="U2" s="1">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2.34</v>
+      </c>
+      <c r="D3">
+        <v>2.71</v>
+      </c>
+      <c r="E3">
+        <v>3.07</v>
+      </c>
+      <c r="F3">
+        <v>3.18</v>
+      </c>
+      <c r="G3">
+        <v>3.26</v>
+      </c>
+      <c r="H3">
+        <v>2.87</v>
+      </c>
+      <c r="I3">
+        <v>2.8</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44676</v>
+      </c>
+      <c r="K3">
+        <v>3.09</v>
+      </c>
+      <c r="L3">
+        <v>2.27</v>
+      </c>
+      <c r="M3" s="9">
+        <v>45041</v>
+      </c>
+      <c r="N3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O3">
+        <v>1.61</v>
+      </c>
+      <c r="P3">
+        <v>1.7</v>
+      </c>
+      <c r="Q3">
+        <v>1.99</v>
+      </c>
+      <c r="R3">
+        <v>1.94</v>
+      </c>
+      <c r="U3" s="1">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4">
+        <v>2.57</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4">
+        <v>3.04</v>
+      </c>
+      <c r="G4">
+        <v>2.73</v>
+      </c>
+      <c r="H4">
+        <v>2.84</v>
+      </c>
+      <c r="I4">
+        <v>404</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44676</v>
+      </c>
+      <c r="K4">
+        <v>404</v>
+      </c>
+      <c r="L4">
+        <v>2.04</v>
+      </c>
+      <c r="M4" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N4">
+        <v>2.12</v>
+      </c>
+      <c r="O4">
+        <v>1.7</v>
+      </c>
+      <c r="P4">
+        <v>1.71</v>
+      </c>
+      <c r="Q4">
+        <v>1.8</v>
+      </c>
+      <c r="R4">
+        <v>1.86</v>
+      </c>
+      <c r="U4" s="1">
+        <v>26</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>2.25</v>
+      </c>
+      <c r="D5">
+        <v>2.38</v>
+      </c>
+      <c r="E5">
+        <v>3.04</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="H5">
+        <v>3.57</v>
+      </c>
+      <c r="I5">
+        <v>2.71</v>
+      </c>
+      <c r="J5" s="9">
+        <v>44681</v>
+      </c>
+      <c r="K5">
+        <v>2.52</v>
+      </c>
+      <c r="L5">
+        <v>2.56</v>
+      </c>
+      <c r="M5" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N5">
+        <v>2.73</v>
+      </c>
+      <c r="O5">
+        <v>1.54</v>
+      </c>
+      <c r="P5">
+        <v>1.49</v>
+      </c>
+      <c r="Q5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R5">
+        <v>2.37</v>
+      </c>
+      <c r="U5" s="1">
+        <v>22</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E6">
+        <v>3.16</v>
+      </c>
+      <c r="F6">
+        <v>3.19</v>
+      </c>
+      <c r="G6">
+        <v>3.06</v>
+      </c>
+      <c r="H6">
+        <v>3.73</v>
+      </c>
+      <c r="I6">
+        <v>2.97</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44682</v>
+      </c>
+      <c r="K6">
+        <v>2.98</v>
+      </c>
+      <c r="L6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M6" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N6">
+        <v>2.31</v>
+      </c>
+      <c r="O6">
+        <v>1.65</v>
+      </c>
+      <c r="P6">
+        <v>1.67</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2.02</v>
+      </c>
+      <c r="U6" s="1">
+        <v>17</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.48</v>
+      </c>
+      <c r="E7">
+        <v>3.27</v>
+      </c>
+      <c r="F7">
+        <v>3.32</v>
+      </c>
+      <c r="G7">
+        <v>3.51</v>
+      </c>
+      <c r="H7">
+        <v>3.15</v>
+      </c>
+      <c r="I7">
+        <v>3.11</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K7">
+        <v>3.23</v>
+      </c>
+      <c r="L7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N7">
+        <v>2.21</v>
+      </c>
+      <c r="O7">
+        <v>1.73</v>
+      </c>
+      <c r="P7">
+        <v>1.74</v>
+      </c>
+      <c r="Q7">
+        <v>1.93</v>
+      </c>
+      <c r="R7">
+        <v>1.93</v>
+      </c>
+      <c r="U7" s="1">
+        <v>24</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <v>2.39</v>
+      </c>
+      <c r="D8">
+        <v>2.31</v>
+      </c>
+      <c r="E8">
+        <v>2.95</v>
+      </c>
+      <c r="F8">
+        <v>2.96</v>
+      </c>
+      <c r="G8">
+        <v>2.57</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>404</v>
+      </c>
+      <c r="J8" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K8">
+        <v>404</v>
+      </c>
+      <c r="L8">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N8">
+        <v>2.02</v>
+      </c>
+      <c r="O8">
+        <v>1.69</v>
+      </c>
+      <c r="P8">
+        <v>1.71</v>
+      </c>
+      <c r="Q8">
+        <v>1.74</v>
+      </c>
+      <c r="R8">
+        <v>1.79</v>
+      </c>
+      <c r="U8" s="1">
+        <v>26</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>3.14</v>
+      </c>
+      <c r="D9">
+        <v>3.33</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2.94</v>
+      </c>
+      <c r="G9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H9">
+        <v>2.15</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K9">
+        <v>404</v>
+      </c>
+      <c r="L9">
+        <v>2.08</v>
+      </c>
+      <c r="M9" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O9">
+        <v>1.6</v>
+      </c>
+      <c r="P9">
+        <v>1.61</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.93</v>
+      </c>
+      <c r="U9" s="1">
+        <v>21</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>2.34</v>
+      </c>
+      <c r="D10">
+        <v>2.64</v>
+      </c>
+      <c r="E10">
+        <v>3.52</v>
+      </c>
+      <c r="F10">
+        <v>3.18</v>
+      </c>
+      <c r="G10">
+        <v>3.11</v>
+      </c>
+      <c r="H10">
+        <v>3.05</v>
+      </c>
+      <c r="I10">
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K10">
+        <v>3.01</v>
+      </c>
+      <c r="L10">
+        <v>1.88</v>
+      </c>
+      <c r="M10" s="9">
+        <v>45076</v>
+      </c>
+      <c r="N10">
+        <v>2.34</v>
+      </c>
+      <c r="O10">
+        <v>1.66</v>
+      </c>
+      <c r="P10">
+        <v>1.99</v>
+      </c>
+      <c r="Q10">
+        <v>1.65</v>
+      </c>
+      <c r="R10">
+        <v>2.04</v>
+      </c>
+      <c r="U10" s="1">
+        <v>25</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11">
+        <v>1.56</v>
+      </c>
+      <c r="D11">
+        <v>1.55</v>
+      </c>
+      <c r="E11">
+        <v>4.05</v>
+      </c>
+      <c r="F11">
+        <v>4.05</v>
+      </c>
+      <c r="G11">
+        <v>6.76</v>
+      </c>
+      <c r="H11">
+        <v>7.21</v>
+      </c>
+      <c r="I11">
+        <v>3.22</v>
+      </c>
+      <c r="J11" s="9">
+        <v>45049</v>
+      </c>
+      <c r="K11">
+        <v>3.1</v>
+      </c>
+      <c r="L11">
+        <v>2.14</v>
+      </c>
+      <c r="M11" s="9">
+        <v>45049</v>
+      </c>
+      <c r="N11">
+        <v>2.21</v>
+      </c>
+      <c r="O11">
+        <v>1.72</v>
+      </c>
+      <c r="P11">
+        <v>1.76</v>
+      </c>
+      <c r="Q11">
+        <v>1.87</v>
+      </c>
+      <c r="R11">
+        <v>1.94</v>
+      </c>
+      <c r="U11" s="1">
+        <v>26</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>2.08</v>
+      </c>
+      <c r="D12">
+        <v>1.93</v>
+      </c>
+      <c r="E12">
+        <v>3.28</v>
+      </c>
+      <c r="F12">
+        <v>3.45</v>
+      </c>
+      <c r="G12">
+        <v>3.72</v>
+      </c>
+      <c r="H12">
+        <v>4.18</v>
+      </c>
+      <c r="I12">
+        <v>3.24</v>
+      </c>
+      <c r="J12" s="9">
+        <v>45049</v>
+      </c>
+      <c r="K12">
+        <v>3.27</v>
+      </c>
+      <c r="L12">
+        <v>2.1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>45049</v>
+      </c>
+      <c r="N12">
+        <v>2.08</v>
+      </c>
+      <c r="O12">
+        <v>1.75</v>
+      </c>
+      <c r="P12">
+        <v>1.77</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>1.82</v>
+      </c>
+      <c r="U12" s="1">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>3.16</v>
+      </c>
+      <c r="D13">
+        <v>4.55</v>
+      </c>
+      <c r="E13">
+        <v>3.29</v>
+      </c>
+      <c r="F13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H13">
+        <v>1.68</v>
+      </c>
+      <c r="I13">
+        <v>3.51</v>
+      </c>
+      <c r="J13" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K13">
+        <v>4.2</v>
+      </c>
+      <c r="L13">
+        <v>1.89</v>
+      </c>
+      <c r="M13" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N13">
+        <v>1.71</v>
+      </c>
+      <c r="O13">
+        <v>1.86</v>
+      </c>
+      <c r="P13">
+        <v>2.16</v>
+      </c>
+      <c r="Q13">
+        <v>1.65</v>
+      </c>
+      <c r="R13">
+        <v>1.52</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14">
+        <v>1.54</v>
+      </c>
+      <c r="D14">
+        <v>1.76</v>
+      </c>
+      <c r="E14">
+        <v>3.34</v>
+      </c>
+      <c r="F14">
+        <v>3.75</v>
+      </c>
+      <c r="G14">
+        <v>7.51</v>
+      </c>
+      <c r="H14">
+        <v>5.93</v>
+      </c>
+      <c r="I14">
+        <v>2.84</v>
+      </c>
+      <c r="J14" s="9">
+        <v>45047</v>
+      </c>
+      <c r="K14">
+        <v>2.74</v>
+      </c>
+      <c r="L14">
+        <v>2.33</v>
+      </c>
+      <c r="M14" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N14">
+        <v>2.56</v>
+      </c>
+      <c r="O14">
+        <v>1.54</v>
+      </c>
+      <c r="P14">
+        <v>1.64</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2.21</v>
+      </c>
+      <c r="U14" s="1">
+        <v>20</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>2.54</v>
+      </c>
+      <c r="D15">
+        <v>3.45</v>
+      </c>
+      <c r="E15">
+        <v>3.47</v>
+      </c>
+      <c r="F15">
+        <v>3.84</v>
+      </c>
+      <c r="G15">
+        <v>2.8</v>
+      </c>
+      <c r="H15">
+        <v>2.09</v>
+      </c>
+      <c r="I15">
+        <v>4.22</v>
+      </c>
+      <c r="J15" s="9">
+        <v>45047</v>
+      </c>
+      <c r="K15">
+        <v>4.22</v>
+      </c>
+      <c r="L15">
+        <v>1.85</v>
+      </c>
+      <c r="M15" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N15">
+        <v>1.66</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2.31</v>
+      </c>
+      <c r="Q15">
+        <v>1.63</v>
+      </c>
+      <c r="R15">
+        <v>1.48</v>
+      </c>
+      <c r="U15" s="1">
+        <v>21</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>1.99</v>
+      </c>
+      <c r="D16">
+        <v>1.97</v>
+      </c>
+      <c r="E16">
+        <v>3.09</v>
+      </c>
+      <c r="F16">
+        <v>3.03</v>
+      </c>
+      <c r="G16">
+        <v>4.34</v>
+      </c>
+      <c r="H16">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I16">
+        <v>2.69</v>
+      </c>
+      <c r="J16" s="9">
+        <v>45052</v>
+      </c>
+      <c r="K16">
+        <v>2.7</v>
+      </c>
+      <c r="L16">
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N16">
+        <v>2.52</v>
+      </c>
+      <c r="O16">
+        <v>1.55</v>
+      </c>
+      <c r="P16">
+        <v>1.54</v>
+      </c>
+      <c r="Q16">
+        <v>2.17</v>
+      </c>
+      <c r="R16">
+        <v>2.19</v>
+      </c>
+      <c r="U16" s="1">
+        <v>16</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>92</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>2.58</v>
+      </c>
+      <c r="D17">
+        <v>2.84</v>
+      </c>
+      <c r="E17">
+        <v>2.74</v>
+      </c>
+      <c r="F17">
+        <v>2.86</v>
+      </c>
+      <c r="G17">
+        <v>3.48</v>
+      </c>
+      <c r="H17">
+        <v>3.07</v>
+      </c>
+      <c r="I17">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J17" s="9">
+        <v>45053</v>
+      </c>
+      <c r="K17">
+        <v>2.56</v>
+      </c>
+      <c r="L17">
+        <v>2.7</v>
+      </c>
+      <c r="M17" s="9">
+        <v>45053</v>
+      </c>
+      <c r="N17">
+        <v>2.73</v>
+      </c>
+      <c r="O17">
+        <v>1.49</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
+      <c r="Q17">
+        <v>2.35</v>
+      </c>
+      <c r="R17">
+        <v>2.36</v>
+      </c>
+      <c r="U17" s="1">
+        <v>20</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>2.46</v>
+      </c>
+      <c r="D18">
+        <v>2.88</v>
+      </c>
+      <c r="E18">
+        <v>3.03</v>
+      </c>
+      <c r="F18">
+        <v>3.21</v>
+      </c>
+      <c r="G18">
+        <v>3.26</v>
+      </c>
+      <c r="H18">
+        <v>2.67</v>
+      </c>
+      <c r="I18">
+        <v>3.2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K18">
+        <v>3.21</v>
+      </c>
+      <c r="L18">
+        <v>2.13</v>
+      </c>
+      <c r="M18" s="9">
+        <v>45059</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>1.76</v>
+      </c>
+      <c r="P18">
+        <v>1.75</v>
+      </c>
+      <c r="Q18">
+        <v>1.83</v>
+      </c>
+      <c r="R18">
+        <v>1.88</v>
+      </c>
+      <c r="U18" s="1">
+        <v>20</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18" t="s">
+        <v>85</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19">
+        <v>1.97</v>
+      </c>
+      <c r="D19">
+        <v>2.17</v>
+      </c>
+      <c r="E19">
+        <v>3.71</v>
+      </c>
+      <c r="F19">
+        <v>3.51</v>
+      </c>
+      <c r="G19">
+        <v>3.9</v>
+      </c>
+      <c r="H19">
+        <v>3.54</v>
+      </c>
+      <c r="I19">
+        <v>4.18</v>
+      </c>
+      <c r="J19" s="9">
+        <v>45060</v>
+      </c>
+      <c r="K19">
+        <v>4.13</v>
+      </c>
+      <c r="L19">
+        <v>1.79</v>
+      </c>
+      <c r="M19" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N19">
+        <v>1.79</v>
+      </c>
+      <c r="O19">
+        <v>2.1</v>
+      </c>
+      <c r="P19">
+        <v>2.11</v>
+      </c>
+      <c r="Q19">
+        <v>1.58</v>
+      </c>
+      <c r="R19">
+        <v>1.58</v>
+      </c>
+      <c r="U19" s="1">
+        <v>23</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s">
+        <v>85</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20">
+        <v>1.58</v>
+      </c>
+      <c r="D20">
+        <v>1.47</v>
+      </c>
+      <c r="E20">
+        <v>4.16</v>
+      </c>
+      <c r="F20">
+        <v>4.47</v>
+      </c>
+      <c r="G20">
+        <v>5.85</v>
+      </c>
+      <c r="H20">
+        <v>7.74</v>
+      </c>
+      <c r="I20">
+        <v>3.37</v>
+      </c>
+      <c r="J20" s="9">
+        <v>45060</v>
+      </c>
+      <c r="K20">
+        <v>4.05</v>
+      </c>
+      <c r="L20">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M20" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N20">
+        <v>1.84</v>
+      </c>
+      <c r="O20">
+        <v>1.83</v>
+      </c>
+      <c r="P20">
+        <v>2.06</v>
+      </c>
+      <c r="Q20">
+        <v>1.78</v>
+      </c>
+      <c r="R20">
+        <v>1.61</v>
+      </c>
+      <c r="U20" s="1">
+        <v>21</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>149</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>3.02</v>
+      </c>
+      <c r="D21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E21">
+        <v>2.89</v>
+      </c>
+      <c r="F21">
+        <v>3.23</v>
+      </c>
+      <c r="G21">
+        <v>2.66</v>
+      </c>
+      <c r="H21">
+        <v>3.95</v>
+      </c>
+      <c r="I21">
+        <v>2.77</v>
+      </c>
+      <c r="J21" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K21">
+        <v>3.03</v>
+      </c>
+      <c r="L21">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M21" s="9">
+        <v>45059</v>
+      </c>
+      <c r="N21">
+        <v>2.23</v>
+      </c>
+      <c r="O21">
+        <v>1.56</v>
+      </c>
+      <c r="P21">
+        <v>1.67</v>
+      </c>
+      <c r="Q21">
+        <v>2.14</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="U21" s="1">
+        <v>26</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22">
+        <v>3.08</v>
+      </c>
+      <c r="D22">
+        <v>3.87</v>
+      </c>
+      <c r="E22">
+        <v>3.26</v>
+      </c>
+      <c r="F22">
+        <v>3.3</v>
+      </c>
+      <c r="G22">
+        <v>2.46</v>
+      </c>
+      <c r="H22">
+        <v>2.14</v>
+      </c>
+      <c r="I22">
+        <v>3.24</v>
+      </c>
+      <c r="J22" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K22">
+        <v>2.9</v>
+      </c>
+      <c r="L22">
+        <v>2.14</v>
+      </c>
+      <c r="M22" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N22">
+        <v>2.38</v>
+      </c>
+      <c r="O22">
+        <v>1.74</v>
+      </c>
+      <c r="P22">
+        <v>1.63</v>
+      </c>
+      <c r="Q22">
+        <v>1.87</v>
+      </c>
+      <c r="R22">
+        <v>2.08</v>
+      </c>
+      <c r="U22" s="1">
+        <v>25</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,11 +9101,11 @@
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H12" si="0">C2*D$33</f>
-        <v>223.125</v>
+        <v>133.875</v>
       </c>
       <c r="I2" s="32">
         <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
-        <v>95.625</v>
+        <v>57.375</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -6919,11 +9135,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>237.15</v>
+        <v>142.29000000000002</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" si="1"/>
-        <v>109.65</v>
+        <v>65.79000000000002</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -6953,11 +9169,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>214.2</v>
+        <v>128.51999999999998</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>86.699999999999989</v>
+        <v>52.019999999999982</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -6987,11 +9203,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>216.75</v>
+        <v>130.04999999999998</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>89.25</v>
+        <v>53.549999999999983</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -7021,11 +9237,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>220.57499999999999</v>
+        <v>132.345</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>93.074999999999989</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -7055,11 +9271,11 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>226.95000000000002</v>
+        <v>136.17000000000002</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-63.75</v>
+        <v>-38.25</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -7089,11 +9305,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>207.82499999999999</v>
+        <v>124.69499999999999</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>80.324999999999989</v>
+        <v>48.194999999999993</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -7123,7 +9339,7 @@
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>249.9</v>
+        <v>149.94</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -7156,11 +9372,11 @@
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>219.29999999999998</v>
+        <v>131.57999999999998</v>
       </c>
       <c r="I10" s="32">
         <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
-        <v>91.799999999999983</v>
+        <v>55.079999999999984</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>85</v>
@@ -7190,11 +9406,11 @@
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
-        <v>212.92499999999998</v>
+        <v>127.755</v>
       </c>
       <c r="I11" s="32">
         <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
-        <v>85.424999999999983</v>
+        <v>51.254999999999995</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>149</v>
@@ -7224,11 +9440,11 @@
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>252.45</v>
+        <v>151.47</v>
       </c>
       <c r="I12" s="32">
         <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
-        <v>124.94999999999999</v>
+        <v>74.97</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>87</v>
@@ -7504,15 +9720,15 @@
       </c>
       <c r="F28" s="28">
         <f>I3</f>
-        <v>109.65</v>
+        <v>65.79000000000002</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2659.65</v>
+        <v>2615.79</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>4.3000000000000007</v>
+        <v>2.5800000000000005</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -7524,22 +9740,22 @@
       <c r="C29" s="1"/>
       <c r="D29" s="30">
         <f>D35/1</f>
-        <v>27.349999999999998</v>
+        <v>16.409999999999997</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="28">
         <f>SUM(I4:I6)</f>
-        <v>269.02499999999998</v>
+        <v>161.41499999999996</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>10.549999999999999</v>
+        <v>6.3299999999999983</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7556,7 +9772,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -7581,7 +9797,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -7607,7 +9823,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -7622,8 +9838,8 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
-        <f>D32*5</f>
-        <v>127.5</v>
+        <f>D32*3</f>
+        <v>76.5</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -7633,7 +9849,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -7649,7 +9865,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="32">
         <f>SUM(I3:I17)</f>
-        <v>697.42499999999995</v>
+        <v>418.45499999999993</v>
       </c>
       <c r="E34" s="1">
         <v>12</v>
@@ -7659,7 +9875,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -7675,7 +9891,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <f>D34/D31*100</f>
-        <v>27.349999999999998</v>
+        <v>16.409999999999997</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -7686,7 +9902,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -7704,7 +9920,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -7725,7 +9941,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -7746,7 +9962,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -7767,7 +9983,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -7788,7 +10004,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2928.6750000000002</v>
+        <v>2777.2049999999999</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -7806,15 +10022,15 @@
       </c>
       <c r="F41" s="28">
         <f>SUM(I10:I11)</f>
-        <v>177.22499999999997</v>
+        <v>106.33499999999998</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>3105.9</v>
+        <v>2883.54</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>6.9499999999999993</v>
+        <v>4.169999999999999</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -7828,15 +10044,15 @@
       </c>
       <c r="F42" s="28">
         <f>I12</f>
-        <v>124.94999999999999</v>
+        <v>74.97</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>4.8999999999999995</v>
+        <v>2.94</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -7853,7 +10069,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -7874,7 +10090,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -7895,7 +10111,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -7916,7 +10132,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -7937,7 +10153,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -7958,7 +10174,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -7979,7 +10195,7 @@
       </c>
       <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -8000,7 +10216,7 @@
       </c>
       <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -8021,7 +10237,7 @@
       </c>
       <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -8042,7 +10258,7 @@
       </c>
       <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -8063,7 +10279,7 @@
       </c>
       <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>3230.85</v>
+        <v>2958.5099999999998</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
   <si>
     <t>DATA</t>
   </si>
@@ -470,18 +470,6 @@
   </si>
   <si>
     <t>4--3</t>
-  </si>
-  <si>
-    <t>K. FRONTALE vs KASHIWA REYSOL</t>
-  </si>
-  <si>
-    <t>JAPAN - J1 LEAGUE</t>
-  </si>
-  <si>
-    <t>VEGALTA SENDAI vs JEF UTD CHIBA</t>
-  </si>
-  <si>
-    <t>STAKE BET PRIMO 5%</t>
   </si>
   <si>
     <t>COLON SANTA FE vs CENTRAL CORDOBA</t>
@@ -1083,6 +1071,15 @@
   </si>
   <si>
     <t>0--2</t>
+  </si>
+  <si>
+    <t>MATSUMOTO Y. vs KAGOSHIMA UTD</t>
+  </si>
+  <si>
+    <t>JAPAN - J3 LEAGUE</t>
+  </si>
+  <si>
+    <t>STAKE BET PRIMO 4%</t>
   </si>
 </sst>
 </file>
@@ -1595,6 +1592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1729,82 +1727,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2615.79</c:v>
+                  <c:v>2637.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2777.2049999999999</c:v>
+                  <c:v>2852.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2883.54</c:v>
+                  <c:v>2994.72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2958.5099999999998</c:v>
+                  <c:v>3094.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,11 +1817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244869936"/>
-        <c:axId val="244870328"/>
+        <c:axId val="249731672"/>
+        <c:axId val="249732064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244869936"/>
+        <c:axId val="249731672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1874,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244870328"/>
+        <c:crossAx val="249732064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244870328"/>
+        <c:axId val="249732064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1933,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244869936"/>
+        <c:crossAx val="249731672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5831,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7243,7 +7241,7 @@
         <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1">
         <v>2.2599999999999998</v>
@@ -7297,74 +7295,93 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G26" s="13">
+        <v>3.18</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="I26" s="1">
+        <v>404</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="L26" s="13">
+        <v>404</v>
+      </c>
+      <c r="M26" s="13">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="N26" s="13">
+        <v>1.869</v>
+      </c>
       <c r="O26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="23"/>
+      <c r="P26" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.86</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>45074</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1">
-        <v>25</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
-      <c r="S29" s="27"/>
+      <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
-      <c r="S30" s="30"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
@@ -7376,26 +7393,27 @@
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="30"/>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="1"/>
-      <c r="S34" s="30"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="45"/>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="45"/>
     </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="45"/>
-    </row>
-    <row r="37" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S36" s="46"/>
+    </row>
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="46"/>
+      <c r="S37" s="47"/>
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
@@ -7415,20 +7433,19 @@
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="47"/>
+      <c r="S41" s="7"/>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
+      <c r="Q42" s="1"/>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="1"/>
       <c r="S43" s="32"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="1"/>
-      <c r="S44" s="32"/>
+      <c r="Q44" s="34"/>
+      <c r="S44" s="1"/>
     </row>
     <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="34"/>
@@ -7439,7 +7456,7 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="1"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="17:19" x14ac:dyDescent="0.25">
@@ -7485,10 +7502,6 @@
     <row r="58" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q59" s="1"/>
-      <c r="S59" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
@@ -7505,8 +7518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7526,52 +7539,52 @@
         <v>6</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="N1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="Q1" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>167</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>7</v>
@@ -7589,7 +7602,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -8130,7 +8143,7 @@
         <v>112</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -8402,7 +8415,7 @@
         <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -9029,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9100,12 +9113,12 @@
         <v>130</v>
       </c>
       <c r="H2" s="32">
-        <f t="shared" ref="H2:H12" si="0">C2*D$33</f>
-        <v>133.875</v>
+        <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
+        <v>178.5</v>
       </c>
       <c r="I2" s="32">
         <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
-        <v>57.375</v>
+        <v>76.5</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -9135,11 +9148,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>142.29000000000002</v>
+        <v>189.72</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" si="1"/>
-        <v>65.79000000000002</v>
+        <v>87.72</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -9169,11 +9182,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>128.51999999999998</v>
+        <v>171.35999999999999</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>52.019999999999982</v>
+        <v>69.359999999999985</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -9203,11 +9216,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>130.04999999999998</v>
+        <v>173.4</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>53.549999999999983</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -9237,11 +9250,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>132.345</v>
+        <v>176.46</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>55.844999999999999</v>
+        <v>74.460000000000008</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -9271,11 +9284,11 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>136.17000000000002</v>
+        <v>181.56</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-38.25</v>
+        <v>-51</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -9305,11 +9318,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>124.69499999999999</v>
+        <v>166.26</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>48.194999999999993</v>
+        <v>64.259999999999991</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -9339,7 +9352,7 @@
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>149.94</v>
+        <v>199.92</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -9372,11 +9385,11 @@
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>131.57999999999998</v>
+        <v>175.44</v>
       </c>
       <c r="I10" s="32">
         <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
-        <v>55.079999999999984</v>
+        <v>73.44</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>85</v>
@@ -9406,11 +9419,11 @@
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
-        <v>127.755</v>
+        <v>170.34</v>
       </c>
       <c r="I11" s="32">
         <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
-        <v>51.254999999999995</v>
+        <v>68.34</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>149</v>
@@ -9440,26 +9453,46 @@
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>151.47</v>
+        <v>201.96</v>
       </c>
       <c r="I12" s="32">
         <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
-        <v>74.97</v>
+        <v>99.960000000000008</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="A13" s="4">
+        <v>45074</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1.98</v>
+      </c>
+      <c r="D13" s="38">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="0"/>
+        <v>201.96</v>
+      </c>
+      <c r="I13" s="32">
+        <f>IF(G13="halfred",-(D$33/2),H13-D$33)</f>
+        <v>99.960000000000008</v>
+      </c>
       <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9549,8 +9582,8 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <f>COUNT(D2:D12)</f>
-        <v>11</v>
+        <f>COUNT(D2:D13)</f>
+        <v>12</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -9609,7 +9642,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="30">
         <f>D21-D23</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -9635,7 +9668,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <f>D24/D21*100</f>
-        <v>90.909090909090907</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -9661,7 +9694,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f>1/D27*100</f>
-        <v>56.52620760534429</v>
+        <v>55.970149253731336</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
@@ -9687,7 +9720,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1">
         <f>SUM(C2:C17)/D21</f>
-        <v>1.7690909090909093</v>
+        <v>1.7866666666666668</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -9713,22 +9746,22 @@
       <c r="C28" s="1"/>
       <c r="D28" s="30">
         <f>D25-D26</f>
-        <v>34.382883303746617</v>
+        <v>35.696517412935322</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
       </c>
       <c r="F28" s="28">
         <f>I3</f>
-        <v>65.79000000000002</v>
+        <v>87.72</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2615.79</v>
+        <v>2637.72</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>2.5800000000000005</v>
+        <v>3.44</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -9740,22 +9773,22 @@
       <c r="C29" s="1"/>
       <c r="D29" s="30">
         <f>D35/1</f>
-        <v>16.409999999999997</v>
+        <v>25.800000000000008</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="28">
         <f>SUM(I4:I6)</f>
-        <v>161.41499999999996</v>
+        <v>215.22</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>6.3299999999999983</v>
+        <v>8.44</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -9772,7 +9805,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -9797,7 +9830,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -9823,7 +9856,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -9834,12 +9867,12 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
-        <f>D32*3</f>
-        <v>76.5</v>
+        <f>D32*4</f>
+        <v>102</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -9849,7 +9882,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -9865,7 +9898,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="32">
         <f>SUM(I3:I17)</f>
-        <v>418.45499999999993</v>
+        <v>657.90000000000009</v>
       </c>
       <c r="E34" s="1">
         <v>12</v>
@@ -9875,7 +9908,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -9891,7 +9924,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <f>D34/D31*100</f>
-        <v>16.409999999999997</v>
+        <v>25.800000000000008</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -9902,7 +9935,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -9920,7 +9953,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -9941,7 +9974,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -9962,7 +9995,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -9983,7 +10016,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -10004,7 +10037,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2777.2049999999999</v>
+        <v>2852.9399999999996</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -10022,15 +10055,15 @@
       </c>
       <c r="F41" s="28">
         <f>SUM(I10:I11)</f>
-        <v>106.33499999999998</v>
+        <v>141.78</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>2883.54</v>
+        <v>2994.72</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>4.169999999999999</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -10044,15 +10077,15 @@
       </c>
       <c r="F42" s="28">
         <f>I12</f>
-        <v>74.97</v>
+        <v>99.960000000000008</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>2.94</v>
+        <v>3.9200000000000004</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -10069,7 +10102,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -10090,7 +10123,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -10111,7 +10144,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -10132,7 +10165,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -10153,7 +10186,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -10174,7 +10207,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -10195,7 +10228,7 @@
       </c>
       <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -10216,7 +10249,7 @@
       </c>
       <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -10237,7 +10270,7 @@
       </c>
       <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -10258,7 +10291,7 @@
       </c>
       <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -10279,7 +10312,7 @@
       </c>
       <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>2958.5099999999998</v>
+        <v>3094.68</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="175">
   <si>
     <t>DATA</t>
   </si>
@@ -1079,7 +1079,10 @@
     <t>JAPAN - J3 LEAGUE</t>
   </si>
   <si>
-    <t>STAKE BET PRIMO 4%</t>
+    <t>HURACAN vs UNION SANTA FE</t>
+  </si>
+  <si>
+    <t>STAKE BET PRIMO 4,3%</t>
   </si>
 </sst>
 </file>
@@ -1727,82 +1730,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2637.72</c:v>
+                  <c:v>2644.299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2852.9399999999996</c:v>
+                  <c:v>2875.6605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2994.72</c:v>
+                  <c:v>3028.0740000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3094.68</c:v>
+                  <c:v>3135.5309999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,11 +1820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249731672"/>
-        <c:axId val="249732064"/>
+        <c:axId val="210439912"/>
+        <c:axId val="210439520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249731672"/>
+        <c:axId val="210439912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,12 +1877,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249732064"/>
+        <c:crossAx val="210439520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249732064"/>
+        <c:axId val="210439520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1936,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249731672"/>
+        <c:crossAx val="210439912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5831,8 +5834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7360,6 +7363,42 @@
       <c r="B27" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="C27" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2.08</v>
+      </c>
+      <c r="G27" s="13">
+        <v>3.27</v>
+      </c>
+      <c r="H27" s="13">
+        <v>3.93</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="L27" s="13">
+        <v>2.94</v>
+      </c>
+      <c r="M27" s="13">
+        <v>2.27</v>
+      </c>
+      <c r="N27" s="13">
+        <v>1.645</v>
+      </c>
       <c r="O27" s="14" t="s">
         <v>22</v>
       </c>
@@ -7372,8 +7411,58 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45075</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="G28" s="13">
+        <v>3.31</v>
+      </c>
+      <c r="H28" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="L28" s="13">
+        <v>2.69</v>
+      </c>
+      <c r="M28" s="13">
+        <v>2.56</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="Q28" s="1"/>
-      <c r="S28" s="27"/>
+      <c r="R28" s="1">
+        <v>17</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
@@ -7518,8 +7607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9042,14 +9131,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -9114,11 +9203,11 @@
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
-        <v>178.5</v>
+        <v>191.88749999999999</v>
       </c>
       <c r="I2" s="32">
         <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
-        <v>76.5</v>
+        <v>82.237499999999997</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -9148,11 +9237,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>189.72</v>
+        <v>203.94899999999998</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" si="1"/>
-        <v>87.72</v>
+        <v>94.298999999999992</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -9182,11 +9271,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>171.35999999999999</v>
+        <v>184.21199999999999</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>69.359999999999985</v>
+        <v>74.561999999999998</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -9216,11 +9305,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>173.4</v>
+        <v>186.40499999999997</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>71.400000000000006</v>
+        <v>76.754999999999981</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -9250,11 +9339,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>176.46</v>
+        <v>189.69449999999998</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>74.460000000000008</v>
+        <v>80.044499999999985</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -9284,11 +9373,11 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>181.56</v>
+        <v>195.17699999999999</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-51</v>
+        <v>-54.824999999999996</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -9318,11 +9407,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>166.26</v>
+        <v>178.72949999999997</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>64.259999999999991</v>
+        <v>69.079499999999982</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -9352,7 +9441,7 @@
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>199.92</v>
+        <v>214.91399999999999</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -9385,11 +9474,11 @@
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>175.44</v>
+        <v>188.59799999999998</v>
       </c>
       <c r="I10" s="32">
         <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
-        <v>73.44</v>
+        <v>78.947999999999993</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>85</v>
@@ -9419,11 +9508,11 @@
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
-        <v>170.34</v>
+        <v>183.11549999999997</v>
       </c>
       <c r="I11" s="32">
         <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
-        <v>68.34</v>
+        <v>73.465499999999977</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>149</v>
@@ -9453,11 +9542,11 @@
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>201.96</v>
+        <v>217.10699999999997</v>
       </c>
       <c r="I12" s="32">
         <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
-        <v>99.960000000000008</v>
+        <v>107.45699999999998</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>87</v>
@@ -9471,7 +9560,7 @@
         <v>171</v>
       </c>
       <c r="C13" s="42">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="D13" s="38">
         <v>24</v>
@@ -9479,21 +9568,23 @@
       <c r="E13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
-        <v>201.96</v>
+        <v>203.94899999999998</v>
       </c>
       <c r="I13" s="32">
         <f>IF(G13="halfred",-(D$33/2),H13-D$33)</f>
-        <v>99.960000000000008</v>
-      </c>
-      <c r="J13" s="49"/>
+        <v>94.298999999999992</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -9694,7 +9785,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f>1/D27*100</f>
-        <v>55.970149253731336</v>
+        <v>56.285178236397748</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
@@ -9720,7 +9811,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1">
         <f>SUM(C2:C17)/D21</f>
-        <v>1.7866666666666668</v>
+        <v>1.7766666666666666</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -9746,22 +9837,22 @@
       <c r="C28" s="1"/>
       <c r="D28" s="30">
         <f>D25-D26</f>
-        <v>35.696517412935322</v>
+        <v>35.381488430268909</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
       </c>
       <c r="F28" s="28">
         <f>I3</f>
-        <v>87.72</v>
+        <v>94.298999999999992</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2637.72</v>
+        <v>2644.299</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>3.44</v>
+        <v>3.698</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -9773,22 +9864,22 @@
       <c r="C29" s="1"/>
       <c r="D29" s="30">
         <f>D35/1</f>
-        <v>25.800000000000008</v>
+        <v>27.218999999999994</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="28">
         <f>SUM(I4:I6)</f>
-        <v>215.22</v>
+        <v>231.36149999999998</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>8.44</v>
+        <v>9.0729999999999986</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -9805,7 +9896,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -9830,7 +9921,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -9856,7 +9947,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -9867,12 +9958,12 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
-        <f>D32*4</f>
-        <v>102</v>
+        <f>D32*4.3</f>
+        <v>109.64999999999999</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -9882,7 +9973,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -9898,7 +9989,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="32">
         <f>SUM(I3:I17)</f>
-        <v>657.90000000000009</v>
+        <v>694.08449999999982</v>
       </c>
       <c r="E34" s="1">
         <v>12</v>
@@ -9908,7 +9999,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -9924,7 +10015,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <f>D34/D31*100</f>
-        <v>25.800000000000008</v>
+        <v>27.218999999999994</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -9935,7 +10026,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -9953,7 +10044,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -9974,7 +10065,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -9995,7 +10086,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -10016,7 +10107,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -10037,7 +10128,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2852.9399999999996</v>
+        <v>2875.6605</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -10055,15 +10146,15 @@
       </c>
       <c r="F41" s="28">
         <f>SUM(I10:I11)</f>
-        <v>141.78</v>
+        <v>152.41349999999997</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>2994.72</v>
+        <v>3028.0740000000001</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>5.5600000000000005</v>
+        <v>5.9769999999999985</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -10077,15 +10168,15 @@
       </c>
       <c r="F42" s="28">
         <f>I12</f>
-        <v>99.960000000000008</v>
+        <v>107.45699999999998</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>3.9200000000000004</v>
+        <v>4.2139999999999986</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -10102,7 +10193,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -10123,7 +10214,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -10144,7 +10235,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -10165,7 +10256,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -10186,7 +10277,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -10207,7 +10298,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -10228,7 +10319,7 @@
       </c>
       <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -10249,7 +10340,7 @@
       </c>
       <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -10270,7 +10361,7 @@
       </c>
       <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -10291,7 +10382,7 @@
       </c>
       <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -10312,7 +10403,7 @@
       </c>
       <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>3094.68</v>
+        <v>3135.5309999999999</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="janeiro" sheetId="5" r:id="rId1"/>
-    <sheet name="fevereiro" sheetId="3" r:id="rId2"/>
-    <sheet name="marco" sheetId="6" r:id="rId3"/>
-    <sheet name="abril" sheetId="7" r:id="rId4"/>
-    <sheet name="maio" sheetId="8" r:id="rId5"/>
-    <sheet name="maioGENESIS" sheetId="10" r:id="rId6"/>
+    <sheet name="maioGENESIS" sheetId="10" r:id="rId1"/>
+    <sheet name="janeiro" sheetId="5" r:id="rId2"/>
+    <sheet name="fevereiro" sheetId="3" r:id="rId3"/>
+    <sheet name="marco" sheetId="6" r:id="rId4"/>
+    <sheet name="abril" sheetId="7" r:id="rId5"/>
+    <sheet name="maio" sheetId="8" r:id="rId6"/>
     <sheet name="maioInvest" sheetId="9" r:id="rId7"/>
+    <sheet name="junho" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="180">
   <si>
     <t>DATA</t>
   </si>
@@ -1083,6 +1084,21 @@
   </si>
   <si>
     <t>STAKE BET PRIMO 4,3%</t>
+  </si>
+  <si>
+    <t>CHUNGNAM ASAN vs SEONGNAM</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA - K LEAGUE 2</t>
+  </si>
+  <si>
+    <t>not invest</t>
+  </si>
+  <si>
+    <t>GIMCHEON SANGMU vs ANSAN GREENERS</t>
+  </si>
+  <si>
+    <t>over 2,5</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1460,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1595,7 +1621,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1730,82 +1755,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2644.299</c:v>
+                  <c:v>2611.404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2875.6605</c:v>
+                  <c:v>2762.058</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3028.0740000000001</c:v>
+                  <c:v>2861.3040000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3135.5309999999999</c:v>
+                  <c:v>2931.2760000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,11 +1845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210439912"/>
-        <c:axId val="210439520"/>
+        <c:axId val="214064400"/>
+        <c:axId val="214064792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210439912"/>
+        <c:axId val="214064400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,12 +1902,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210439520"/>
+        <c:crossAx val="214064792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210439520"/>
+        <c:axId val="214064792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1961,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210439912"/>
+        <c:crossAx val="214064400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2860,6 +2885,1530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1.96</v>
+      </c>
+      <c r="D2">
+        <v>2.36</v>
+      </c>
+      <c r="E2">
+        <v>3.37</v>
+      </c>
+      <c r="F2">
+        <v>3.1</v>
+      </c>
+      <c r="G2">
+        <v>4.26</v>
+      </c>
+      <c r="H2">
+        <v>3.54</v>
+      </c>
+      <c r="I2">
+        <v>2.81</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44675</v>
+      </c>
+      <c r="K2">
+        <v>2.71</v>
+      </c>
+      <c r="L2">
+        <v>2.41</v>
+      </c>
+      <c r="M2" s="9">
+        <v>45040</v>
+      </c>
+      <c r="N2">
+        <v>2.61</v>
+      </c>
+      <c r="O2">
+        <v>1.59</v>
+      </c>
+      <c r="P2">
+        <v>1.54</v>
+      </c>
+      <c r="Q2">
+        <v>2.1</v>
+      </c>
+      <c r="R2">
+        <v>2.25</v>
+      </c>
+      <c r="U2" s="1">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2.34</v>
+      </c>
+      <c r="D3">
+        <v>2.71</v>
+      </c>
+      <c r="E3">
+        <v>3.07</v>
+      </c>
+      <c r="F3">
+        <v>3.18</v>
+      </c>
+      <c r="G3">
+        <v>3.26</v>
+      </c>
+      <c r="H3">
+        <v>2.87</v>
+      </c>
+      <c r="I3">
+        <v>2.8</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44676</v>
+      </c>
+      <c r="K3">
+        <v>3.09</v>
+      </c>
+      <c r="L3">
+        <v>2.27</v>
+      </c>
+      <c r="M3" s="9">
+        <v>45041</v>
+      </c>
+      <c r="N3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O3">
+        <v>1.61</v>
+      </c>
+      <c r="P3">
+        <v>1.7</v>
+      </c>
+      <c r="Q3">
+        <v>1.99</v>
+      </c>
+      <c r="R3">
+        <v>1.94</v>
+      </c>
+      <c r="U3" s="1">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4">
+        <v>2.57</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4">
+        <v>3.04</v>
+      </c>
+      <c r="G4">
+        <v>2.73</v>
+      </c>
+      <c r="H4">
+        <v>2.84</v>
+      </c>
+      <c r="I4">
+        <v>404</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44676</v>
+      </c>
+      <c r="K4">
+        <v>404</v>
+      </c>
+      <c r="L4">
+        <v>2.04</v>
+      </c>
+      <c r="M4" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N4">
+        <v>2.12</v>
+      </c>
+      <c r="O4">
+        <v>1.7</v>
+      </c>
+      <c r="P4">
+        <v>1.71</v>
+      </c>
+      <c r="Q4">
+        <v>1.8</v>
+      </c>
+      <c r="R4">
+        <v>1.86</v>
+      </c>
+      <c r="U4" s="1">
+        <v>26</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>2.25</v>
+      </c>
+      <c r="D5">
+        <v>2.38</v>
+      </c>
+      <c r="E5">
+        <v>3.04</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="H5">
+        <v>3.57</v>
+      </c>
+      <c r="I5">
+        <v>2.71</v>
+      </c>
+      <c r="J5" s="9">
+        <v>44681</v>
+      </c>
+      <c r="K5">
+        <v>2.52</v>
+      </c>
+      <c r="L5">
+        <v>2.56</v>
+      </c>
+      <c r="M5" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N5">
+        <v>2.73</v>
+      </c>
+      <c r="O5">
+        <v>1.54</v>
+      </c>
+      <c r="P5">
+        <v>1.49</v>
+      </c>
+      <c r="Q5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R5">
+        <v>2.37</v>
+      </c>
+      <c r="U5" s="1">
+        <v>22</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E6">
+        <v>3.16</v>
+      </c>
+      <c r="F6">
+        <v>3.19</v>
+      </c>
+      <c r="G6">
+        <v>3.06</v>
+      </c>
+      <c r="H6">
+        <v>3.73</v>
+      </c>
+      <c r="I6">
+        <v>2.97</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44682</v>
+      </c>
+      <c r="K6">
+        <v>2.98</v>
+      </c>
+      <c r="L6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M6" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N6">
+        <v>2.31</v>
+      </c>
+      <c r="O6">
+        <v>1.65</v>
+      </c>
+      <c r="P6">
+        <v>1.67</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2.02</v>
+      </c>
+      <c r="U6" s="1">
+        <v>17</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.48</v>
+      </c>
+      <c r="E7">
+        <v>3.27</v>
+      </c>
+      <c r="F7">
+        <v>3.32</v>
+      </c>
+      <c r="G7">
+        <v>3.51</v>
+      </c>
+      <c r="H7">
+        <v>3.15</v>
+      </c>
+      <c r="I7">
+        <v>3.11</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K7">
+        <v>3.23</v>
+      </c>
+      <c r="L7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N7">
+        <v>2.21</v>
+      </c>
+      <c r="O7">
+        <v>1.73</v>
+      </c>
+      <c r="P7">
+        <v>1.74</v>
+      </c>
+      <c r="Q7">
+        <v>1.93</v>
+      </c>
+      <c r="R7">
+        <v>1.93</v>
+      </c>
+      <c r="U7" s="1">
+        <v>24</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <v>2.39</v>
+      </c>
+      <c r="D8">
+        <v>2.31</v>
+      </c>
+      <c r="E8">
+        <v>2.95</v>
+      </c>
+      <c r="F8">
+        <v>2.96</v>
+      </c>
+      <c r="G8">
+        <v>2.57</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>404</v>
+      </c>
+      <c r="J8" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K8">
+        <v>404</v>
+      </c>
+      <c r="L8">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N8">
+        <v>2.02</v>
+      </c>
+      <c r="O8">
+        <v>1.69</v>
+      </c>
+      <c r="P8">
+        <v>1.71</v>
+      </c>
+      <c r="Q8">
+        <v>1.74</v>
+      </c>
+      <c r="R8">
+        <v>1.79</v>
+      </c>
+      <c r="U8" s="1">
+        <v>26</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>3.14</v>
+      </c>
+      <c r="D9">
+        <v>3.33</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2.94</v>
+      </c>
+      <c r="G9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H9">
+        <v>2.15</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K9">
+        <v>404</v>
+      </c>
+      <c r="L9">
+        <v>2.08</v>
+      </c>
+      <c r="M9" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O9">
+        <v>1.6</v>
+      </c>
+      <c r="P9">
+        <v>1.61</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.93</v>
+      </c>
+      <c r="U9" s="1">
+        <v>21</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" t="s">
+        <v>169</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>2.34</v>
+      </c>
+      <c r="D10">
+        <v>2.64</v>
+      </c>
+      <c r="E10">
+        <v>3.52</v>
+      </c>
+      <c r="F10">
+        <v>3.18</v>
+      </c>
+      <c r="G10">
+        <v>3.11</v>
+      </c>
+      <c r="H10">
+        <v>3.05</v>
+      </c>
+      <c r="I10">
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K10">
+        <v>3.01</v>
+      </c>
+      <c r="L10">
+        <v>1.88</v>
+      </c>
+      <c r="M10" s="9">
+        <v>45076</v>
+      </c>
+      <c r="N10">
+        <v>2.34</v>
+      </c>
+      <c r="O10">
+        <v>1.66</v>
+      </c>
+      <c r="P10">
+        <v>1.99</v>
+      </c>
+      <c r="Q10">
+        <v>1.65</v>
+      </c>
+      <c r="R10">
+        <v>2.04</v>
+      </c>
+      <c r="U10" s="1">
+        <v>25</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11">
+        <v>1.56</v>
+      </c>
+      <c r="D11">
+        <v>1.55</v>
+      </c>
+      <c r="E11">
+        <v>4.05</v>
+      </c>
+      <c r="F11">
+        <v>4.05</v>
+      </c>
+      <c r="G11">
+        <v>6.76</v>
+      </c>
+      <c r="H11">
+        <v>7.21</v>
+      </c>
+      <c r="I11">
+        <v>3.22</v>
+      </c>
+      <c r="J11" s="9">
+        <v>45049</v>
+      </c>
+      <c r="K11">
+        <v>3.1</v>
+      </c>
+      <c r="L11">
+        <v>2.14</v>
+      </c>
+      <c r="M11" s="9">
+        <v>45049</v>
+      </c>
+      <c r="N11">
+        <v>2.21</v>
+      </c>
+      <c r="O11">
+        <v>1.72</v>
+      </c>
+      <c r="P11">
+        <v>1.76</v>
+      </c>
+      <c r="Q11">
+        <v>1.87</v>
+      </c>
+      <c r="R11">
+        <v>1.94</v>
+      </c>
+      <c r="U11" s="1">
+        <v>26</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>2.08</v>
+      </c>
+      <c r="D12">
+        <v>1.93</v>
+      </c>
+      <c r="E12">
+        <v>3.28</v>
+      </c>
+      <c r="F12">
+        <v>3.45</v>
+      </c>
+      <c r="G12">
+        <v>3.72</v>
+      </c>
+      <c r="H12">
+        <v>4.18</v>
+      </c>
+      <c r="I12">
+        <v>3.24</v>
+      </c>
+      <c r="J12" s="9">
+        <v>45049</v>
+      </c>
+      <c r="K12">
+        <v>3.27</v>
+      </c>
+      <c r="L12">
+        <v>2.1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>45049</v>
+      </c>
+      <c r="N12">
+        <v>2.08</v>
+      </c>
+      <c r="O12">
+        <v>1.75</v>
+      </c>
+      <c r="P12">
+        <v>1.77</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>1.82</v>
+      </c>
+      <c r="U12" s="1">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>3.16</v>
+      </c>
+      <c r="D13">
+        <v>4.55</v>
+      </c>
+      <c r="E13">
+        <v>3.29</v>
+      </c>
+      <c r="F13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H13">
+        <v>1.68</v>
+      </c>
+      <c r="I13">
+        <v>3.51</v>
+      </c>
+      <c r="J13" s="9">
+        <v>45046</v>
+      </c>
+      <c r="K13">
+        <v>4.2</v>
+      </c>
+      <c r="L13">
+        <v>1.89</v>
+      </c>
+      <c r="M13" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N13">
+        <v>1.71</v>
+      </c>
+      <c r="O13">
+        <v>1.86</v>
+      </c>
+      <c r="P13">
+        <v>2.16</v>
+      </c>
+      <c r="Q13">
+        <v>1.65</v>
+      </c>
+      <c r="R13">
+        <v>1.52</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
+        <v>170</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14">
+        <v>1.54</v>
+      </c>
+      <c r="D14">
+        <v>1.76</v>
+      </c>
+      <c r="E14">
+        <v>3.34</v>
+      </c>
+      <c r="F14">
+        <v>3.75</v>
+      </c>
+      <c r="G14">
+        <v>7.51</v>
+      </c>
+      <c r="H14">
+        <v>5.93</v>
+      </c>
+      <c r="I14">
+        <v>2.84</v>
+      </c>
+      <c r="J14" s="9">
+        <v>45047</v>
+      </c>
+      <c r="K14">
+        <v>2.74</v>
+      </c>
+      <c r="L14">
+        <v>2.33</v>
+      </c>
+      <c r="M14" s="9">
+        <v>45047</v>
+      </c>
+      <c r="N14">
+        <v>2.56</v>
+      </c>
+      <c r="O14">
+        <v>1.54</v>
+      </c>
+      <c r="P14">
+        <v>1.64</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2.21</v>
+      </c>
+      <c r="U14" s="1">
+        <v>20</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>2.54</v>
+      </c>
+      <c r="D15">
+        <v>3.45</v>
+      </c>
+      <c r="E15">
+        <v>3.47</v>
+      </c>
+      <c r="F15">
+        <v>3.84</v>
+      </c>
+      <c r="G15">
+        <v>2.8</v>
+      </c>
+      <c r="H15">
+        <v>2.09</v>
+      </c>
+      <c r="I15">
+        <v>4.22</v>
+      </c>
+      <c r="J15" s="9">
+        <v>45047</v>
+      </c>
+      <c r="K15">
+        <v>4.22</v>
+      </c>
+      <c r="L15">
+        <v>1.85</v>
+      </c>
+      <c r="M15" s="9">
+        <v>45046</v>
+      </c>
+      <c r="N15">
+        <v>1.66</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2.31</v>
+      </c>
+      <c r="Q15">
+        <v>1.63</v>
+      </c>
+      <c r="R15">
+        <v>1.48</v>
+      </c>
+      <c r="U15" s="1">
+        <v>21</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>1.99</v>
+      </c>
+      <c r="D16">
+        <v>1.97</v>
+      </c>
+      <c r="E16">
+        <v>3.09</v>
+      </c>
+      <c r="F16">
+        <v>3.03</v>
+      </c>
+      <c r="G16">
+        <v>4.34</v>
+      </c>
+      <c r="H16">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I16">
+        <v>2.69</v>
+      </c>
+      <c r="J16" s="9">
+        <v>45052</v>
+      </c>
+      <c r="K16">
+        <v>2.7</v>
+      </c>
+      <c r="L16">
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="9">
+        <v>45052</v>
+      </c>
+      <c r="N16">
+        <v>2.52</v>
+      </c>
+      <c r="O16">
+        <v>1.55</v>
+      </c>
+      <c r="P16">
+        <v>1.54</v>
+      </c>
+      <c r="Q16">
+        <v>2.17</v>
+      </c>
+      <c r="R16">
+        <v>2.19</v>
+      </c>
+      <c r="U16" s="1">
+        <v>16</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>92</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>2.58</v>
+      </c>
+      <c r="D17">
+        <v>2.84</v>
+      </c>
+      <c r="E17">
+        <v>2.74</v>
+      </c>
+      <c r="F17">
+        <v>2.86</v>
+      </c>
+      <c r="G17">
+        <v>3.48</v>
+      </c>
+      <c r="H17">
+        <v>3.07</v>
+      </c>
+      <c r="I17">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J17" s="9">
+        <v>45053</v>
+      </c>
+      <c r="K17">
+        <v>2.56</v>
+      </c>
+      <c r="L17">
+        <v>2.7</v>
+      </c>
+      <c r="M17" s="9">
+        <v>45053</v>
+      </c>
+      <c r="N17">
+        <v>2.73</v>
+      </c>
+      <c r="O17">
+        <v>1.49</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
+      <c r="Q17">
+        <v>2.35</v>
+      </c>
+      <c r="R17">
+        <v>2.36</v>
+      </c>
+      <c r="U17" s="1">
+        <v>20</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>2.46</v>
+      </c>
+      <c r="D18">
+        <v>2.88</v>
+      </c>
+      <c r="E18">
+        <v>3.03</v>
+      </c>
+      <c r="F18">
+        <v>3.21</v>
+      </c>
+      <c r="G18">
+        <v>3.26</v>
+      </c>
+      <c r="H18">
+        <v>2.67</v>
+      </c>
+      <c r="I18">
+        <v>3.2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K18">
+        <v>3.21</v>
+      </c>
+      <c r="L18">
+        <v>2.13</v>
+      </c>
+      <c r="M18" s="9">
+        <v>45059</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>1.76</v>
+      </c>
+      <c r="P18">
+        <v>1.75</v>
+      </c>
+      <c r="Q18">
+        <v>1.83</v>
+      </c>
+      <c r="R18">
+        <v>1.88</v>
+      </c>
+      <c r="U18" s="1">
+        <v>20</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18" t="s">
+        <v>85</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19">
+        <v>1.97</v>
+      </c>
+      <c r="D19">
+        <v>2.17</v>
+      </c>
+      <c r="E19">
+        <v>3.71</v>
+      </c>
+      <c r="F19">
+        <v>3.51</v>
+      </c>
+      <c r="G19">
+        <v>3.9</v>
+      </c>
+      <c r="H19">
+        <v>3.54</v>
+      </c>
+      <c r="I19">
+        <v>4.18</v>
+      </c>
+      <c r="J19" s="9">
+        <v>45060</v>
+      </c>
+      <c r="K19">
+        <v>4.13</v>
+      </c>
+      <c r="L19">
+        <v>1.79</v>
+      </c>
+      <c r="M19" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N19">
+        <v>1.79</v>
+      </c>
+      <c r="O19">
+        <v>2.1</v>
+      </c>
+      <c r="P19">
+        <v>2.11</v>
+      </c>
+      <c r="Q19">
+        <v>1.58</v>
+      </c>
+      <c r="R19">
+        <v>1.58</v>
+      </c>
+      <c r="U19" s="1">
+        <v>23</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s">
+        <v>85</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20">
+        <v>1.58</v>
+      </c>
+      <c r="D20">
+        <v>1.47</v>
+      </c>
+      <c r="E20">
+        <v>4.16</v>
+      </c>
+      <c r="F20">
+        <v>4.47</v>
+      </c>
+      <c r="G20">
+        <v>5.85</v>
+      </c>
+      <c r="H20">
+        <v>7.74</v>
+      </c>
+      <c r="I20">
+        <v>3.37</v>
+      </c>
+      <c r="J20" s="9">
+        <v>45060</v>
+      </c>
+      <c r="K20">
+        <v>4.05</v>
+      </c>
+      <c r="L20">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M20" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N20">
+        <v>1.84</v>
+      </c>
+      <c r="O20">
+        <v>1.83</v>
+      </c>
+      <c r="P20">
+        <v>2.06</v>
+      </c>
+      <c r="Q20">
+        <v>1.78</v>
+      </c>
+      <c r="R20">
+        <v>1.61</v>
+      </c>
+      <c r="U20" s="1">
+        <v>21</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>149</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>3.02</v>
+      </c>
+      <c r="D21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E21">
+        <v>2.89</v>
+      </c>
+      <c r="F21">
+        <v>3.23</v>
+      </c>
+      <c r="G21">
+        <v>2.66</v>
+      </c>
+      <c r="H21">
+        <v>3.95</v>
+      </c>
+      <c r="I21">
+        <v>2.77</v>
+      </c>
+      <c r="J21" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K21">
+        <v>3.03</v>
+      </c>
+      <c r="L21">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M21" s="9">
+        <v>45059</v>
+      </c>
+      <c r="N21">
+        <v>2.23</v>
+      </c>
+      <c r="O21">
+        <v>1.56</v>
+      </c>
+      <c r="P21">
+        <v>1.67</v>
+      </c>
+      <c r="Q21">
+        <v>2.14</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="U21" s="1">
+        <v>26</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22">
+        <v>3.08</v>
+      </c>
+      <c r="D22">
+        <v>3.87</v>
+      </c>
+      <c r="E22">
+        <v>3.26</v>
+      </c>
+      <c r="F22">
+        <v>3.3</v>
+      </c>
+      <c r="G22">
+        <v>2.46</v>
+      </c>
+      <c r="H22">
+        <v>2.14</v>
+      </c>
+      <c r="I22">
+        <v>3.24</v>
+      </c>
+      <c r="J22" s="9">
+        <v>45059</v>
+      </c>
+      <c r="K22">
+        <v>2.9</v>
+      </c>
+      <c r="L22">
+        <v>2.14</v>
+      </c>
+      <c r="M22" s="9">
+        <v>45060</v>
+      </c>
+      <c r="N22">
+        <v>2.38</v>
+      </c>
+      <c r="O22">
+        <v>1.74</v>
+      </c>
+      <c r="P22">
+        <v>1.63</v>
+      </c>
+      <c r="Q22">
+        <v>1.87</v>
+      </c>
+      <c r="R22">
+        <v>2.08</v>
+      </c>
+      <c r="U22" s="1">
+        <v>25</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -3930,7 +5479,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3939,7 +5488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
@@ -4816,7 +6365,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,7 +6373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -5361,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5830,12 +7379,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,7 +9143,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7603,1536 +9152,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1.96</v>
-      </c>
-      <c r="D2">
-        <v>2.36</v>
-      </c>
-      <c r="E2">
-        <v>3.37</v>
-      </c>
-      <c r="F2">
-        <v>3.1</v>
-      </c>
-      <c r="G2">
-        <v>4.26</v>
-      </c>
-      <c r="H2">
-        <v>3.54</v>
-      </c>
-      <c r="I2">
-        <v>2.81</v>
-      </c>
-      <c r="J2" s="9">
-        <v>44675</v>
-      </c>
-      <c r="K2">
-        <v>2.71</v>
-      </c>
-      <c r="L2">
-        <v>2.41</v>
-      </c>
-      <c r="M2" s="9">
-        <v>45040</v>
-      </c>
-      <c r="N2">
-        <v>2.61</v>
-      </c>
-      <c r="O2">
-        <v>1.59</v>
-      </c>
-      <c r="P2">
-        <v>1.54</v>
-      </c>
-      <c r="Q2">
-        <v>2.1</v>
-      </c>
-      <c r="R2">
-        <v>2.25</v>
-      </c>
-      <c r="U2" s="1">
-        <v>23</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>2.34</v>
-      </c>
-      <c r="D3">
-        <v>2.71</v>
-      </c>
-      <c r="E3">
-        <v>3.07</v>
-      </c>
-      <c r="F3">
-        <v>3.18</v>
-      </c>
-      <c r="G3">
-        <v>3.26</v>
-      </c>
-      <c r="H3">
-        <v>2.87</v>
-      </c>
-      <c r="I3">
-        <v>2.8</v>
-      </c>
-      <c r="J3" s="9">
-        <v>44676</v>
-      </c>
-      <c r="K3">
-        <v>3.09</v>
-      </c>
-      <c r="L3">
-        <v>2.27</v>
-      </c>
-      <c r="M3" s="9">
-        <v>45041</v>
-      </c>
-      <c r="N3">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="O3">
-        <v>1.61</v>
-      </c>
-      <c r="P3">
-        <v>1.7</v>
-      </c>
-      <c r="Q3">
-        <v>1.99</v>
-      </c>
-      <c r="R3">
-        <v>1.94</v>
-      </c>
-      <c r="U3" s="1">
-        <v>17</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>2.4</v>
-      </c>
-      <c r="D4">
-        <v>2.57</v>
-      </c>
-      <c r="E4">
-        <v>3.1</v>
-      </c>
-      <c r="F4">
-        <v>3.04</v>
-      </c>
-      <c r="G4">
-        <v>2.73</v>
-      </c>
-      <c r="H4">
-        <v>2.84</v>
-      </c>
-      <c r="I4">
-        <v>404</v>
-      </c>
-      <c r="J4" s="9">
-        <v>44676</v>
-      </c>
-      <c r="K4">
-        <v>404</v>
-      </c>
-      <c r="L4">
-        <v>2.04</v>
-      </c>
-      <c r="M4" s="9">
-        <v>45047</v>
-      </c>
-      <c r="N4">
-        <v>2.12</v>
-      </c>
-      <c r="O4">
-        <v>1.7</v>
-      </c>
-      <c r="P4">
-        <v>1.71</v>
-      </c>
-      <c r="Q4">
-        <v>1.8</v>
-      </c>
-      <c r="R4">
-        <v>1.86</v>
-      </c>
-      <c r="U4" s="1">
-        <v>26</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45052</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5">
-        <v>2.25</v>
-      </c>
-      <c r="D5">
-        <v>2.38</v>
-      </c>
-      <c r="E5">
-        <v>3.04</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3.7</v>
-      </c>
-      <c r="H5">
-        <v>3.57</v>
-      </c>
-      <c r="I5">
-        <v>2.71</v>
-      </c>
-      <c r="J5" s="9">
-        <v>44681</v>
-      </c>
-      <c r="K5">
-        <v>2.52</v>
-      </c>
-      <c r="L5">
-        <v>2.56</v>
-      </c>
-      <c r="M5" s="9">
-        <v>45046</v>
-      </c>
-      <c r="N5">
-        <v>2.73</v>
-      </c>
-      <c r="O5">
-        <v>1.54</v>
-      </c>
-      <c r="P5">
-        <v>1.49</v>
-      </c>
-      <c r="Q5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="R5">
-        <v>2.37</v>
-      </c>
-      <c r="U5" s="1">
-        <v>22</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45052</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E6">
-        <v>3.16</v>
-      </c>
-      <c r="F6">
-        <v>3.19</v>
-      </c>
-      <c r="G6">
-        <v>3.06</v>
-      </c>
-      <c r="H6">
-        <v>3.73</v>
-      </c>
-      <c r="I6">
-        <v>2.97</v>
-      </c>
-      <c r="J6" s="9">
-        <v>44682</v>
-      </c>
-      <c r="K6">
-        <v>2.98</v>
-      </c>
-      <c r="L6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="M6" s="9">
-        <v>45047</v>
-      </c>
-      <c r="N6">
-        <v>2.31</v>
-      </c>
-      <c r="O6">
-        <v>1.65</v>
-      </c>
-      <c r="P6">
-        <v>1.67</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>2.02</v>
-      </c>
-      <c r="U6" s="1">
-        <v>17</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D7">
-        <v>2.48</v>
-      </c>
-      <c r="E7">
-        <v>3.27</v>
-      </c>
-      <c r="F7">
-        <v>3.32</v>
-      </c>
-      <c r="G7">
-        <v>3.51</v>
-      </c>
-      <c r="H7">
-        <v>3.15</v>
-      </c>
-      <c r="I7">
-        <v>3.11</v>
-      </c>
-      <c r="J7" s="9">
-        <v>45046</v>
-      </c>
-      <c r="K7">
-        <v>3.23</v>
-      </c>
-      <c r="L7">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="M7" s="9">
-        <v>45046</v>
-      </c>
-      <c r="N7">
-        <v>2.21</v>
-      </c>
-      <c r="O7">
-        <v>1.73</v>
-      </c>
-      <c r="P7">
-        <v>1.74</v>
-      </c>
-      <c r="Q7">
-        <v>1.93</v>
-      </c>
-      <c r="R7">
-        <v>1.93</v>
-      </c>
-      <c r="U7" s="1">
-        <v>24</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8">
-        <v>2.39</v>
-      </c>
-      <c r="D8">
-        <v>2.31</v>
-      </c>
-      <c r="E8">
-        <v>2.95</v>
-      </c>
-      <c r="F8">
-        <v>2.96</v>
-      </c>
-      <c r="G8">
-        <v>2.57</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>404</v>
-      </c>
-      <c r="J8" s="9">
-        <v>45046</v>
-      </c>
-      <c r="K8">
-        <v>404</v>
-      </c>
-      <c r="L8">
-        <v>1.93</v>
-      </c>
-      <c r="M8" s="9">
-        <v>45052</v>
-      </c>
-      <c r="N8">
-        <v>2.02</v>
-      </c>
-      <c r="O8">
-        <v>1.69</v>
-      </c>
-      <c r="P8">
-        <v>1.71</v>
-      </c>
-      <c r="Q8">
-        <v>1.74</v>
-      </c>
-      <c r="R8">
-        <v>1.79</v>
-      </c>
-      <c r="U8" s="1">
-        <v>26</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9">
-        <v>3.14</v>
-      </c>
-      <c r="D9">
-        <v>3.33</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2.94</v>
-      </c>
-      <c r="G9">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H9">
-        <v>2.15</v>
-      </c>
-      <c r="I9">
-        <v>404</v>
-      </c>
-      <c r="J9" s="9">
-        <v>45046</v>
-      </c>
-      <c r="K9">
-        <v>404</v>
-      </c>
-      <c r="L9">
-        <v>2.08</v>
-      </c>
-      <c r="M9" s="9">
-        <v>45052</v>
-      </c>
-      <c r="N9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O9">
-        <v>1.6</v>
-      </c>
-      <c r="P9">
-        <v>1.61</v>
-      </c>
-      <c r="Q9">
-        <v>1.85</v>
-      </c>
-      <c r="R9">
-        <v>1.93</v>
-      </c>
-      <c r="U9" s="1">
-        <v>21</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W9" t="s">
-        <v>169</v>
-      </c>
-      <c r="X9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10">
-        <v>2.34</v>
-      </c>
-      <c r="D10">
-        <v>2.64</v>
-      </c>
-      <c r="E10">
-        <v>3.52</v>
-      </c>
-      <c r="F10">
-        <v>3.18</v>
-      </c>
-      <c r="G10">
-        <v>3.11</v>
-      </c>
-      <c r="H10">
-        <v>3.05</v>
-      </c>
-      <c r="I10">
-        <v>3.8</v>
-      </c>
-      <c r="J10" s="9">
-        <v>45046</v>
-      </c>
-      <c r="K10">
-        <v>3.01</v>
-      </c>
-      <c r="L10">
-        <v>1.88</v>
-      </c>
-      <c r="M10" s="9">
-        <v>45076</v>
-      </c>
-      <c r="N10">
-        <v>2.34</v>
-      </c>
-      <c r="O10">
-        <v>1.66</v>
-      </c>
-      <c r="P10">
-        <v>1.99</v>
-      </c>
-      <c r="Q10">
-        <v>1.65</v>
-      </c>
-      <c r="R10">
-        <v>2.04</v>
-      </c>
-      <c r="U10" s="1">
-        <v>25</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W10" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11">
-        <v>1.56</v>
-      </c>
-      <c r="D11">
-        <v>1.55</v>
-      </c>
-      <c r="E11">
-        <v>4.05</v>
-      </c>
-      <c r="F11">
-        <v>4.05</v>
-      </c>
-      <c r="G11">
-        <v>6.76</v>
-      </c>
-      <c r="H11">
-        <v>7.21</v>
-      </c>
-      <c r="I11">
-        <v>3.22</v>
-      </c>
-      <c r="J11" s="9">
-        <v>45049</v>
-      </c>
-      <c r="K11">
-        <v>3.1</v>
-      </c>
-      <c r="L11">
-        <v>2.14</v>
-      </c>
-      <c r="M11" s="9">
-        <v>45049</v>
-      </c>
-      <c r="N11">
-        <v>2.21</v>
-      </c>
-      <c r="O11">
-        <v>1.72</v>
-      </c>
-      <c r="P11">
-        <v>1.76</v>
-      </c>
-      <c r="Q11">
-        <v>1.87</v>
-      </c>
-      <c r="R11">
-        <v>1.94</v>
-      </c>
-      <c r="U11" s="1">
-        <v>26</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W11" t="s">
-        <v>34</v>
-      </c>
-      <c r="X11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12">
-        <v>2.08</v>
-      </c>
-      <c r="D12">
-        <v>1.93</v>
-      </c>
-      <c r="E12">
-        <v>3.28</v>
-      </c>
-      <c r="F12">
-        <v>3.45</v>
-      </c>
-      <c r="G12">
-        <v>3.72</v>
-      </c>
-      <c r="H12">
-        <v>4.18</v>
-      </c>
-      <c r="I12">
-        <v>3.24</v>
-      </c>
-      <c r="J12" s="9">
-        <v>45049</v>
-      </c>
-      <c r="K12">
-        <v>3.27</v>
-      </c>
-      <c r="L12">
-        <v>2.1</v>
-      </c>
-      <c r="M12" s="9">
-        <v>45049</v>
-      </c>
-      <c r="N12">
-        <v>2.08</v>
-      </c>
-      <c r="O12">
-        <v>1.75</v>
-      </c>
-      <c r="P12">
-        <v>1.77</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>1.82</v>
-      </c>
-      <c r="U12" s="1">
-        <v>20</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13">
-        <v>3.16</v>
-      </c>
-      <c r="D13">
-        <v>4.55</v>
-      </c>
-      <c r="E13">
-        <v>3.29</v>
-      </c>
-      <c r="F13">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H13">
-        <v>1.68</v>
-      </c>
-      <c r="I13">
-        <v>3.51</v>
-      </c>
-      <c r="J13" s="9">
-        <v>45046</v>
-      </c>
-      <c r="K13">
-        <v>4.2</v>
-      </c>
-      <c r="L13">
-        <v>1.89</v>
-      </c>
-      <c r="M13" s="9">
-        <v>45046</v>
-      </c>
-      <c r="N13">
-        <v>1.71</v>
-      </c>
-      <c r="O13">
-        <v>1.86</v>
-      </c>
-      <c r="P13">
-        <v>2.16</v>
-      </c>
-      <c r="Q13">
-        <v>1.65</v>
-      </c>
-      <c r="R13">
-        <v>1.52</v>
-      </c>
-      <c r="U13" s="1">
-        <v>15</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" t="s">
-        <v>170</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14">
-        <v>1.54</v>
-      </c>
-      <c r="D14">
-        <v>1.76</v>
-      </c>
-      <c r="E14">
-        <v>3.34</v>
-      </c>
-      <c r="F14">
-        <v>3.75</v>
-      </c>
-      <c r="G14">
-        <v>7.51</v>
-      </c>
-      <c r="H14">
-        <v>5.93</v>
-      </c>
-      <c r="I14">
-        <v>2.84</v>
-      </c>
-      <c r="J14" s="9">
-        <v>45047</v>
-      </c>
-      <c r="K14">
-        <v>2.74</v>
-      </c>
-      <c r="L14">
-        <v>2.33</v>
-      </c>
-      <c r="M14" s="9">
-        <v>45047</v>
-      </c>
-      <c r="N14">
-        <v>2.56</v>
-      </c>
-      <c r="O14">
-        <v>1.54</v>
-      </c>
-      <c r="P14">
-        <v>1.64</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>2.21</v>
-      </c>
-      <c r="U14" s="1">
-        <v>20</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15">
-        <v>2.54</v>
-      </c>
-      <c r="D15">
-        <v>3.45</v>
-      </c>
-      <c r="E15">
-        <v>3.47</v>
-      </c>
-      <c r="F15">
-        <v>3.84</v>
-      </c>
-      <c r="G15">
-        <v>2.8</v>
-      </c>
-      <c r="H15">
-        <v>2.09</v>
-      </c>
-      <c r="I15">
-        <v>4.22</v>
-      </c>
-      <c r="J15" s="9">
-        <v>45047</v>
-      </c>
-      <c r="K15">
-        <v>4.22</v>
-      </c>
-      <c r="L15">
-        <v>1.85</v>
-      </c>
-      <c r="M15" s="9">
-        <v>45046</v>
-      </c>
-      <c r="N15">
-        <v>1.66</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>2.31</v>
-      </c>
-      <c r="Q15">
-        <v>1.63</v>
-      </c>
-      <c r="R15">
-        <v>1.48</v>
-      </c>
-      <c r="U15" s="1">
-        <v>21</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45059</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16">
-        <v>1.99</v>
-      </c>
-      <c r="D16">
-        <v>1.97</v>
-      </c>
-      <c r="E16">
-        <v>3.09</v>
-      </c>
-      <c r="F16">
-        <v>3.03</v>
-      </c>
-      <c r="G16">
-        <v>4.34</v>
-      </c>
-      <c r="H16">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I16">
-        <v>2.69</v>
-      </c>
-      <c r="J16" s="9">
-        <v>45052</v>
-      </c>
-      <c r="K16">
-        <v>2.7</v>
-      </c>
-      <c r="L16">
-        <v>2.5</v>
-      </c>
-      <c r="M16" s="9">
-        <v>45052</v>
-      </c>
-      <c r="N16">
-        <v>2.52</v>
-      </c>
-      <c r="O16">
-        <v>1.55</v>
-      </c>
-      <c r="P16">
-        <v>1.54</v>
-      </c>
-      <c r="Q16">
-        <v>2.17</v>
-      </c>
-      <c r="R16">
-        <v>2.19</v>
-      </c>
-      <c r="U16" s="1">
-        <v>16</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" t="s">
-        <v>92</v>
-      </c>
-      <c r="X16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45059</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17">
-        <v>2.58</v>
-      </c>
-      <c r="D17">
-        <v>2.84</v>
-      </c>
-      <c r="E17">
-        <v>2.74</v>
-      </c>
-      <c r="F17">
-        <v>2.86</v>
-      </c>
-      <c r="G17">
-        <v>3.48</v>
-      </c>
-      <c r="H17">
-        <v>3.07</v>
-      </c>
-      <c r="I17">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="J17" s="9">
-        <v>45053</v>
-      </c>
-      <c r="K17">
-        <v>2.56</v>
-      </c>
-      <c r="L17">
-        <v>2.7</v>
-      </c>
-      <c r="M17" s="9">
-        <v>45053</v>
-      </c>
-      <c r="N17">
-        <v>2.73</v>
-      </c>
-      <c r="O17">
-        <v>1.49</v>
-      </c>
-      <c r="P17">
-        <v>1.5</v>
-      </c>
-      <c r="Q17">
-        <v>2.35</v>
-      </c>
-      <c r="R17">
-        <v>2.36</v>
-      </c>
-      <c r="U17" s="1">
-        <v>20</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45063</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18">
-        <v>2.46</v>
-      </c>
-      <c r="D18">
-        <v>2.88</v>
-      </c>
-      <c r="E18">
-        <v>3.03</v>
-      </c>
-      <c r="F18">
-        <v>3.21</v>
-      </c>
-      <c r="G18">
-        <v>3.26</v>
-      </c>
-      <c r="H18">
-        <v>2.67</v>
-      </c>
-      <c r="I18">
-        <v>3.2</v>
-      </c>
-      <c r="J18" s="9">
-        <v>45059</v>
-      </c>
-      <c r="K18">
-        <v>3.21</v>
-      </c>
-      <c r="L18">
-        <v>2.13</v>
-      </c>
-      <c r="M18" s="9">
-        <v>45059</v>
-      </c>
-      <c r="N18">
-        <v>2.15</v>
-      </c>
-      <c r="O18">
-        <v>1.76</v>
-      </c>
-      <c r="P18">
-        <v>1.75</v>
-      </c>
-      <c r="Q18">
-        <v>1.83</v>
-      </c>
-      <c r="R18">
-        <v>1.88</v>
-      </c>
-      <c r="U18" s="1">
-        <v>20</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18" t="s">
-        <v>85</v>
-      </c>
-      <c r="X18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19">
-        <v>1.97</v>
-      </c>
-      <c r="D19">
-        <v>2.17</v>
-      </c>
-      <c r="E19">
-        <v>3.71</v>
-      </c>
-      <c r="F19">
-        <v>3.51</v>
-      </c>
-      <c r="G19">
-        <v>3.9</v>
-      </c>
-      <c r="H19">
-        <v>3.54</v>
-      </c>
-      <c r="I19">
-        <v>4.18</v>
-      </c>
-      <c r="J19" s="9">
-        <v>45060</v>
-      </c>
-      <c r="K19">
-        <v>4.13</v>
-      </c>
-      <c r="L19">
-        <v>1.79</v>
-      </c>
-      <c r="M19" s="9">
-        <v>45060</v>
-      </c>
-      <c r="N19">
-        <v>1.79</v>
-      </c>
-      <c r="O19">
-        <v>2.1</v>
-      </c>
-      <c r="P19">
-        <v>2.11</v>
-      </c>
-      <c r="Q19">
-        <v>1.58</v>
-      </c>
-      <c r="R19">
-        <v>1.58</v>
-      </c>
-      <c r="U19" s="1">
-        <v>23</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>85</v>
-      </c>
-      <c r="X19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20">
-        <v>1.58</v>
-      </c>
-      <c r="D20">
-        <v>1.47</v>
-      </c>
-      <c r="E20">
-        <v>4.16</v>
-      </c>
-      <c r="F20">
-        <v>4.47</v>
-      </c>
-      <c r="G20">
-        <v>5.85</v>
-      </c>
-      <c r="H20">
-        <v>7.74</v>
-      </c>
-      <c r="I20">
-        <v>3.37</v>
-      </c>
-      <c r="J20" s="9">
-        <v>45060</v>
-      </c>
-      <c r="K20">
-        <v>4.05</v>
-      </c>
-      <c r="L20">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M20" s="9">
-        <v>45060</v>
-      </c>
-      <c r="N20">
-        <v>1.84</v>
-      </c>
-      <c r="O20">
-        <v>1.83</v>
-      </c>
-      <c r="P20">
-        <v>2.06</v>
-      </c>
-      <c r="Q20">
-        <v>1.78</v>
-      </c>
-      <c r="R20">
-        <v>1.61</v>
-      </c>
-      <c r="U20" s="1">
-        <v>21</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>149</v>
-      </c>
-      <c r="X20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45066</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21">
-        <v>3.02</v>
-      </c>
-      <c r="D21">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E21">
-        <v>2.89</v>
-      </c>
-      <c r="F21">
-        <v>3.23</v>
-      </c>
-      <c r="G21">
-        <v>2.66</v>
-      </c>
-      <c r="H21">
-        <v>3.95</v>
-      </c>
-      <c r="I21">
-        <v>2.77</v>
-      </c>
-      <c r="J21" s="9">
-        <v>45059</v>
-      </c>
-      <c r="K21">
-        <v>3.03</v>
-      </c>
-      <c r="L21">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="M21" s="9">
-        <v>45059</v>
-      </c>
-      <c r="N21">
-        <v>2.23</v>
-      </c>
-      <c r="O21">
-        <v>1.56</v>
-      </c>
-      <c r="P21">
-        <v>1.67</v>
-      </c>
-      <c r="Q21">
-        <v>2.14</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="U21" s="1">
-        <v>26</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W21" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45067</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22">
-        <v>3.08</v>
-      </c>
-      <c r="D22">
-        <v>3.87</v>
-      </c>
-      <c r="E22">
-        <v>3.26</v>
-      </c>
-      <c r="F22">
-        <v>3.3</v>
-      </c>
-      <c r="G22">
-        <v>2.46</v>
-      </c>
-      <c r="H22">
-        <v>2.14</v>
-      </c>
-      <c r="I22">
-        <v>3.24</v>
-      </c>
-      <c r="J22" s="9">
-        <v>45059</v>
-      </c>
-      <c r="K22">
-        <v>2.9</v>
-      </c>
-      <c r="L22">
-        <v>2.14</v>
-      </c>
-      <c r="M22" s="9">
-        <v>45060</v>
-      </c>
-      <c r="N22">
-        <v>2.38</v>
-      </c>
-      <c r="O22">
-        <v>1.74</v>
-      </c>
-      <c r="P22">
-        <v>1.63</v>
-      </c>
-      <c r="Q22">
-        <v>1.87</v>
-      </c>
-      <c r="R22">
-        <v>2.08</v>
-      </c>
-      <c r="U22" s="1">
-        <v>25</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="W22" t="s">
-        <v>87</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9203,11 +9228,11 @@
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
-        <v>191.88749999999999</v>
+        <v>124.94999999999999</v>
       </c>
       <c r="I2" s="32">
         <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
-        <v>82.237499999999997</v>
+        <v>53.55</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>61</v>
@@ -9237,11 +9262,11 @@
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
-        <v>203.94899999999998</v>
+        <v>132.804</v>
       </c>
       <c r="I3" s="32">
         <f t="shared" si="1"/>
-        <v>94.298999999999992</v>
+        <v>61.404000000000011</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>91</v>
@@ -9271,11 +9296,11 @@
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>184.21199999999999</v>
+        <v>119.95199999999998</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" si="1"/>
-        <v>74.561999999999998</v>
+        <v>48.551999999999992</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>32</v>
@@ -9305,11 +9330,11 @@
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>186.40499999999997</v>
+        <v>121.37999999999998</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="1"/>
-        <v>76.754999999999981</v>
+        <v>49.97999999999999</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>85</v>
@@ -9339,11 +9364,11 @@
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>189.69449999999998</v>
+        <v>123.52199999999998</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>80.044499999999985</v>
+        <v>52.121999999999986</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>134</v>
@@ -9373,11 +9398,11 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
-        <v>195.17699999999999</v>
+        <v>127.09199999999998</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
-        <v>-54.824999999999996</v>
+        <v>-35.699999999999996</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>32</v>
@@ -9407,11 +9432,11 @@
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>178.72949999999997</v>
+        <v>116.38199999999998</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="1"/>
-        <v>69.079499999999982</v>
+        <v>44.981999999999985</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>139</v>
@@ -9441,7 +9466,7 @@
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
-        <v>214.91399999999999</v>
+        <v>139.94399999999999</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -9474,11 +9499,11 @@
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
-        <v>188.59799999999998</v>
+        <v>122.80799999999998</v>
       </c>
       <c r="I10" s="32">
         <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
-        <v>78.947999999999993</v>
+        <v>51.407999999999987</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>85</v>
@@ -9508,11 +9533,11 @@
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
-        <v>183.11549999999997</v>
+        <v>119.23799999999999</v>
       </c>
       <c r="I11" s="32">
         <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
-        <v>73.465499999999977</v>
+        <v>47.837999999999994</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>149</v>
@@ -9542,11 +9567,11 @@
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>217.10699999999997</v>
+        <v>141.37199999999999</v>
       </c>
       <c r="I12" s="32">
         <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
-        <v>107.45699999999998</v>
+        <v>69.971999999999994</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>87</v>
@@ -9576,11 +9601,11 @@
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
-        <v>203.94899999999998</v>
+        <v>132.804</v>
       </c>
       <c r="I13" s="32">
         <f>IF(G13="halfred",-(D$33/2),H13-D$33)</f>
-        <v>94.298999999999992</v>
+        <v>61.404000000000011</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>89</v>
@@ -9844,15 +9869,15 @@
       </c>
       <c r="F28" s="28">
         <f>I3</f>
-        <v>94.298999999999992</v>
+        <v>61.404000000000011</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="3"/>
-        <v>2644.299</v>
+        <v>2611.404</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>3.698</v>
+        <v>2.4080000000000004</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -9864,22 +9889,22 @@
       <c r="C29" s="1"/>
       <c r="D29" s="30">
         <f>D35/1</f>
-        <v>27.218999999999994</v>
+        <v>17.723999999999997</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="28">
         <f>SUM(I4:I6)</f>
-        <v>231.36149999999998</v>
+        <v>150.65399999999997</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>9.0729999999999986</v>
+        <v>5.9079999999999986</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -9896,7 +9921,7 @@
       </c>
       <c r="G30" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
@@ -9921,7 +9946,7 @@
       </c>
       <c r="G31" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
@@ -9947,7 +9972,7 @@
       </c>
       <c r="G32" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
@@ -9962,8 +9987,8 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
-        <f>D32*4.3</f>
-        <v>109.64999999999999</v>
+        <f>D32*2.8</f>
+        <v>71.399999999999991</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -9973,7 +9998,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
@@ -9989,7 +10014,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="32">
         <f>SUM(I3:I17)</f>
-        <v>694.08449999999982</v>
+        <v>451.96199999999988</v>
       </c>
       <c r="E34" s="1">
         <v>12</v>
@@ -9999,7 +10024,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
@@ -10015,7 +10040,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <f>D34/D31*100</f>
-        <v>27.218999999999994</v>
+        <v>17.723999999999997</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -10026,7 +10051,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
@@ -10044,7 +10069,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
@@ -10065,7 +10090,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
@@ -10086,7 +10111,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
@@ -10107,7 +10132,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -10128,7 +10153,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="3"/>
-        <v>2875.6605</v>
+        <v>2762.058</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -10146,15 +10171,15 @@
       </c>
       <c r="F41" s="28">
         <f>SUM(I10:I11)</f>
-        <v>152.41349999999997</v>
+        <v>99.245999999999981</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="3"/>
-        <v>3028.0740000000001</v>
+        <v>2861.3040000000001</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>5.9769999999999985</v>
+        <v>3.891999999999999</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -10168,15 +10193,15 @@
       </c>
       <c r="F42" s="28">
         <f>I12</f>
-        <v>107.45699999999998</v>
+        <v>69.971999999999994</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>4.2139999999999986</v>
+        <v>2.7439999999999998</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -10193,7 +10218,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -10214,7 +10239,7 @@
       </c>
       <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -10235,7 +10260,7 @@
       </c>
       <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -10256,7 +10281,7 @@
       </c>
       <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
@@ -10277,7 +10302,7 @@
       </c>
       <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -10298,7 +10323,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -10319,7 +10344,7 @@
       </c>
       <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
@@ -10340,7 +10365,7 @@
       </c>
       <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -10361,7 +10386,7 @@
       </c>
       <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -10382,7 +10407,7 @@
       </c>
       <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -10403,7 +10428,7 @@
       </c>
       <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>3135.5309999999999</v>
+        <v>2931.2760000000003</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
@@ -10413,21 +10438,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F53">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 I2:I17">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10435,4 +10460,767 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45080</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2.84</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="L2" s="17">
+        <v>2.94</v>
+      </c>
+      <c r="M2" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1.645</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="G3" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H3" s="17">
+        <v>6.23</v>
+      </c>
+      <c r="I3" s="5">
+        <v>404</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M3" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2.11</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="P1:P28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="181">
   <si>
     <t>DATA</t>
   </si>
@@ -143,9 +143,6 @@
     <t> LECCE vs LAZIO</t>
   </si>
   <si>
-    <t> CHOLET vs RED STAR</t>
-  </si>
-  <si>
     <t>FRANCE - NATIONAL</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>2--1</t>
-  </si>
-  <si>
-    <t>1--4</t>
   </si>
   <si>
     <t>0--0</t>
@@ -1099,6 +1093,15 @@
   </si>
   <si>
     <t>over 2,5</t>
+  </si>
+  <si>
+    <t>AC NUMAZU vs YSCC</t>
+  </si>
+  <si>
+    <t>LUJAN vs SM BURZACO</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA C</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,6 +1280,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1290,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1455,6 +1464,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,11 +1858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214064400"/>
-        <c:axId val="214064792"/>
+        <c:axId val="264923496"/>
+        <c:axId val="216347808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214064400"/>
+        <c:axId val="264923496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,12 +1915,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214064792"/>
+        <c:crossAx val="216347808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214064792"/>
+        <c:axId val="216347808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1974,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214064400"/>
+        <c:crossAx val="264923496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2908,58 +2921,58 @@
         <v>6</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="O1" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>165</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>167</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="54" t="s">
         <v>17</v>
@@ -2971,7 +2984,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3115,7 +3128,7 @@
         <v>45049</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>2.4</v>
@@ -3169,10 +3182,10 @@
         <v>26</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X4">
         <v>3</v>
@@ -3183,7 +3196,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>2.25</v>
@@ -3240,7 +3253,7 @@
         <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -3251,7 +3264,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>2.5299999999999998</v>
@@ -3319,7 +3332,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>2.2999999999999998</v>
@@ -3373,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
@@ -3387,7 +3400,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>2.39</v>
@@ -3441,10 +3454,10 @@
         <v>26</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X8">
         <v>4</v>
@@ -3455,7 +3468,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>3.14</v>
@@ -3509,10 +3522,10 @@
         <v>21</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -3523,7 +3536,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>2.34</v>
@@ -3577,10 +3590,10 @@
         <v>25</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -3591,7 +3604,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>1.56</v>
@@ -3645,7 +3658,7 @@
         <v>26</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W11" t="s">
         <v>34</v>
@@ -3659,7 +3672,7 @@
         <v>45054</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>2.08</v>
@@ -3713,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
         <v>32</v>
@@ -3727,7 +3740,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>3.16</v>
@@ -3781,10 +3794,10 @@
         <v>15</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -3795,7 +3808,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14">
         <v>1.54</v>
@@ -3852,7 +3865,7 @@
         <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -3863,7 +3876,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>2.54</v>
@@ -3920,7 +3933,7 @@
         <v>26</v>
       </c>
       <c r="W15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X15">
         <v>3</v>
@@ -3931,7 +3944,7 @@
         <v>45059</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16">
         <v>1.99</v>
@@ -3985,10 +3998,10 @@
         <v>16</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X16">
         <v>4</v>
@@ -3999,7 +4012,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>2.58</v>
@@ -4067,7 +4080,7 @@
         <v>45063</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18">
         <v>2.46</v>
@@ -4121,10 +4134,10 @@
         <v>20</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X18">
         <v>3</v>
@@ -4135,7 +4148,7 @@
         <v>45065</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19">
         <v>1.97</v>
@@ -4192,7 +4205,7 @@
         <v>20</v>
       </c>
       <c r="W19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -4203,7 +4216,7 @@
         <v>45065</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20">
         <v>1.58</v>
@@ -4260,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -4271,7 +4284,7 @@
         <v>45066</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21">
         <v>3.02</v>
@@ -4325,10 +4338,10 @@
         <v>26</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -4339,7 +4352,7 @@
         <v>45067</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22">
         <v>3.08</v>
@@ -4393,10 +4406,10 @@
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -4409,10 +4422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,7 +4534,7 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="1">
         <v>15</v>
@@ -4543,10 +4556,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44932</v>
+        <v>44934</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -4559,32 +4572,32 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U28" si="0">T3*100</f>
+        <f t="shared" ref="U3:U27" si="0">T3*100</f>
         <v>100</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V28" si="1">U3-100</f>
+        <f t="shared" ref="V3:V27" si="1">U3-100</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44934</v>
+        <v>44940</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -4593,17 +4606,17 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="R4" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -4622,7 +4635,7 @@
         <v>44940</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -4631,17 +4644,17 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R5" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -4660,7 +4673,7 @@
         <v>44940</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -4676,10 +4689,10 @@
         <v>88</v>
       </c>
       <c r="R6" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
@@ -4707,17 +4720,17 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R7" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
@@ -4733,10 +4746,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -4745,17 +4758,17 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R8" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
@@ -4770,11 +4783,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="57">
         <v>44941</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
+      <c r="B9" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -4787,13 +4800,13 @@
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R9" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
@@ -4812,7 +4825,7 @@
         <v>44941</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -4821,17 +4834,17 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R10" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
@@ -4847,10 +4860,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>44941</v>
+        <v>44946</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -4859,17 +4872,17 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R11" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
@@ -4901,13 +4914,13 @@
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="R12" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="1">
         <v>1</v>
@@ -4923,7 +4936,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
@@ -4935,17 +4948,15 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P13" s="23"/>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="1">
         <v>15</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
@@ -4976,12 +4987,14 @@
         <v>22</v>
       </c>
       <c r="P14" s="23"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="R14" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="T14" s="1">
         <v>1</v>
@@ -4997,10 +5010,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -5013,13 +5026,13 @@
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R15" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
@@ -5038,7 +5051,7 @@
         <v>44948</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -5050,14 +5063,12 @@
         <v>22</v>
       </c>
       <c r="P16" s="23"/>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
@@ -5073,7 +5084,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>44948</v>
+        <v>44951</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
@@ -5090,10 +5101,10 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
@@ -5109,7 +5120,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>66</v>
@@ -5124,12 +5135,14 @@
         <v>22</v>
       </c>
       <c r="P18" s="23"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="R18" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T18" s="1">
         <v>1</v>
@@ -5161,13 +5174,13 @@
       </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="T19" s="1">
         <v>1</v>
@@ -5199,13 +5212,13 @@
       </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="R20" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="T20" s="1">
         <v>1</v>
@@ -5221,10 +5234,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -5237,13 +5250,13 @@
       </c>
       <c r="P21" s="23"/>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="R21" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="T21" s="1">
         <v>1</v>
@@ -5271,17 +5284,17 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="R22" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -5300,7 +5313,7 @@
         <v>44955</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5316,10 +5329,10 @@
         <v>32</v>
       </c>
       <c r="R23" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
@@ -5347,17 +5360,17 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P24" s="23"/>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R24" s="1">
         <v>19</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T24" s="1">
         <v>1</v>
@@ -5373,7 +5386,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>44955</v>
+        <v>44957</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>75</v>
@@ -5388,14 +5401,12 @@
         <v>22</v>
       </c>
       <c r="P25" s="23"/>
-      <c r="Q25" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T25" s="1">
         <v>1</v>
@@ -5410,29 +5421,9 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>44957</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="23"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="1">
-        <v>15</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="R26" s="1"/>
       <c r="T26" s="1">
         <v>1</v>
       </c>
@@ -5461,24 +5452,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="1"/>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="V28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:P28">
+  <conditionalFormatting sqref="P1:P27">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
@@ -5588,7 +5563,7 @@
         <v>44961</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -5601,13 +5576,13 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -5626,7 +5601,7 @@
         <v>44961</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -5645,7 +5620,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -5664,7 +5639,7 @@
         <v>44961</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -5683,7 +5658,7 @@
         <v>25</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -5702,7 +5677,7 @@
         <v>44961</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5715,13 +5690,13 @@
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R5" s="1">
         <v>18</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -5740,7 +5715,7 @@
         <v>44962</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5759,7 +5734,7 @@
         <v>24</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
@@ -7383,8 +7358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7477,9 +7452,15 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="5">
+        <v>404</v>
+      </c>
+      <c r="D2" s="5">
+        <v>404</v>
+      </c>
+      <c r="E2" s="5">
+        <v>404</v>
+      </c>
       <c r="F2" s="17">
         <v>2.38</v>
       </c>
@@ -7489,9 +7470,15 @@
       <c r="H2" s="17">
         <v>3.53</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="5">
+        <v>404</v>
+      </c>
+      <c r="J2" s="5">
+        <v>404</v>
+      </c>
+      <c r="K2" s="5">
+        <v>404</v>
+      </c>
       <c r="L2" s="17">
         <v>2.66</v>
       </c>
@@ -7522,15 +7509,33 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="C3" s="5">
+        <v>404</v>
+      </c>
+      <c r="D3" s="5">
+        <v>404</v>
+      </c>
+      <c r="E3" s="5">
+        <v>404</v>
+      </c>
+      <c r="F3" s="17">
+        <v>404</v>
+      </c>
+      <c r="G3" s="17">
+        <v>404</v>
+      </c>
+      <c r="H3" s="17">
+        <v>404</v>
+      </c>
+      <c r="I3" s="5">
+        <v>404</v>
+      </c>
+      <c r="J3" s="5">
+        <v>404</v>
+      </c>
+      <c r="K3" s="5">
+        <v>404</v>
+      </c>
       <c r="L3" s="17">
         <v>3.09</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>45049</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>2.44</v>
@@ -7604,13 +7609,13 @@
         <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1">
         <v>26</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T4" s="1">
         <v>1.75</v>
@@ -7621,7 +7626,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>2.4</v>
@@ -7663,10 +7668,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R5" s="1">
         <v>22</v>
@@ -7683,7 +7688,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>2.57</v>
@@ -7725,7 +7730,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
@@ -7740,7 +7745,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1">
         <v>2.38</v>
@@ -7789,7 +7794,7 @@
         <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T7" s="1">
         <v>1.68</v>
@@ -7800,7 +7805,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1">
         <v>2.48</v>
@@ -7849,7 +7854,7 @@
         <v>26</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T8" s="1">
         <v>1.73</v>
@@ -7860,7 +7865,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1">
         <v>3.29</v>
@@ -7902,14 +7907,14 @@
         <v>16</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="1">
         <v>21</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7917,7 +7922,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1">
         <v>2.34</v>
@@ -7966,7 +7971,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T10" s="1">
         <v>1.7</v>
@@ -7977,7 +7982,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1">
         <v>404</v>
@@ -8019,14 +8024,14 @@
         <v>22</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1">
         <v>18</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -8034,7 +8039,7 @@
         <v>45053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1">
         <v>1.46</v>
@@ -8076,14 +8081,14 @@
         <v>22</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -8091,7 +8096,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -8133,14 +8138,14 @@
         <v>22</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="1">
         <v>20</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -8148,7 +8153,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1">
         <v>3.18</v>
@@ -8197,7 +8202,7 @@
         <v>15</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T14" s="1">
         <v>1.75</v>
@@ -8208,7 +8213,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1">
         <v>1.76</v>
@@ -8250,7 +8255,7 @@
         <v>16</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="1">
@@ -8265,7 +8270,7 @@
         <v>45054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1">
         <v>3.77</v>
@@ -8325,7 +8330,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1">
         <v>1.91</v>
@@ -8367,14 +8372,14 @@
         <v>22</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
         <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -8382,7 +8387,7 @@
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1">
         <v>2.5299999999999998</v>
@@ -8424,7 +8429,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="1">
@@ -8442,7 +8447,7 @@
         <v>45060</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1">
         <v>404</v>
@@ -8484,14 +8489,14 @@
         <v>22</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="1">
         <v>19</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -8499,7 +8504,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -8541,14 +8546,14 @@
         <v>22</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <v>20</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -8556,7 +8561,7 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1">
         <v>2.2999999999999998</v>
@@ -8598,7 +8603,7 @@
         <v>22</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="1">
@@ -8616,7 +8621,7 @@
         <v>45065</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
         <v>1.7</v>
@@ -8658,7 +8663,7 @@
         <v>22</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="1">
@@ -8676,7 +8681,7 @@
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1">
         <v>2.17</v>
@@ -8718,14 +8723,14 @@
         <v>22</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="1">
         <v>26</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T23" s="1">
         <v>1.98</v>
@@ -8736,7 +8741,7 @@
         <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1">
         <v>3.37</v>
@@ -8778,14 +8783,14 @@
         <v>16</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="1">
         <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -8793,7 +8798,7 @@
         <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1">
         <v>2.2599999999999998</v>
@@ -8835,7 +8840,7 @@
         <v>16</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="1">
@@ -8850,7 +8855,7 @@
         <v>45074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1">
         <v>2.4</v>
@@ -8899,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T26" s="1">
         <v>1.86</v>
@@ -8910,7 +8915,7 @@
         <v>45075</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1">
         <v>2.0499999999999998</v>
@@ -8964,7 +8969,7 @@
         <v>45075</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="1">
         <v>1.94</v>
@@ -9157,7 +9162,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9186,13 +9191,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>37</v>
@@ -9209,7 +9214,7 @@
         <v>45049</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="37">
         <v>1.75</v>
@@ -9218,13 +9223,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
@@ -9235,7 +9240,7 @@
         <v>53.55</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9243,7 +9248,7 @@
         <v>45052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="37">
         <v>1.86</v>
@@ -9252,13 +9257,13 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
@@ -9269,7 +9274,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9277,7 +9282,7 @@
         <v>45053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="37">
         <v>1.68</v>
@@ -9286,13 +9291,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
@@ -9311,7 +9316,7 @@
         <v>45053</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="42">
         <v>1.7</v>
@@ -9320,13 +9325,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
@@ -9337,7 +9342,7 @@
         <v>49.97999999999999</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9345,7 +9350,7 @@
         <v>45053</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="42">
         <v>1.73</v>
@@ -9354,13 +9359,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
@@ -9371,7 +9376,7 @@
         <v>52.121999999999986</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9379,7 +9384,7 @@
         <v>45054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="42">
         <v>1.78</v>
@@ -9388,13 +9393,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
@@ -9413,7 +9418,7 @@
         <v>45054</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="42">
         <v>1.63</v>
@@ -9422,13 +9427,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
@@ -9439,7 +9444,7 @@
         <v>44.981999999999985</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9447,7 +9452,7 @@
         <v>45059</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="42">
         <v>1.96</v>
@@ -9456,13 +9461,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
@@ -9480,7 +9485,7 @@
         <v>45065</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="42">
         <v>1.72</v>
@@ -9489,13 +9494,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
@@ -9506,7 +9511,7 @@
         <v>51.407999999999987</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9514,7 +9519,7 @@
         <v>45065</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="42">
         <v>1.67</v>
@@ -9523,13 +9528,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
@@ -9540,7 +9545,7 @@
         <v>47.837999999999994</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9548,7 +9553,7 @@
         <v>45066</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="42">
         <v>1.98</v>
@@ -9557,13 +9562,13 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
@@ -9574,7 +9579,7 @@
         <v>69.971999999999994</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9582,7 +9587,7 @@
         <v>45074</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="42">
         <v>1.86</v>
@@ -9591,13 +9596,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
@@ -9608,7 +9613,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9694,7 +9699,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -9710,16 +9715,16 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9728,7 +9733,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="27">
@@ -9753,7 +9758,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="30">
@@ -9779,7 +9784,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -9805,7 +9810,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -9831,7 +9836,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -9857,7 +9862,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="30">
@@ -9884,7 +9889,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="30">
@@ -9932,7 +9937,7 @@
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="31">
@@ -9957,7 +9962,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="32">
@@ -9983,7 +9988,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
@@ -10009,7 +10014,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="32">
@@ -10035,7 +10040,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -10467,7 +10472,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10553,7 +10558,7 @@
         <v>45080</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5">
         <v>2.48</v>
@@ -10592,17 +10597,17 @@
         <v>1.645</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -10611,7 +10616,7 @@
         <v>45087</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="5">
         <v>1.44</v>
@@ -10650,62 +10655,134 @@
         <v>2.11</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="26"/>
+      <c r="A4" s="6">
+        <v>45095</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>3.85</v>
+      </c>
+      <c r="I4" s="5">
+        <v>404</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="L4" s="17">
+        <v>404</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="1">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="26"/>
+      <c r="A5" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1">
+        <v>404</v>
+      </c>
+      <c r="D5" s="1">
+        <v>404</v>
+      </c>
+      <c r="E5" s="1">
+        <v>404</v>
+      </c>
+      <c r="F5" s="13">
+        <v>404</v>
+      </c>
+      <c r="G5" s="13">
+        <v>404</v>
+      </c>
+      <c r="H5" s="13">
+        <v>404</v>
+      </c>
+      <c r="I5" s="1">
+        <v>404</v>
+      </c>
+      <c r="J5" s="1">
+        <v>404</v>
+      </c>
+      <c r="K5" s="1">
+        <v>404</v>
+      </c>
+      <c r="L5" s="13">
+        <v>404</v>
+      </c>
+      <c r="M5" s="13">
+        <v>404</v>
+      </c>
+      <c r="N5" s="13">
+        <v>404</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="1">
+        <v>22</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="180">
   <si>
     <t>DATA</t>
   </si>
@@ -209,12 +209,6 @@
     <t> JAPAN - J3 LEAGUE</t>
   </si>
   <si>
-    <t>  MARITIMO vs ESTORIL</t>
-  </si>
-  <si>
-    <t>PORTUGAL - LIGA PORTUGAL</t>
-  </si>
-  <si>
     <t> VIS PESARO vs PONTEDERA</t>
   </si>
   <si>
@@ -234,12 +228,6 @@
   </si>
   <si>
     <t> CHIPPA UTD vs MARITZBURG UTD</t>
-  </si>
-  <si>
-    <t>      PISTOIESE vs GIANA ERMINIO</t>
-  </si>
-  <si>
-    <t>ITALY - SERIE D - GROUP D</t>
   </si>
   <si>
     <t> RICHARDS BAY vs AMAZULU</t>
@@ -1102,6 +1090,15 @@
   </si>
   <si>
     <t>ARGENTINA - PRIMERA C</t>
+  </si>
+  <si>
+    <t>ALTOS vs POUSO ALEGRE</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE C</t>
+  </si>
+  <si>
+    <t>under 2</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,6 +1283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1299,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1468,6 +1471,13 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,11 +1868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264923496"/>
-        <c:axId val="216347808"/>
+        <c:axId val="293301480"/>
+        <c:axId val="293301088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264923496"/>
+        <c:axId val="293301480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1925,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216347808"/>
+        <c:crossAx val="293301088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216347808"/>
+        <c:axId val="293301088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264923496"/>
+        <c:crossAx val="293301480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,58 +2931,58 @@
         <v>6</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="N1" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="Q1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U1" s="54" t="s">
         <v>17</v>
@@ -2984,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3196,7 +3206,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>2.25</v>
@@ -3253,7 +3263,7 @@
         <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -3264,7 +3274,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>2.5299999999999998</v>
@@ -3332,7 +3342,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>2.2999999999999998</v>
@@ -3386,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
@@ -3400,7 +3410,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>2.39</v>
@@ -3454,10 +3464,10 @@
         <v>26</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="X8">
         <v>4</v>
@@ -3468,7 +3478,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>3.14</v>
@@ -3522,10 +3532,10 @@
         <v>21</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -3536,7 +3546,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10">
         <v>2.34</v>
@@ -3590,10 +3600,10 @@
         <v>25</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -3604,7 +3614,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>1.56</v>
@@ -3658,7 +3668,7 @@
         <v>26</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W11" t="s">
         <v>34</v>
@@ -3672,7 +3682,7 @@
         <v>45054</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>2.08</v>
@@ -3740,7 +3750,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>3.16</v>
@@ -3797,7 +3807,7 @@
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -3808,7 +3818,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>1.54</v>
@@ -3865,7 +3875,7 @@
         <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -3876,7 +3886,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>2.54</v>
@@ -3933,7 +3943,7 @@
         <v>26</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X15">
         <v>3</v>
@@ -3944,7 +3954,7 @@
         <v>45059</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>1.99</v>
@@ -4001,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X16">
         <v>4</v>
@@ -4012,7 +4022,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>2.58</v>
@@ -4080,7 +4090,7 @@
         <v>45063</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>2.46</v>
@@ -4134,10 +4144,10 @@
         <v>20</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X18">
         <v>3</v>
@@ -4148,7 +4158,7 @@
         <v>45065</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>1.97</v>
@@ -4205,7 +4215,7 @@
         <v>20</v>
       </c>
       <c r="W19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -4216,7 +4226,7 @@
         <v>45065</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>1.58</v>
@@ -4273,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="W20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -4284,7 +4294,7 @@
         <v>45066</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C21">
         <v>3.02</v>
@@ -4341,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -4352,7 +4362,7 @@
         <v>45067</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>3.08</v>
@@ -4406,10 +4416,10 @@
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -4422,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,7 +4544,7 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1">
         <v>15</v>
@@ -4572,7 +4582,7 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1">
         <v>23</v>
@@ -4584,11 +4594,11 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U27" si="0">T3*100</f>
+        <f t="shared" ref="U3:U25" si="0">T3*100</f>
         <v>100</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V27" si="1">U3-100</f>
+        <f t="shared" ref="V3:V25" si="1">U3-100</f>
         <v>0</v>
       </c>
     </row>
@@ -4610,7 +4620,7 @@
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R4" s="1">
         <v>17</v>
@@ -4648,7 +4658,7 @@
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R5" s="1">
         <v>23</v>
@@ -4686,7 +4696,7 @@
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R6" s="1">
         <v>16</v>
@@ -4724,7 +4734,7 @@
       </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R7" s="1">
         <v>24</v>
@@ -4762,7 +4772,7 @@
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R8" s="1">
         <v>15</v>
@@ -4800,7 +4810,7 @@
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R9" s="1">
         <v>16</v>
@@ -4838,7 +4848,7 @@
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1">
         <v>22</v>
@@ -4876,7 +4886,7 @@
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R11" s="1">
         <v>17</v>
@@ -4988,7 +4998,7 @@
       </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R14" s="1">
         <v>17</v>
@@ -5025,14 +5035,12 @@
         <v>22</v>
       </c>
       <c r="P15" s="23"/>
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
@@ -5048,10 +5056,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>44948</v>
+        <v>44951</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -5065,10 +5073,10 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
@@ -5084,10 +5092,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -5099,12 +5107,14 @@
         <v>22</v>
       </c>
       <c r="P17" s="23"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="R17" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
@@ -5119,11 +5129,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="59">
         <v>44954</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
+      <c r="B18" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -5136,13 +5146,13 @@
       </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="T18" s="1">
         <v>1</v>
@@ -5157,11 +5167,11 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="59">
         <v>44954</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
+      <c r="B19" s="60" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5174,13 +5184,13 @@
       </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="R19" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="T19" s="1">
         <v>1</v>
@@ -5196,7 +5206,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>68</v>
@@ -5212,13 +5222,13 @@
       </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="R20" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="T20" s="1">
         <v>1</v>
@@ -5237,7 +5247,7 @@
         <v>44955</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -5246,14 +5256,14 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P21" s="23"/>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R21" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>42</v>
@@ -5275,7 +5285,7 @@
         <v>44955</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -5284,17 +5294,17 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R22" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -5310,10 +5320,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>44955</v>
+        <v>44957</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5322,17 +5332,15 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P23" s="23"/>
-      <c r="Q23" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
@@ -5347,31 +5355,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>44955</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="1">
-        <v>19</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="1"/>
       <c r="T24" s="1">
         <v>1</v>
       </c>
@@ -5385,29 +5371,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>44957</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="23"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="1">
-        <v>15</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="R25" s="1"/>
       <c r="T25" s="1">
         <v>1</v>
       </c>
@@ -5420,40 +5386,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="1"/>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="1"/>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:P27">
+  <conditionalFormatting sqref="P1:P25">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
@@ -5468,7 +5402,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,7 +5497,7 @@
         <v>44961</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -5582,7 +5516,7 @@
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -5601,7 +5535,7 @@
         <v>44961</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -5639,7 +5573,7 @@
         <v>44961</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -5677,7 +5611,7 @@
         <v>44961</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5690,13 +5624,13 @@
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R5" s="1">
         <v>18</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -5711,11 +5645,11 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="61">
         <v>44962</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
+      <c r="B6" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5734,7 +5668,7 @@
         <v>24</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
@@ -7358,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,7 +7560,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>2.4</v>
@@ -7668,10 +7602,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R5" s="1">
         <v>22</v>
@@ -7688,7 +7622,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>2.57</v>
@@ -7730,7 +7664,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
@@ -7745,7 +7679,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>2.38</v>
@@ -7794,7 +7728,7 @@
         <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T7" s="1">
         <v>1.68</v>
@@ -7805,7 +7739,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1">
         <v>2.48</v>
@@ -7854,7 +7788,7 @@
         <v>26</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T8" s="1">
         <v>1.73</v>
@@ -7865,7 +7799,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1">
         <v>3.29</v>
@@ -7907,14 +7841,14 @@
         <v>16</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="1">
         <v>21</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7922,7 +7856,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1">
         <v>2.34</v>
@@ -7971,7 +7905,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T10" s="1">
         <v>1.7</v>
@@ -7982,7 +7916,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
         <v>404</v>
@@ -8024,14 +7958,14 @@
         <v>22</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1">
         <v>18</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -8039,7 +7973,7 @@
         <v>45053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1">
         <v>1.46</v>
@@ -8081,14 +8015,14 @@
         <v>22</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -8096,7 +8030,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -8138,7 +8072,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="1">
@@ -8153,7 +8087,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1">
         <v>3.18</v>
@@ -8213,7 +8147,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1">
         <v>1.76</v>
@@ -8255,7 +8189,7 @@
         <v>16</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="1">
@@ -8270,7 +8204,7 @@
         <v>45054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1">
         <v>3.77</v>
@@ -8330,7 +8264,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1">
         <v>1.91</v>
@@ -8372,7 +8306,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
@@ -8387,7 +8321,7 @@
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1">
         <v>2.5299999999999998</v>
@@ -8429,7 +8363,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="1">
@@ -8447,7 +8381,7 @@
         <v>45060</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1">
         <v>404</v>
@@ -8489,14 +8423,14 @@
         <v>22</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="1">
         <v>19</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -8504,7 +8438,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -8546,14 +8480,14 @@
         <v>22</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <v>20</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -8561,7 +8495,7 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1">
         <v>2.2999999999999998</v>
@@ -8603,7 +8537,7 @@
         <v>22</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="1">
@@ -8621,7 +8555,7 @@
         <v>45065</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1">
         <v>1.7</v>
@@ -8663,7 +8597,7 @@
         <v>22</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="1">
@@ -8681,7 +8615,7 @@
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>2.17</v>
@@ -8723,7 +8657,7 @@
         <v>22</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="1">
@@ -8741,7 +8675,7 @@
         <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1">
         <v>3.37</v>
@@ -8783,14 +8717,14 @@
         <v>16</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="1">
         <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -8798,7 +8732,7 @@
         <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1">
         <v>2.2599999999999998</v>
@@ -8840,7 +8774,7 @@
         <v>16</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="1">
@@ -8855,7 +8789,7 @@
         <v>45074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1">
         <v>2.4</v>
@@ -8904,7 +8838,7 @@
         <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T26" s="1">
         <v>1.86</v>
@@ -8915,7 +8849,7 @@
         <v>45075</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1">
         <v>2.0499999999999998</v>
@@ -8955,6 +8889,9 @@
       </c>
       <c r="O27" s="14" t="s">
         <v>22</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1">
@@ -8969,7 +8906,7 @@
         <v>45075</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1">
         <v>1.94</v>
@@ -9009,6 +8946,9 @@
       </c>
       <c r="O28" s="14" t="s">
         <v>16</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1">
@@ -9191,13 +9131,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>37</v>
@@ -9223,13 +9163,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
@@ -9248,7 +9188,7 @@
         <v>45052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="37">
         <v>1.86</v>
@@ -9257,13 +9197,13 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
@@ -9274,7 +9214,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9282,7 +9222,7 @@
         <v>45053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="37">
         <v>1.68</v>
@@ -9291,13 +9231,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
@@ -9316,7 +9256,7 @@
         <v>45053</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="42">
         <v>1.7</v>
@@ -9325,13 +9265,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
@@ -9342,7 +9282,7 @@
         <v>49.97999999999999</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9350,7 +9290,7 @@
         <v>45053</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="42">
         <v>1.73</v>
@@ -9359,13 +9299,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
@@ -9376,7 +9316,7 @@
         <v>52.121999999999986</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9384,7 +9324,7 @@
         <v>45054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="42">
         <v>1.78</v>
@@ -9393,13 +9333,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
@@ -9418,7 +9358,7 @@
         <v>45054</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C8" s="42">
         <v>1.63</v>
@@ -9427,13 +9367,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
@@ -9444,7 +9384,7 @@
         <v>44.981999999999985</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9452,7 +9392,7 @@
         <v>45059</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" s="42">
         <v>1.96</v>
@@ -9461,13 +9401,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
@@ -9485,7 +9425,7 @@
         <v>45065</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="42">
         <v>1.72</v>
@@ -9494,13 +9434,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
@@ -9511,7 +9451,7 @@
         <v>51.407999999999987</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9519,7 +9459,7 @@
         <v>45065</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="42">
         <v>1.67</v>
@@ -9528,13 +9468,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
@@ -9545,7 +9485,7 @@
         <v>47.837999999999994</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9553,7 +9493,7 @@
         <v>45066</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" s="42">
         <v>1.98</v>
@@ -9562,13 +9502,13 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
@@ -9579,7 +9519,7 @@
         <v>69.971999999999994</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9587,7 +9527,7 @@
         <v>45074</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C13" s="42">
         <v>1.86</v>
@@ -9596,13 +9536,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
@@ -9613,7 +9553,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9699,7 +9639,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -9715,16 +9655,16 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9733,7 +9673,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="27">
@@ -9758,7 +9698,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="30">
@@ -9784,7 +9724,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -9810,7 +9750,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -9836,7 +9776,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -9862,7 +9802,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="30">
@@ -9889,7 +9829,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="30">
@@ -9937,7 +9877,7 @@
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="31">
@@ -9962,7 +9902,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="32">
@@ -9988,7 +9928,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
@@ -10014,7 +9954,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="32">
@@ -10040,7 +9980,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -10471,8 +10411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10558,7 +10498,7 @@
         <v>45080</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5">
         <v>2.48</v>
@@ -10597,17 +10537,17 @@
         <v>1.645</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -10616,7 +10556,7 @@
         <v>45087</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="5">
         <v>1.44</v>
@@ -10655,17 +10595,17 @@
         <v>2.11</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -10674,7 +10614,7 @@
         <v>45095</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5">
         <v>1.96</v>
@@ -10713,17 +10653,17 @@
         <v>1.74</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>22</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -10732,7 +10672,7 @@
         <v>45100</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -10771,40 +10711,76 @@
         <v>404</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="1">
         <v>22</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="23"/>
+      <c r="A6" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.48</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2.95</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="L6" s="13">
+        <v>2.74</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2.36</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="1">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="maioGENESIS" sheetId="10" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="maio" sheetId="8" r:id="rId6"/>
     <sheet name="maioInvest" sheetId="9" r:id="rId7"/>
     <sheet name="junho" sheetId="11" r:id="rId8"/>
+    <sheet name="julho" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="180">
   <si>
     <t>DATA</t>
   </si>
@@ -255,12 +256,6 @@
   </si>
   <si>
     <t>ENGLAND - NATIONAL LEAGUE</t>
-  </si>
-  <si>
-    <t>  ARZIGNANO vs PORDENONE</t>
-  </si>
-  <si>
-    <t>ITALY - SERIE C - GROUP A</t>
   </si>
   <si>
     <t>2--1</t>
@@ -1099,6 +1094,12 @@
   </si>
   <si>
     <t>under 2</t>
+  </si>
+  <si>
+    <t>FIQUEI NO DIA 11 JA ANALISADO</t>
+  </si>
+  <si>
+    <t>D. ESPANOL vs EXCURSIONISTAS</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1476,14 +1477,31 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1868,11 +1886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293301480"/>
-        <c:axId val="293301088"/>
+        <c:axId val="219861160"/>
+        <c:axId val="219859592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293301480"/>
+        <c:axId val="219861160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,12 +1943,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293301088"/>
+        <c:crossAx val="219859592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293301088"/>
+        <c:axId val="219859592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2002,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293301480"/>
+        <c:crossAx val="219861160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2931,58 +2949,58 @@
         <v>6</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="O1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>159</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>161</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U1" s="54" t="s">
         <v>17</v>
@@ -2994,7 +3012,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3206,7 +3224,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>2.25</v>
@@ -3263,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -3274,7 +3292,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2.5299999999999998</v>
@@ -3342,7 +3360,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>2.2999999999999998</v>
@@ -3396,7 +3414,7 @@
         <v>24</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
@@ -3410,7 +3428,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>2.39</v>
@@ -3464,10 +3482,10 @@
         <v>26</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X8">
         <v>4</v>
@@ -3478,7 +3496,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>3.14</v>
@@ -3532,10 +3550,10 @@
         <v>21</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -3546,7 +3564,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>2.34</v>
@@ -3600,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -3614,7 +3632,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11">
         <v>1.56</v>
@@ -3668,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W11" t="s">
         <v>34</v>
@@ -3682,7 +3700,7 @@
         <v>45054</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>2.08</v>
@@ -3750,7 +3768,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>3.16</v>
@@ -3807,7 +3825,7 @@
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -3818,7 +3836,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>1.54</v>
@@ -3875,7 +3893,7 @@
         <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -3886,7 +3904,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15">
         <v>2.54</v>
@@ -3943,7 +3961,7 @@
         <v>26</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X15">
         <v>3</v>
@@ -3954,7 +3972,7 @@
         <v>45059</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <v>1.99</v>
@@ -4011,7 +4029,7 @@
         <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X16">
         <v>4</v>
@@ -4022,7 +4040,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>2.58</v>
@@ -4090,7 +4108,7 @@
         <v>45063</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18">
         <v>2.46</v>
@@ -4144,10 +4162,10 @@
         <v>20</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X18">
         <v>3</v>
@@ -4158,7 +4176,7 @@
         <v>45065</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>1.97</v>
@@ -4215,7 +4233,7 @@
         <v>20</v>
       </c>
       <c r="W19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -4226,7 +4244,7 @@
         <v>45065</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>1.58</v>
@@ -4283,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="W20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -4294,7 +4312,7 @@
         <v>45066</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>3.02</v>
@@ -4351,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -4362,7 +4380,7 @@
         <v>45067</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>3.08</v>
@@ -4416,10 +4434,10 @@
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -4544,7 +4562,7 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R2" s="1">
         <v>15</v>
@@ -4582,7 +4600,7 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R3" s="1">
         <v>23</v>
@@ -4620,7 +4638,7 @@
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R4" s="1">
         <v>17</v>
@@ -4658,7 +4676,7 @@
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" s="1">
         <v>23</v>
@@ -4696,7 +4714,7 @@
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R6" s="1">
         <v>16</v>
@@ -4734,7 +4752,7 @@
       </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R7" s="1">
         <v>24</v>
@@ -4772,7 +4790,7 @@
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R8" s="1">
         <v>15</v>
@@ -4810,7 +4828,7 @@
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R9" s="1">
         <v>16</v>
@@ -4848,7 +4866,7 @@
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1">
         <v>22</v>
@@ -4886,7 +4904,7 @@
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R11" s="1">
         <v>17</v>
@@ -4998,7 +5016,7 @@
       </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R14" s="1">
         <v>17</v>
@@ -5108,7 +5126,7 @@
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R17" s="1">
         <v>21</v>
@@ -5146,7 +5164,7 @@
       </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R18" s="1">
         <v>22</v>
@@ -5222,7 +5240,7 @@
       </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R20" s="1">
         <v>15</v>
@@ -5298,7 +5316,7 @@
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R22" s="1">
         <v>19</v>
@@ -5388,7 +5406,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5399,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,7 +5514,7 @@
       <c r="A2" s="4">
         <v>44961</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="60" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="13"/>
@@ -5560,11 +5578,11 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U30" si="0">T3*100</f>
+        <f t="shared" ref="U3:U29" si="0">T3*100</f>
         <v>100</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V30" si="1">U3-100</f>
+        <f t="shared" ref="V3:V29" si="1">U3-100</f>
         <v>0</v>
       </c>
     </row>
@@ -5624,7 +5642,7 @@
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" s="1">
         <v>18</v>
@@ -5645,11 +5663,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
-        <v>44962</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>78</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5657,19 +5673,11 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="23"/>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="1">
-        <v>24</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="1">
         <v>1</v>
       </c>
@@ -5684,7 +5692,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -5710,7 +5718,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -5788,7 +5796,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5814,7 +5822,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5996,7 +6004,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -6022,7 +6030,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="3"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -6073,15 +6081,16 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="1"/>
@@ -6180,16 +6189,6 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="1"/>
@@ -6227,7 +6226,6 @@
       <c r="P28" s="23"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="2"/>
       <c r="T28" s="1">
         <v>1</v>
       </c>
@@ -6256,25 +6254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P30" s="23"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="V30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:P30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="P1:P29">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7560,7 +7542,7 @@
         <v>45052</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>2.4</v>
@@ -7602,10 +7584,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R5" s="1">
         <v>22</v>
@@ -7622,7 +7604,7 @@
         <v>45052</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
         <v>2.57</v>
@@ -7664,7 +7646,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
@@ -7679,7 +7661,7 @@
         <v>45053</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1">
         <v>2.38</v>
@@ -7728,7 +7710,7 @@
         <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T7" s="1">
         <v>1.68</v>
@@ -7739,7 +7721,7 @@
         <v>45053</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1">
         <v>2.48</v>
@@ -7788,7 +7770,7 @@
         <v>26</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T8" s="1">
         <v>1.73</v>
@@ -7799,7 +7781,7 @@
         <v>45053</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>3.29</v>
@@ -7841,14 +7823,14 @@
         <v>16</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="1">
         <v>21</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7856,7 +7838,7 @@
         <v>45053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1">
         <v>2.34</v>
@@ -7905,7 +7887,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T10" s="1">
         <v>1.7</v>
@@ -7916,7 +7898,7 @@
         <v>45053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>404</v>
@@ -7958,14 +7940,14 @@
         <v>22</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1">
         <v>18</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -7973,7 +7955,7 @@
         <v>45053</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1">
         <v>1.46</v>
@@ -8015,14 +7997,14 @@
         <v>22</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -8030,7 +8012,7 @@
         <v>45054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -8072,7 +8054,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="1">
@@ -8087,7 +8069,7 @@
         <v>45054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1">
         <v>3.18</v>
@@ -8147,7 +8129,7 @@
         <v>45054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1">
         <v>1.76</v>
@@ -8189,7 +8171,7 @@
         <v>16</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="1">
@@ -8204,7 +8186,7 @@
         <v>45054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1">
         <v>3.77</v>
@@ -8264,7 +8246,7 @@
         <v>45059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1">
         <v>1.91</v>
@@ -8306,7 +8288,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="1">
@@ -8321,7 +8303,7 @@
         <v>45059</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1">
         <v>2.5299999999999998</v>
@@ -8363,7 +8345,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="1">
@@ -8381,7 +8363,7 @@
         <v>45060</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1">
         <v>404</v>
@@ -8423,14 +8405,14 @@
         <v>22</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="1">
         <v>19</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -8438,7 +8420,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -8480,14 +8462,14 @@
         <v>22</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <v>20</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -8495,7 +8477,7 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1">
         <v>2.2999999999999998</v>
@@ -8537,7 +8519,7 @@
         <v>22</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="1">
@@ -8555,7 +8537,7 @@
         <v>45065</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1">
         <v>1.7</v>
@@ -8597,7 +8579,7 @@
         <v>22</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="1">
@@ -8615,7 +8597,7 @@
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1">
         <v>2.17</v>
@@ -8657,7 +8639,7 @@
         <v>22</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="1">
@@ -8675,7 +8657,7 @@
         <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1">
         <v>3.37</v>
@@ -8717,14 +8699,14 @@
         <v>16</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="1">
         <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -8732,7 +8714,7 @@
         <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1">
         <v>2.2599999999999998</v>
@@ -8774,7 +8756,7 @@
         <v>16</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="1">
@@ -8789,7 +8771,7 @@
         <v>45074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1">
         <v>2.4</v>
@@ -8838,7 +8820,7 @@
         <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T26" s="1">
         <v>1.86</v>
@@ -8849,7 +8831,7 @@
         <v>45075</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1">
         <v>2.0499999999999998</v>
@@ -8891,7 +8873,7 @@
         <v>22</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1">
@@ -8906,7 +8888,7 @@
         <v>45075</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>1.94</v>
@@ -8948,7 +8930,7 @@
         <v>16</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1">
@@ -9088,7 +9070,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9131,13 +9113,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>37</v>
@@ -9163,13 +9145,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H2" s="32">
         <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
@@ -9188,7 +9170,7 @@
         <v>45052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="37">
         <v>1.86</v>
@@ -9197,13 +9179,13 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
@@ -9214,7 +9196,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9222,7 +9204,7 @@
         <v>45053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="37">
         <v>1.68</v>
@@ -9231,13 +9213,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
@@ -9256,7 +9238,7 @@
         <v>45053</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="42">
         <v>1.7</v>
@@ -9265,13 +9247,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
@@ -9282,7 +9264,7 @@
         <v>49.97999999999999</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9290,7 +9272,7 @@
         <v>45053</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="42">
         <v>1.73</v>
@@ -9299,13 +9281,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
@@ -9316,7 +9298,7 @@
         <v>52.121999999999986</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9324,7 +9306,7 @@
         <v>45054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="42">
         <v>1.78</v>
@@ -9333,13 +9315,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="0"/>
@@ -9358,7 +9340,7 @@
         <v>45054</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="42">
         <v>1.63</v>
@@ -9367,13 +9349,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H8" s="32">
         <f t="shared" si="0"/>
@@ -9384,7 +9366,7 @@
         <v>44.981999999999985</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9392,7 +9374,7 @@
         <v>45059</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="42">
         <v>1.96</v>
@@ -9401,13 +9383,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" s="32">
         <f t="shared" si="0"/>
@@ -9425,7 +9407,7 @@
         <v>45065</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="42">
         <v>1.72</v>
@@ -9434,13 +9416,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" si="0"/>
@@ -9451,7 +9433,7 @@
         <v>51.407999999999987</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9459,7 +9441,7 @@
         <v>45065</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="42">
         <v>1.67</v>
@@ -9468,13 +9450,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="32">
         <f t="shared" si="0"/>
@@ -9485,7 +9467,7 @@
         <v>47.837999999999994</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9493,7 +9475,7 @@
         <v>45066</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="42">
         <v>1.98</v>
@@ -9502,13 +9484,13 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="H12" s="32">
         <f t="shared" si="0"/>
@@ -9519,7 +9501,7 @@
         <v>69.971999999999994</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9527,7 +9509,7 @@
         <v>45074</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="42">
         <v>1.86</v>
@@ -9536,13 +9518,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
@@ -9553,7 +9535,7 @@
         <v>61.404000000000011</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9639,7 +9621,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -9655,16 +9637,16 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9673,7 +9655,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="27">
@@ -9698,7 +9680,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="30">
@@ -9724,7 +9706,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -9750,7 +9732,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -9776,7 +9758,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -9802,7 +9784,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="30">
@@ -9829,7 +9811,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="30">
@@ -9877,7 +9859,7 @@
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="31">
@@ -9902,7 +9884,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="32">
@@ -9928,7 +9910,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="32">
@@ -9954,7 +9936,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="32">
@@ -9980,7 +9962,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -10383,21 +10365,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F53">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 I2:I17">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10411,8 +10393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10498,7 +10480,7 @@
         <v>45080</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="5">
         <v>2.48</v>
@@ -10537,17 +10519,17 @@
         <v>1.645</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -10556,7 +10538,7 @@
         <v>45087</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5">
         <v>1.44</v>
@@ -10595,17 +10577,17 @@
         <v>2.11</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -10614,7 +10596,7 @@
         <v>45095</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5">
         <v>1.96</v>
@@ -10653,17 +10635,17 @@
         <v>1.74</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>22</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -10672,7 +10654,7 @@
         <v>45100</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -10711,17 +10693,17 @@
         <v>404</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="1">
         <v>22</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -10730,7 +10712,7 @@
         <v>45102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1">
         <v>2.39</v>
@@ -10769,17 +10751,17 @@
         <v>1.5549999999999999</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
         <v>25</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -11269,7 +11251,421 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="P1:P15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
   <si>
     <t>DATA</t>
   </si>
@@ -1100,6 +1100,12 @@
   </si>
   <si>
     <t>D. ESPANOL vs EXCURSIONISTAS</t>
+  </si>
+  <si>
+    <t>SEONGNAM vs GIMPO</t>
+  </si>
+  <si>
+    <t> SOUTH KOREA - K LEAGUE 2</t>
   </si>
 </sst>
 </file>
@@ -1481,17 +1487,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1886,11 +1882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219861160"/>
-        <c:axId val="219859592"/>
+        <c:axId val="259175624"/>
+        <c:axId val="259176016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219861160"/>
+        <c:axId val="259175624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,12 +1939,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219859592"/>
+        <c:crossAx val="259176016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219859592"/>
+        <c:axId val="259176016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +1998,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219861160"/>
+        <c:crossAx val="259175624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5406,7 +5402,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P25">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6256,7 +6252,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P29">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9070,7 +9066,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10365,21 +10361,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F53">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 I2:I17">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11251,7 +11247,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11265,7 +11261,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11347,7 +11343,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>179</v>
@@ -11378,8 +11374,12 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="6">
+        <v>45116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -11392,11 +11392,17 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="1">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -11665,7 +11671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="186">
   <si>
     <t>DATA</t>
   </si>
@@ -1106,6 +1106,18 @@
   </si>
   <si>
     <t> SOUTH KOREA - K LEAGUE 2</t>
+  </si>
+  <si>
+    <t> DAEGU vs GANGWON</t>
+  </si>
+  <si>
+    <t> SOUTH KOREA - K LEAGUE 1</t>
+  </si>
+  <si>
+    <t>   T. DE CORDOBA vs UNION SANTA FE</t>
+  </si>
+  <si>
+    <t> ARGENTINA - LIGA PROFESIONAL</t>
   </si>
 </sst>
 </file>
@@ -1882,11 +1894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259175624"/>
-        <c:axId val="259176016"/>
+        <c:axId val="273413560"/>
+        <c:axId val="273414736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259175624"/>
+        <c:axId val="273413560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +1951,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259176016"/>
+        <c:crossAx val="273414736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259176016"/>
+        <c:axId val="273414736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2010,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259175624"/>
+        <c:crossAx val="273413560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11261,7 +11273,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11348,18 +11360,42 @@
       <c r="B2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="5">
+        <v>2.86</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2.83</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2.76</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="L2" s="17">
+        <v>2.46</v>
+      </c>
+      <c r="M2" s="17">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1.44</v>
+      </c>
       <c r="O2" s="18" t="s">
         <v>119</v>
       </c>
@@ -11380,18 +11416,42 @@
       <c r="B3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="C3" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="F3" s="17">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3.07</v>
+      </c>
+      <c r="H3" s="17">
+        <v>3.27</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="L3" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="M3" s="17">
+        <v>2.59</v>
+      </c>
+      <c r="N3" s="17">
+        <v>1.5309999999999999</v>
+      </c>
       <c r="O3" s="18" t="s">
         <v>120</v>
       </c>
@@ -11406,52 +11466,119 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
+      <c r="A4" s="6">
+        <v>45118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.657</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3.8</v>
+      </c>
+      <c r="H4" s="17">
+        <v>5.87</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="L4" s="17">
+        <v>3.13</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1.714</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="1">
+        <v>19</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="A5" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3.29</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3.91</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L5" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="15"/>
+      <c r="R5" s="1">
+        <v>21</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="187">
   <si>
     <t>DATA</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t> ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>AC NUMAZU vs KAGOSHIMA UTD</t>
   </si>
 </sst>
 </file>
@@ -1894,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273413560"/>
-        <c:axId val="273414736"/>
+        <c:axId val="266976624"/>
+        <c:axId val="266977016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273413560"/>
+        <c:axId val="266976624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,12 +1954,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273414736"/>
+        <c:crossAx val="266977016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273414736"/>
+        <c:axId val="266977016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2013,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273413560"/>
+        <c:crossAx val="266976624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11272,8 +11275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11578,24 +11581,59 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="A6" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3.18</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>404</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L6" s="13">
+        <v>404</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="1">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="188">
   <si>
     <t>DATA</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>AC NUMAZU vs KAGOSHIMA UTD</t>
+  </si>
+  <si>
+    <t>CHEONGJU vs SEOUL E-LAND</t>
   </si>
 </sst>
 </file>
@@ -1897,11 +1900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266976624"/>
-        <c:axId val="266977016"/>
+        <c:axId val="211662128"/>
+        <c:axId val="260369872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266976624"/>
+        <c:axId val="211662128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,12 +1957,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266977016"/>
+        <c:crossAx val="260369872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266977016"/>
+        <c:axId val="260369872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2016,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266976624"/>
+        <c:crossAx val="211662128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11275,8 +11278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11637,8 +11640,12 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4">
+        <v>45130</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -11651,11 +11658,17 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="1">
+        <v>22</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -1900,11 +1900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211662128"/>
-        <c:axId val="260369872"/>
+        <c:axId val="263688184"/>
+        <c:axId val="212808144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211662128"/>
+        <c:axId val="263688184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +1957,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260369872"/>
+        <c:crossAx val="212808144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260369872"/>
+        <c:axId val="212808144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2016,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211662128"/>
+        <c:crossAx val="263688184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11278,8 +11278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11646,18 +11646,42 @@
       <c r="B7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="C7" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.92</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3.29</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2.59</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="L7" s="13">
+        <v>2.96</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2.29</v>
+      </c>
+      <c r="N7" s="13">
+        <v>1.6619999999999999</v>
+      </c>
       <c r="O7" s="14" t="s">
         <v>120</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="maioGENESIS" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
   <si>
     <t>DATA</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>GENOA vs BARI</t>
-  </si>
-  <si>
-    <t>void</t>
   </si>
   <si>
     <t>GANGWON vs POHANG STEELERS</t>
@@ -1327,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,9 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,6 +1670,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1790,7 +1785,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>maioInvest!$G$23:$G$53</c:f>
+              <c:f>maioInvest!$G$14:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1810,82 +1805,82 @@
                   <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2611.404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2762.058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2861.3040000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2931.2760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,11 +1895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263688184"/>
-        <c:axId val="212808144"/>
+        <c:axId val="400087784"/>
+        <c:axId val="400086216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="263688184"/>
+        <c:axId val="400087784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +1952,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212808144"/>
+        <c:crossAx val="400086216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212808144"/>
+        <c:axId val="400086216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2011,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263688184"/>
+        <c:crossAx val="400087784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2624,13 +2619,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2962,71 +2957,71 @@
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="P1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="S1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="55" t="s">
         <v>159</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="U1" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3567,7 +3562,7 @@
         <v>104</v>
       </c>
       <c r="W9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -3839,7 +3834,7 @@
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -4122,7 +4117,7 @@
         <v>45063</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>2.46</v>
@@ -4190,7 +4185,7 @@
         <v>45065</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>1.97</v>
@@ -4315,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="W20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -4326,7 +4321,7 @@
         <v>45066</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21">
         <v>3.02</v>
@@ -4394,7 +4389,7 @@
         <v>45067</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <v>3.08</v>
@@ -4448,7 +4443,7 @@
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W22" t="s">
         <v>79</v>
@@ -4467,7 +4462,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,10 +4820,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>44941</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="13"/>
@@ -5161,10 +5156,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+      <c r="A18" s="58">
         <v>44954</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="13"/>
@@ -5199,10 +5194,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
+      <c r="A19" s="58">
         <v>44954</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="13"/>
@@ -5528,7 +5523,7 @@
       <c r="A2" s="4">
         <v>44961</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="13"/>
@@ -5679,7 +5674,7 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7286,10 +7281,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8434,7 +8429,7 @@
         <v>45063</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1">
         <v>2.2999999999999998</v>
@@ -8491,7 +8486,7 @@
         <v>45065</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1">
         <v>2.2999999999999998</v>
@@ -8611,7 +8606,7 @@
         <v>45066</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1">
         <v>2.17</v>
@@ -8671,7 +8666,7 @@
         <v>45067</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1">
         <v>3.37</v>
@@ -8720,7 +8715,7 @@
         <v>25</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -8728,7 +8723,7 @@
         <v>45072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1">
         <v>2.2599999999999998</v>
@@ -8785,7 +8780,7 @@
         <v>45074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1">
         <v>2.4</v>
@@ -8834,7 +8829,7 @@
         <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T26" s="1">
         <v>1.86</v>
@@ -8845,7 +8840,7 @@
         <v>45075</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1">
         <v>2.0499999999999998</v>
@@ -8902,7 +8897,7 @@
         <v>45075</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1">
         <v>1.94</v>
@@ -8956,7 +8951,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="1"/>
-      <c r="S29" s="30"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
@@ -8968,23 +8963,24 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="30"/>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q33" s="1"/>
-      <c r="S33" s="30"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="44"/>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="45"/>
-    </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="44"/>
+    </row>
+    <row r="35" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="45"/>
     </row>
-    <row r="36" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="46"/>
@@ -8992,35 +8988,34 @@
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="47"/>
+      <c r="S37" s="46"/>
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="47"/>
+      <c r="S38" s="46"/>
     </row>
     <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="47"/>
+      <c r="S39" s="46"/>
     </row>
     <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="47"/>
+      <c r="S40" s="7"/>
     </row>
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
+      <c r="Q41" s="1"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q42" s="1"/>
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="1"/>
-      <c r="S43" s="32"/>
+      <c r="Q43" s="34"/>
+      <c r="S43" s="1"/>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q44" s="34"/>
@@ -9031,7 +9026,7 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q46" s="34"/>
+      <c r="Q46" s="1"/>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
@@ -9078,13 +9073,9 @@
       <c r="Q57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q58" s="1"/>
-      <c r="S58" s="1"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9095,10 +9086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9111,9 +9102,10 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -9132,7 +9124,7 @@
       <c r="F1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>123</v>
       </c>
       <c r="H1" s="35" t="s">
@@ -9145,875 +9137,770 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>45049</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45053</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1.75</v>
-      </c>
-      <c r="D2" s="38">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="C2" s="41">
+        <v>1.92</v>
+      </c>
+      <c r="D2" s="37">
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>122</v>
       </c>
       <c r="H2" s="32">
-        <f t="shared" ref="H2:H13" si="0">C2*D$33</f>
-        <v>124.94999999999999</v>
+        <f>C2*D$24</f>
+        <v>137.08799999999997</v>
       </c>
       <c r="I2" s="32">
-        <f t="shared" ref="I2:I8" si="1">IF(G2="halfred",-(D$33/2),H2-D$33)</f>
-        <v>53.55</v>
+        <f>IF(G2="halfred",-(D$24/2),H2-D$24)</f>
+        <v>65.687999999999974</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45052</v>
+        <v>45054</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1.86</v>
-      </c>
-      <c r="D3" s="38">
-        <v>22</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="D3" s="37">
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>122</v>
+      <c r="F3" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="H3" s="32">
-        <f t="shared" si="0"/>
-        <v>132.804</v>
+        <f>C3*D$24</f>
+        <v>127.09199999999998</v>
       </c>
       <c r="I3" s="32">
-        <f t="shared" si="1"/>
-        <v>61.404000000000011</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f>IF(G3="halfred",-(D$24/2),H3-D$24)</f>
+        <v>-35.699999999999996</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1.68</v>
-      </c>
-      <c r="D4" s="38">
-        <v>24</v>
+        <v>124</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1.84</v>
+      </c>
+      <c r="D4" s="37">
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>12</v>
+      <c r="F4" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>122</v>
       </c>
       <c r="H4" s="32">
+        <f>C4*D$24</f>
+        <v>131.37599999999998</v>
+      </c>
+      <c r="I4" s="32">
+        <f>IF(G4="halfred",-(D$24/2),H4-D$24)</f>
+        <v>59.975999999999985</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="42"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>COUNT(D2:D4)</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <f>F14 +D22</f>
+        <v>2550</v>
+      </c>
+      <c r="H14" s="1">
+        <f>F14/D$22*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30">
+        <f>D12-D14</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <f>F15 +G14</f>
+        <v>2550</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:H44" si="0">F15/D$22*100</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>D15/D12*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" ref="G16:G44" si="1">F16 +G15</f>
+        <v>2550</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>119.95199999999998</v>
-      </c>
-      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>1/D18*100</f>
+        <v>54.151624548736464</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>48.551999999999992</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="42">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="38">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="32">
+        <v>2550</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>121.37999999999998</v>
-      </c>
-      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>SUM(C2:C8)/D12</f>
+        <v>1.8466666666666667</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
-        <v>49.97999999999999</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45053</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1.73</v>
-      </c>
-      <c r="D6" s="38">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="32">
+        <v>2550</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>123.52199999999998</v>
-      </c>
-      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30">
+        <f>D16-D17</f>
+        <v>12.515042117930193</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="28" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>52.121999999999986</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1.78</v>
-      </c>
-      <c r="D7" s="38">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>127.09199999999998</v>
-      </c>
-      <c r="I7" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30">
+        <f>D26/1</f>
+        <v>3.5279999999999987</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="28">
+        <f>SUM(I2:I2)</f>
+        <v>65.687999999999974</v>
+      </c>
+      <c r="G20" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>-35.699999999999996</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="42">
-        <v>1.63</v>
-      </c>
-      <c r="D8" s="38">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>116.38199999999998</v>
-      </c>
-      <c r="I8" s="32">
+        <v>2.5759999999999992</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>44.981999999999985</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45059</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="42">
-        <v>1.96</v>
-      </c>
-      <c r="D9" s="38">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>139.94399999999999</v>
-      </c>
-      <c r="I9" s="32">
         <v>0</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="42">
-        <v>1.72</v>
-      </c>
-      <c r="D10" s="38">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="32">
-        <f t="shared" si="0"/>
-        <v>122.80799999999998</v>
-      </c>
-      <c r="I10" s="32">
-        <f>IF(G10="halfred",-(D$33/2),H10-D$33)</f>
-        <v>51.407999999999987</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="42">
-        <v>1.67</v>
-      </c>
-      <c r="D11" s="38">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="32">
-        <f t="shared" si="0"/>
-        <v>119.23799999999999</v>
-      </c>
-      <c r="I11" s="32">
-        <f>IF(G11="halfred",-(D$33/2),H11-D$33)</f>
-        <v>47.837999999999994</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45066</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="42">
-        <v>1.98</v>
-      </c>
-      <c r="D12" s="38">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="32">
-        <f t="shared" si="0"/>
-        <v>141.37199999999999</v>
-      </c>
-      <c r="I12" s="32">
-        <f>IF(G12="halfred",-(D$33/2),H12-D$33)</f>
-        <v>69.971999999999994</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45074</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1.86</v>
-      </c>
-      <c r="D13" s="38">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="32">
-        <f t="shared" si="0"/>
-        <v>132.804</v>
-      </c>
-      <c r="I13" s="32">
-        <f>IF(G13="halfred",-(D$33/2),H13-D$33)</f>
-        <v>61.404000000000011</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="43"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <f>COUNT(D2:D13)</f>
-        <v>12</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="31">
+        <v>2550</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="27">
-        <v>1</v>
+      <c r="D23" s="32">
+        <f>D22/100</f>
+        <v>25.5</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
       </c>
-      <c r="G23" s="29">
-        <f>F23 +D31</f>
-        <v>2550</v>
+      <c r="G23" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H23" s="1">
-        <f>F23/D$31*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30">
-        <f>D21-D23</f>
+      <c r="D24" s="32">
+        <f>D23*2.8</f>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="E24" s="1">
         <v>11</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
       </c>
       <c r="F24" s="28">
         <v>0</v>
       </c>
-      <c r="G24" s="29">
-        <f>F24 +G23</f>
-        <v>2550</v>
+      <c r="G24" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H53" si="2">F24/D$31*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <f>D24/D21*100</f>
-        <v>91.666666666666657</v>
+      <c r="D25" s="32">
+        <f>SUM(I2:I8)</f>
+        <v>89.96399999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F25" s="28">
         <v>0</v>
       </c>
-      <c r="G25" s="29">
-        <f t="shared" ref="G25:G53" si="3">F25 +G24</f>
-        <v>2550</v>
+      <c r="G25" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <f>1/D27*100</f>
-        <v>56.285178236397748</v>
+        <f>D25/D22*100</f>
+        <v>3.5279999999999987</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="3"/>
-        <v>2550</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F26" s="28" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <f>SUM(C2:C17)/D21</f>
-        <v>1.7766666666666666</v>
-      </c>
       <c r="E27" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F27" s="28">
         <v>0</v>
       </c>
-      <c r="G27" s="29">
-        <f t="shared" si="3"/>
-        <v>2550</v>
+      <c r="G27" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="30">
-        <f>D25-D26</f>
-        <v>35.381488430268909</v>
-      </c>
+      <c r="D28" s="32"/>
       <c r="E28" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F28" s="28">
-        <f>I3</f>
-        <v>61.404000000000011</v>
-      </c>
-      <c r="G28" s="29">
-        <f t="shared" si="3"/>
-        <v>2611.404</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4080000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="30">
-        <f>D35/1</f>
-        <v>17.723999999999997</v>
-      </c>
+      <c r="D29" s="32"/>
       <c r="E29" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F29" s="28">
-        <f>SUM(I4:I6)</f>
-        <v>150.65399999999997</v>
-      </c>
-      <c r="G29" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9079999999999986</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>8</v>
-      </c>
-      <c r="F30" s="48">
+        <v>17</v>
+      </c>
+      <c r="F30" s="28">
         <v>0</v>
       </c>
-      <c r="G30" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G30" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="B31" s="34"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="31">
-        <v>2550</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
       </c>
-      <c r="G31" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G31" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B32" s="34"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="32">
-        <f>D31/100</f>
-        <v>25.5</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="28" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="32">
-        <f>D32*2.8</f>
-        <v>71.399999999999991</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>11</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F33" s="28" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="32">
-        <f>SUM(I3:I17)</f>
-        <v>451.96199999999988</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
       </c>
-      <c r="G34" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G34" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="33" t="s">
-        <v>98</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <f>D34/D31*100</f>
-        <v>17.723999999999997</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F35" s="28">
-        <f>I9</f>
         <v>0</v>
       </c>
-      <c r="G35" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G35" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
       </c>
-      <c r="G36" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G36" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
@@ -10022,19 +9909,19 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F37" s="28">
         <v>0</v>
       </c>
-      <c r="G37" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G37" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
@@ -10043,84 +9930,83 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F38" s="28">
         <v>0</v>
       </c>
-      <c r="G38" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G38" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
       </c>
-      <c r="G39" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G39" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F40" s="28">
         <v>0</v>
       </c>
-      <c r="G40" s="29">
-        <f t="shared" si="3"/>
-        <v>2762.058</v>
+      <c r="G40" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F41" s="28">
-        <f>SUM(I10:I11)</f>
-        <v>99.245999999999981</v>
-      </c>
-      <c r="G41" s="29">
-        <f t="shared" si="3"/>
-        <v>2861.3040000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>3.891999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -10130,19 +10016,18 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F42" s="28">
-        <f>I12</f>
-        <v>69.971999999999994</v>
-      </c>
-      <c r="G42" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7439999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -10152,17 +10037,17 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F43" s="28">
         <v>0</v>
       </c>
-      <c r="G43" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
+      <c r="G43" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -10173,212 +10058,23 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F44" s="28">
         <v>0</v>
       </c>
-      <c r="G44" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
+      <c r="G44" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <v>23</v>
-      </c>
-      <c r="F45" s="28">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>24</v>
-      </c>
-      <c r="F46" s="28">
-        <v>0</v>
-      </c>
-      <c r="G46" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>25</v>
-      </c>
-      <c r="F47" s="28">
-        <v>0</v>
-      </c>
-      <c r="G47" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
-        <v>26</v>
-      </c>
-      <c r="F48" s="28">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>27</v>
-      </c>
-      <c r="F49" s="28">
-        <v>0</v>
-      </c>
-      <c r="G49" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1">
-        <v>28</v>
-      </c>
-      <c r="F50" s="28">
-        <v>0</v>
-      </c>
-      <c r="G50" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>29</v>
-      </c>
-      <c r="F51" s="28">
-        <v>0</v>
-      </c>
-      <c r="G51" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1">
-        <v>30</v>
-      </c>
-      <c r="F52" s="28">
-        <v>0</v>
-      </c>
-      <c r="G52" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
-        <v>31</v>
-      </c>
-      <c r="F53" s="28">
-        <v>0</v>
-      </c>
-      <c r="G53" s="29">
-        <f t="shared" si="3"/>
-        <v>2931.2760000000003</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F23:F53">
+  <conditionalFormatting sqref="F14:F44">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10389,7 +10085,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 I2:I17">
+  <conditionalFormatting sqref="H9 I2:I8">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10407,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:T15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10494,7 +10190,7 @@
         <v>45080</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="5">
         <v>2.48</v>
@@ -10536,14 +10232,14 @@
         <v>120</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -10552,7 +10248,7 @@
         <v>45087</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="5">
         <v>1.44</v>
@@ -10594,14 +10290,14 @@
         <v>120</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -10610,7 +10306,7 @@
         <v>45095</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5">
         <v>1.96</v>
@@ -10652,14 +10348,14 @@
         <v>119</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>22</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -10668,7 +10364,7 @@
         <v>45100</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -10710,14 +10406,14 @@
         <v>120</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="1">
         <v>22</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -10726,7 +10422,7 @@
         <v>45102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1">
         <v>2.39</v>
@@ -10768,14 +10464,14 @@
         <v>120</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="1">
         <v>25</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -11278,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11364,7 +11060,7 @@
         <v>45116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5">
         <v>2.86</v>
@@ -11411,7 +11107,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -11420,7 +11116,7 @@
         <v>45116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5">
         <v>2.35</v>
@@ -11467,7 +11163,7 @@
         <v>23</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -11476,7 +11172,7 @@
         <v>45118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="5">
         <v>1.62</v>
@@ -11523,7 +11219,7 @@
         <v>19</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -11532,7 +11228,7 @@
         <v>45118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>2.0299999999999998</v>
@@ -11579,7 +11275,7 @@
         <v>21</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -11588,7 +11284,7 @@
         <v>45123</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1">
         <v>2.82</v>
@@ -11644,7 +11340,7 @@
         <v>45130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1">
         <v>2.76</v>
@@ -11691,7 +11387,7 @@
         <v>22</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T7" s="1"/>
     </row>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="maioGENESIS" sheetId="10" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="maioInvest" sheetId="9" r:id="rId7"/>
     <sheet name="junho" sheetId="11" r:id="rId8"/>
     <sheet name="julho" sheetId="12" r:id="rId9"/>
+    <sheet name="outubro" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="189">
   <si>
     <t>DATA</t>
   </si>
@@ -1121,6 +1122,12 @@
   </si>
   <si>
     <t>CHEONGJU vs SEOUL E-LAND</t>
+  </si>
+  <si>
+    <t>LEEDS UTD vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>MAIDENHEAD UTD vs ROCHDALE</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1495,11 +1502,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1670,7 +1690,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,11 +1914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400087784"/>
-        <c:axId val="400086216"/>
+        <c:axId val="264490568"/>
+        <c:axId val="209344024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400087784"/>
+        <c:axId val="264490568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,12 +1971,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400086216"/>
+        <c:crossAx val="209344024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400086216"/>
+        <c:axId val="209344024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2030,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400087784"/>
+        <c:crossAx val="264490568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4457,6 +4476,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2">
+        <v>1.54</v>
+      </c>
+      <c r="D2">
+        <v>4.3</v>
+      </c>
+      <c r="E2">
+        <v>5.6</v>
+      </c>
+      <c r="F2">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="G2">
+        <v>4.45</v>
+      </c>
+      <c r="H2">
+        <v>5.83</v>
+      </c>
+      <c r="I2">
+        <v>404</v>
+      </c>
+      <c r="J2">
+        <v>1.68</v>
+      </c>
+      <c r="K2">
+        <v>2.08</v>
+      </c>
+      <c r="L2">
+        <v>4.29</v>
+      </c>
+      <c r="M2">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="N2">
+        <v>2.17</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3">
+        <v>3.29</v>
+      </c>
+      <c r="D3">
+        <v>3.25</v>
+      </c>
+      <c r="E3">
+        <v>2.13</v>
+      </c>
+      <c r="F3">
+        <v>3.43</v>
+      </c>
+      <c r="G3">
+        <v>3.38</v>
+      </c>
+      <c r="H3">
+        <v>2.19</v>
+      </c>
+      <c r="I3">
+        <v>2.98</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1.7</v>
+      </c>
+      <c r="L3">
+        <v>3.28</v>
+      </c>
+      <c r="M3">
+        <v>2.09</v>
+      </c>
+      <c r="N3">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
@@ -5415,7 +5632,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P25">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6265,7 +6482,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P29">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9075,7 +9292,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9088,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10075,21 +10292,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F44">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 I2:I8">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10961,7 +11178,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10974,8 +11191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11569,7 +11786,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="190">
   <si>
     <t>DATA</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t>MAIDENHEAD UTD vs ROCHDALE</t>
+  </si>
+  <si>
+    <t> MORECAMBE vs AFC WIMBLEDON</t>
   </si>
 </sst>
 </file>
@@ -1914,11 +1917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264490568"/>
-        <c:axId val="209344024"/>
+        <c:axId val="267558160"/>
+        <c:axId val="267557768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264490568"/>
+        <c:axId val="267558160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,12 +1974,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209344024"/>
+        <c:crossAx val="267557768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209344024"/>
+        <c:axId val="267557768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2033,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264490568"/>
+        <c:crossAx val="267558160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4478,10 +4481,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,7 +4609,7 @@
       <c r="R2">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4661,6 +4664,23 @@
       </c>
       <c r="S3" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ.xlsx
+++ b/tecnica_analise/2023/MATRIZ.xlsx
@@ -1917,11 +1917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267558160"/>
-        <c:axId val="267557768"/>
+        <c:axId val="215042128"/>
+        <c:axId val="215042912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267558160"/>
+        <c:axId val="215042128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,12 +1974,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267557768"/>
+        <c:crossAx val="215042912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267557768"/>
+        <c:axId val="215042912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2033,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267558160"/>
+        <c:crossAx val="215042128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4673,6 +4673,42 @@
       <c r="B4" t="s">
         <v>189</v>
       </c>
+      <c r="C4">
+        <v>2.87</v>
+      </c>
+      <c r="D4">
+        <v>3.19</v>
+      </c>
+      <c r="E4">
+        <v>2.31</v>
+      </c>
+      <c r="F4">
+        <v>3.06</v>
+      </c>
+      <c r="G4">
+        <v>3.4</v>
+      </c>
+      <c r="H4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I4">
+        <v>3.15</v>
+      </c>
+      <c r="J4">
+        <v>1.87</v>
+      </c>
+      <c r="K4">
+        <v>1.77</v>
+      </c>
+      <c r="L4">
+        <v>3.58</v>
+      </c>
+      <c r="M4">
+        <v>1.99</v>
+      </c>
+      <c r="N4">
+        <v>1.88</v>
+      </c>
       <c r="O4" t="s">
         <v>120</v>
       </c>
